--- a/ARCHIVOS/Historias de usuario.xlsx
+++ b/ARCHIVOS/Historias de usuario.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yesenia\Documents\YESENIA\CLASES DEL SENA\Proyecto__SENA\ARCHIVOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A108C6-0857-4FE0-8A7F-1E6863FD224E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55152925-40EE-4BD3-BA89-74062F2D4703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,12 +144,6 @@
  PARA visualizar los servicios publicados desde el más reciente hasta el más antiguo </t>
   </si>
   <si>
-    <t>Se debe crear una pagina principal en la cual el perfil de cliente va a poder visualizar todos los servicios publicados de los mas recientes a los mas antiguos, mostrara la imagen, el titulo de la publicación y tendra un boton de mas informacion que pasara a mostrar todos los datos del producto individual, en la pagina principal tendra las opciones de menu, busquedad, inicio, perfil y categorias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Se debe realizar una página principal donde se puedan visualizar los productos del más reciente al más antiguo.  2) Se debe realizar una tarjeta por cada servicio publicado con su respectiva imagen y titulo, tendra un boton de más información que lo llevará directamente a la informacion completa tanto del producto como del proveedor. 3) Se debe realizar un barra de navegación superior que contenga los iconos de menu, el logo y la opcion de busquedad. 4) Se debe realizar una barra de navegación inferior que contenga los iconos inicio, perfil y categorías </t>
-  </si>
-  <si>
     <t>COMO cliente
  QUIERO que haya un icono 
  PARA visualizar las categorias de los servicios publicados</t>
@@ -188,6 +182,14 @@
   </si>
   <si>
     <t>Se debe crear un registro que le permita al usuario ingresar los siguientes datos para contar con un perfil en el aplicativo, N° de identificacion, fecha de nacimiento nombres, apellidos, direccion, celular, correo electronico, contraseña nueva y escoger el perfil de entrada de su preferencia.</t>
+  </si>
+  <si>
+    <t>Se debe crear una página principal en la cual el perfil de cliente va a poder visualizar todos los servicios publicados de los más recientes a los más antiguos, mostrara la imagen, el título de la publicación, y una breve descripción de los términos y tendrá un botón de más información que lo llevara a otra página que mostrara todos los datos del producto de manera más específica, en la página principal tendrá una barra de navegación con diferentes funcionalidades.</t>
+  </si>
+  <si>
+    <t>1) Se debe realizar una página principal donde se puedan visualizar los productos del más reciente al más antiguo. 
+ 2) Se debe realizar una tarjeta por cada servicio publicado con su respectiva imagen, nombre, precio, y una breve descripción de los términos, también tendrá un botón de más información que lo llevará directamente a la información completa tanto del producto como del proveedor que realizo la publicación. 
+3) Se debe realizar una barra de navegación donde podrá visualizar con mayor facilidad las funcionalidades de acuerdo con su perfil como cliente.</t>
   </si>
 </sst>
 </file>
@@ -568,8 +570,8 @@
   </sheetPr>
   <dimension ref="A1:E994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -609,10 +611,10 @@
         <v>25</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -620,7 +622,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>26</v>
@@ -654,7 +656,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>29</v>
@@ -671,7 +673,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>14</v>
@@ -688,16 +690,16 @@
         <v>15</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="E7" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -705,7 +707,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>34</v>
@@ -714,7 +716,7 @@
         <v>35</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="150.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -728,7 +730,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>36</v>

--- a/ARCHIVOS/Historias de usuario.xlsx
+++ b/ARCHIVOS/Historias de usuario.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yesenia\Documents\YESENIA\CLASES DEL SENA\PROYECTO_SENA\ARCHIVOS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5F2820-5C32-4E5D-9656-FA56103BED13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>ID</t>
   </si>
@@ -64,19 +73,10 @@
     <t>HU8</t>
   </si>
   <si>
-    <t>COMO cliente QUIERO que haya un formulario PARA realizar la solicitud de un servicio específico que no fue encontrado en las publicaciones</t>
-  </si>
-  <si>
     <t>HU9</t>
   </si>
   <si>
-    <t>Como proveedor QUIERO que haya una página PARA visualizar las solicitudes de servicios realizadas por los clientes, donde pueda aprobar la que esté acorde a mis conocimientos</t>
-  </si>
-  <si>
     <t>HU10</t>
-  </si>
-  <si>
-    <t>COMO cliente o proveedor QUIERO que haya un apartado PARA solicitar más información acerca de los servicios publicados</t>
   </si>
   <si>
     <t>HU11</t>
@@ -88,9 +88,6 @@
     <t>HU12</t>
   </si>
   <si>
-    <t>COMO proveedor QUIERO poder realizar los servicios solicitados por los clientes PARA así tener mayores oportunidades de darme a conocer en la comunidad</t>
-  </si>
-  <si>
     <t>HU13</t>
   </si>
   <si>
@@ -100,13 +97,7 @@
     <t>HU14</t>
   </si>
   <si>
-    <t>COMO proveedor QUIERO que la aplicación web me permita calificar un cliente PARAasí tener referencia de la persona a la cual se le va a realizar el servicio</t>
-  </si>
-  <si>
     <t>HU15</t>
-  </si>
-  <si>
-    <t>Como cliente o proveedor QUIERO que haya una página PARA que me permita visualizar el historial de servicios sean realizados o adquiridos</t>
   </si>
   <si>
     <t>HU16</t>
@@ -114,40 +105,66 @@
   <si>
     <t>Como cliente QUIERO que haya una página PARA que me permita visualizar mis servicios favoritos</t>
   </si>
+  <si>
+    <t>COMO cliente QUIERO que haya un formulario PARA publicar solicitudes de servicios que no fueron encontradas y sean más personalizados de acuerdo a lo necesitado</t>
+  </si>
+  <si>
+    <t>COMO prestador de servicios QUIERO un apartado donde se muestren las solicitudes que realizaron los clientes PARA aceptar un servicio que pueda realizar de acuerdo a mis conocimientos</t>
+  </si>
+  <si>
+    <t>Como cliente o prestador de servicios QUIERO que haya una página PARA que me permita visualizar el historial de servicios sean realizados o adquiridos</t>
+  </si>
+  <si>
+    <t>COMO prestador de servicios QUIERO que la aplicación web me permita calificar un cliente PARA así tener referencia de la persona a la cual se le va a realizar el servicio</t>
+  </si>
+  <si>
+    <t>COMO prestador de servicios QUIERO poder realizar los servicios solicitados por los clientes PARA así tener mayores oportunidades de darme a conocer en la comunidad</t>
+  </si>
+  <si>
+    <t>COMO cliente o prestador de servicios QUIERO que haya un apartado PARA solicitar más información acerca de los servicios publicados</t>
+  </si>
+  <si>
+    <t>Como prestador de servicios QUIERO que haya una página PARA visualizar las solicitudes de servicios realizadas por los clientes, donde pueda aprobar la que esté acorde a mis conocimientos</t>
+  </si>
+  <si>
+    <t>HU17</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16.0"/>
+      <sz val="16"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -157,7 +174,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -167,7 +184,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -181,44 +204,48 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -408,24 +435,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:W982"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.75"/>
-    <col customWidth="1" min="2" max="2" width="31.25"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:23" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -454,7 +486,7 @@
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
     </row>
-    <row r="2" ht="109.5" customHeight="1">
+    <row r="2" spans="1:23" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -483,7 +515,7 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
     </row>
-    <row r="3" ht="126.75" customHeight="1">
+    <row r="3" spans="1:23" ht="126.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -512,7 +544,7 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" ht="126.75" customHeight="1">
+    <row r="4" spans="1:23" ht="126.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -541,12 +573,12 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" ht="126.75" customHeight="1">
+    <row r="5" spans="1:23" ht="126.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -570,12 +602,12 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
     </row>
-    <row r="6" ht="126.75" customHeight="1">
+    <row r="6" spans="1:23" ht="126.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -599,12 +631,12 @@
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
     </row>
-    <row r="7" ht="126.75" customHeight="1">
+    <row r="7" spans="1:23" ht="126.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -628,12 +660,12 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
     </row>
-    <row r="8" ht="126.75" customHeight="1">
+    <row r="8" spans="1:23" ht="126.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -657,12 +689,12 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" ht="126.75" customHeight="1">
+    <row r="9" spans="1:23" ht="126.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -686,12 +718,12 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
     </row>
-    <row r="10" ht="126.75" customHeight="1">
+    <row r="10" spans="1:23" ht="126.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -715,12 +747,12 @@
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
     </row>
-    <row r="11" ht="126.75" customHeight="1">
+    <row r="11" spans="1:23" ht="126.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -744,12 +776,12 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
     </row>
-    <row r="12" ht="126.75" customHeight="1">
+    <row r="12" spans="1:23" ht="126.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -773,12 +805,12 @@
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
     </row>
-    <row r="13" ht="126.75" customHeight="1">
+    <row r="13" spans="1:23" ht="126.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -802,12 +834,12 @@
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
     </row>
-    <row r="14" ht="126.75" customHeight="1">
+    <row r="14" spans="1:23" ht="126.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -831,12 +863,12 @@
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
     </row>
-    <row r="15" ht="126.75" customHeight="1">
+    <row r="15" spans="1:23" ht="126.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -860,12 +892,12 @@
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
     </row>
-    <row r="16" ht="126.75" customHeight="1">
+    <row r="16" spans="1:23" ht="126.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -889,12 +921,12 @@
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
     </row>
-    <row r="17" ht="126.75" customHeight="1">
+    <row r="17" spans="1:23" ht="126.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -918,9 +950,13 @@
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
     </row>
-    <row r="18">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
+    <row r="18" spans="1:23" ht="126.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -943,7 +979,7 @@
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="2"/>
@@ -968,7 +1004,7 @@
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="2"/>
@@ -993,7 +1029,7 @@
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="2"/>
@@ -1018,7 +1054,7 @@
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="2"/>
@@ -1043,7 +1079,7 @@
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="2"/>
@@ -1068,7 +1104,7 @@
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="2"/>
@@ -1093,7 +1129,7 @@
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="2"/>
@@ -1118,7 +1154,7 @@
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="2"/>
@@ -1143,7 +1179,7 @@
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="2"/>
@@ -1168,7 +1204,7 @@
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="2"/>
@@ -1193,7 +1229,7 @@
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="2"/>
@@ -1218,7 +1254,7 @@
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="2"/>
@@ -1243,7 +1279,7 @@
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="2"/>
@@ -1268,7 +1304,7 @@
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="2"/>
@@ -1293,7 +1329,7 @@
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="2"/>
@@ -1318,7 +1354,7 @@
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="2"/>
@@ -1343,7 +1379,7 @@
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="2"/>
@@ -1368,7 +1404,7 @@
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="2"/>
@@ -1393,7 +1429,7 @@
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="2"/>
@@ -1418,7 +1454,7 @@
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="2"/>
@@ -1443,7 +1479,7 @@
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="2"/>
@@ -1468,7 +1504,7 @@
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="2"/>
@@ -1493,7 +1529,7 @@
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="2"/>
@@ -1518,7 +1554,7 @@
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="2"/>
@@ -1543,7 +1579,7 @@
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="2"/>
@@ -1568,7 +1604,7 @@
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="2"/>
@@ -1593,7 +1629,7 @@
       <c r="V44" s="2"/>
       <c r="W44" s="2"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="2"/>
@@ -1618,7 +1654,7 @@
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="2"/>
@@ -1643,7 +1679,7 @@
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="2"/>
@@ -1668,7 +1704,7 @@
       <c r="V47" s="2"/>
       <c r="W47" s="2"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="2"/>
@@ -1693,7 +1729,7 @@
       <c r="V48" s="2"/>
       <c r="W48" s="2"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="2"/>
@@ -1718,7 +1754,7 @@
       <c r="V49" s="2"/>
       <c r="W49" s="2"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="2"/>
@@ -1743,7 +1779,7 @@
       <c r="V50" s="2"/>
       <c r="W50" s="2"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="2"/>
@@ -1768,7 +1804,7 @@
       <c r="V51" s="2"/>
       <c r="W51" s="2"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="2"/>
@@ -1793,7 +1829,7 @@
       <c r="V52" s="2"/>
       <c r="W52" s="2"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="2"/>
@@ -1818,7 +1854,7 @@
       <c r="V53" s="2"/>
       <c r="W53" s="2"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="2"/>
@@ -1843,7 +1879,7 @@
       <c r="V54" s="2"/>
       <c r="W54" s="2"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="2"/>
@@ -1868,7 +1904,7 @@
       <c r="V55" s="2"/>
       <c r="W55" s="2"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="2"/>
@@ -1893,7 +1929,7 @@
       <c r="V56" s="2"/>
       <c r="W56" s="2"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="2"/>
@@ -1918,7 +1954,7 @@
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="2"/>
@@ -1943,7 +1979,7 @@
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="2"/>
@@ -1968,7 +2004,7 @@
       <c r="V59" s="2"/>
       <c r="W59" s="2"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="2"/>
@@ -1993,7 +2029,7 @@
       <c r="V60" s="2"/>
       <c r="W60" s="2"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="2"/>
@@ -2018,7 +2054,7 @@
       <c r="V61" s="2"/>
       <c r="W61" s="2"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="2"/>
@@ -2043,7 +2079,7 @@
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="2"/>
@@ -2068,7 +2104,7 @@
       <c r="V63" s="2"/>
       <c r="W63" s="2"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="2"/>
@@ -2093,7 +2129,7 @@
       <c r="V64" s="2"/>
       <c r="W64" s="2"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="2"/>
@@ -2118,7 +2154,7 @@
       <c r="V65" s="2"/>
       <c r="W65" s="2"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="2"/>
@@ -2143,7 +2179,7 @@
       <c r="V66" s="2"/>
       <c r="W66" s="2"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="2"/>
@@ -2168,7 +2204,7 @@
       <c r="V67" s="2"/>
       <c r="W67" s="2"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="2"/>
@@ -2193,7 +2229,7 @@
       <c r="V68" s="2"/>
       <c r="W68" s="2"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="2"/>
@@ -2218,7 +2254,7 @@
       <c r="V69" s="2"/>
       <c r="W69" s="2"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="2"/>
@@ -2243,7 +2279,7 @@
       <c r="V70" s="2"/>
       <c r="W70" s="2"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="2"/>
@@ -2268,7 +2304,7 @@
       <c r="V71" s="2"/>
       <c r="W71" s="2"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="2"/>
@@ -2293,7 +2329,7 @@
       <c r="V72" s="2"/>
       <c r="W72" s="2"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="2"/>
@@ -2318,7 +2354,7 @@
       <c r="V73" s="2"/>
       <c r="W73" s="2"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="2"/>
@@ -2343,7 +2379,7 @@
       <c r="V74" s="2"/>
       <c r="W74" s="2"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="2"/>
@@ -2368,7 +2404,7 @@
       <c r="V75" s="2"/>
       <c r="W75" s="2"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="2"/>
@@ -2393,7 +2429,7 @@
       <c r="V76" s="2"/>
       <c r="W76" s="2"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="2"/>
@@ -2418,7 +2454,7 @@
       <c r="V77" s="2"/>
       <c r="W77" s="2"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="2"/>
@@ -2443,7 +2479,7 @@
       <c r="V78" s="2"/>
       <c r="W78" s="2"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="2"/>
@@ -2468,7 +2504,7 @@
       <c r="V79" s="2"/>
       <c r="W79" s="2"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="2"/>
@@ -2493,7 +2529,7 @@
       <c r="V80" s="2"/>
       <c r="W80" s="2"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="2"/>
@@ -2518,7 +2554,7 @@
       <c r="V81" s="2"/>
       <c r="W81" s="2"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="2"/>
@@ -2543,7 +2579,7 @@
       <c r="V82" s="2"/>
       <c r="W82" s="2"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="2"/>
@@ -2568,7 +2604,7 @@
       <c r="V83" s="2"/>
       <c r="W83" s="2"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="2"/>
@@ -2593,7 +2629,7 @@
       <c r="V84" s="2"/>
       <c r="W84" s="2"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="2"/>
@@ -2618,7 +2654,7 @@
       <c r="V85" s="2"/>
       <c r="W85" s="2"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="2"/>
@@ -2643,7 +2679,7 @@
       <c r="V86" s="2"/>
       <c r="W86" s="2"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="2"/>
@@ -2668,7 +2704,7 @@
       <c r="V87" s="2"/>
       <c r="W87" s="2"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="2"/>
@@ -2693,7 +2729,7 @@
       <c r="V88" s="2"/>
       <c r="W88" s="2"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="2"/>
@@ -2718,7 +2754,7 @@
       <c r="V89" s="2"/>
       <c r="W89" s="2"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="2"/>
@@ -2743,7 +2779,7 @@
       <c r="V90" s="2"/>
       <c r="W90" s="2"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="2"/>
@@ -2768,7 +2804,7 @@
       <c r="V91" s="2"/>
       <c r="W91" s="2"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="2"/>
@@ -2793,7 +2829,7 @@
       <c r="V92" s="2"/>
       <c r="W92" s="2"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="2"/>
@@ -2818,7 +2854,7 @@
       <c r="V93" s="2"/>
       <c r="W93" s="2"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="2"/>
@@ -2843,7 +2879,7 @@
       <c r="V94" s="2"/>
       <c r="W94" s="2"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="2"/>
@@ -2868,7 +2904,7 @@
       <c r="V95" s="2"/>
       <c r="W95" s="2"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="2"/>
@@ -2893,7 +2929,7 @@
       <c r="V96" s="2"/>
       <c r="W96" s="2"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="2"/>
@@ -2918,7 +2954,7 @@
       <c r="V97" s="2"/>
       <c r="W97" s="2"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="2"/>
@@ -2943,7 +2979,7 @@
       <c r="V98" s="2"/>
       <c r="W98" s="2"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="2"/>
@@ -2968,7 +3004,7 @@
       <c r="V99" s="2"/>
       <c r="W99" s="2"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="2"/>
@@ -2993,7 +3029,7 @@
       <c r="V100" s="2"/>
       <c r="W100" s="2"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="2"/>
@@ -3018,7 +3054,7 @@
       <c r="V101" s="2"/>
       <c r="W101" s="2"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="2"/>
@@ -3043,7 +3079,7 @@
       <c r="V102" s="2"/>
       <c r="W102" s="2"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="2"/>
@@ -3068,7 +3104,7 @@
       <c r="V103" s="2"/>
       <c r="W103" s="2"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="2"/>
@@ -3093,7 +3129,7 @@
       <c r="V104" s="2"/>
       <c r="W104" s="2"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="2"/>
@@ -3118,7 +3154,7 @@
       <c r="V105" s="2"/>
       <c r="W105" s="2"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="2"/>
@@ -3143,7 +3179,7 @@
       <c r="V106" s="2"/>
       <c r="W106" s="2"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="2"/>
@@ -3168,7 +3204,7 @@
       <c r="V107" s="2"/>
       <c r="W107" s="2"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="2"/>
@@ -3193,7 +3229,7 @@
       <c r="V108" s="2"/>
       <c r="W108" s="2"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="2"/>
@@ -3218,7 +3254,7 @@
       <c r="V109" s="2"/>
       <c r="W109" s="2"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="2"/>
@@ -3243,7 +3279,7 @@
       <c r="V110" s="2"/>
       <c r="W110" s="2"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="2"/>
@@ -3268,7 +3304,7 @@
       <c r="V111" s="2"/>
       <c r="W111" s="2"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="2"/>
@@ -3293,7 +3329,7 @@
       <c r="V112" s="2"/>
       <c r="W112" s="2"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="2"/>
@@ -3318,7 +3354,7 @@
       <c r="V113" s="2"/>
       <c r="W113" s="2"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="2"/>
@@ -3343,7 +3379,7 @@
       <c r="V114" s="2"/>
       <c r="W114" s="2"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="2"/>
@@ -3368,7 +3404,7 @@
       <c r="V115" s="2"/>
       <c r="W115" s="2"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="2"/>
@@ -3393,7 +3429,7 @@
       <c r="V116" s="2"/>
       <c r="W116" s="2"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="2"/>
@@ -3418,7 +3454,7 @@
       <c r="V117" s="2"/>
       <c r="W117" s="2"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="2"/>
@@ -3443,7 +3479,7 @@
       <c r="V118" s="2"/>
       <c r="W118" s="2"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="2"/>
@@ -3468,7 +3504,7 @@
       <c r="V119" s="2"/>
       <c r="W119" s="2"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="2"/>
@@ -3493,7 +3529,7 @@
       <c r="V120" s="2"/>
       <c r="W120" s="2"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="2"/>
@@ -3518,7 +3554,7 @@
       <c r="V121" s="2"/>
       <c r="W121" s="2"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="2"/>
@@ -3543,7 +3579,7 @@
       <c r="V122" s="2"/>
       <c r="W122" s="2"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="2"/>
@@ -3568,7 +3604,7 @@
       <c r="V123" s="2"/>
       <c r="W123" s="2"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="2"/>
@@ -3593,7 +3629,7 @@
       <c r="V124" s="2"/>
       <c r="W124" s="2"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="2"/>
@@ -3618,7 +3654,7 @@
       <c r="V125" s="2"/>
       <c r="W125" s="2"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="2"/>
@@ -3643,7 +3679,7 @@
       <c r="V126" s="2"/>
       <c r="W126" s="2"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="2"/>
@@ -3668,7 +3704,7 @@
       <c r="V127" s="2"/>
       <c r="W127" s="2"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="2"/>
@@ -3693,7 +3729,7 @@
       <c r="V128" s="2"/>
       <c r="W128" s="2"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="2"/>
@@ -3718,7 +3754,7 @@
       <c r="V129" s="2"/>
       <c r="W129" s="2"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="2"/>
@@ -3743,7 +3779,7 @@
       <c r="V130" s="2"/>
       <c r="W130" s="2"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="2"/>
@@ -3768,7 +3804,7 @@
       <c r="V131" s="2"/>
       <c r="W131" s="2"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="2"/>
@@ -3793,7 +3829,7 @@
       <c r="V132" s="2"/>
       <c r="W132" s="2"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="2"/>
@@ -3818,7 +3854,7 @@
       <c r="V133" s="2"/>
       <c r="W133" s="2"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="2"/>
@@ -3843,7 +3879,7 @@
       <c r="V134" s="2"/>
       <c r="W134" s="2"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="2"/>
@@ -3868,7 +3904,7 @@
       <c r="V135" s="2"/>
       <c r="W135" s="2"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="2"/>
@@ -3893,7 +3929,7 @@
       <c r="V136" s="2"/>
       <c r="W136" s="2"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="2"/>
@@ -3918,7 +3954,7 @@
       <c r="V137" s="2"/>
       <c r="W137" s="2"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="2"/>
@@ -3943,7 +3979,7 @@
       <c r="V138" s="2"/>
       <c r="W138" s="2"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="2"/>
@@ -3968,7 +4004,7 @@
       <c r="V139" s="2"/>
       <c r="W139" s="2"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="2"/>
@@ -3993,7 +4029,7 @@
       <c r="V140" s="2"/>
       <c r="W140" s="2"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="2"/>
@@ -4018,7 +4054,7 @@
       <c r="V141" s="2"/>
       <c r="W141" s="2"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="2"/>
@@ -4043,7 +4079,7 @@
       <c r="V142" s="2"/>
       <c r="W142" s="2"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="2"/>
@@ -4068,7 +4104,7 @@
       <c r="V143" s="2"/>
       <c r="W143" s="2"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="2"/>
@@ -4093,7 +4129,7 @@
       <c r="V144" s="2"/>
       <c r="W144" s="2"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="2"/>
@@ -4118,7 +4154,7 @@
       <c r="V145" s="2"/>
       <c r="W145" s="2"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="2"/>
@@ -4143,7 +4179,7 @@
       <c r="V146" s="2"/>
       <c r="W146" s="2"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="2"/>
@@ -4168,7 +4204,7 @@
       <c r="V147" s="2"/>
       <c r="W147" s="2"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="2"/>
@@ -4193,7 +4229,7 @@
       <c r="V148" s="2"/>
       <c r="W148" s="2"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="2"/>
@@ -4218,7 +4254,7 @@
       <c r="V149" s="2"/>
       <c r="W149" s="2"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="2"/>
@@ -4243,7 +4279,7 @@
       <c r="V150" s="2"/>
       <c r="W150" s="2"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="2"/>
@@ -4268,7 +4304,7 @@
       <c r="V151" s="2"/>
       <c r="W151" s="2"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="2"/>
@@ -4293,7 +4329,7 @@
       <c r="V152" s="2"/>
       <c r="W152" s="2"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="2"/>
@@ -4318,7 +4354,7 @@
       <c r="V153" s="2"/>
       <c r="W153" s="2"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="2"/>
@@ -4343,7 +4379,7 @@
       <c r="V154" s="2"/>
       <c r="W154" s="2"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="2"/>
@@ -4368,7 +4404,7 @@
       <c r="V155" s="2"/>
       <c r="W155" s="2"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="2"/>
@@ -4393,7 +4429,7 @@
       <c r="V156" s="2"/>
       <c r="W156" s="2"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="2"/>
@@ -4418,7 +4454,7 @@
       <c r="V157" s="2"/>
       <c r="W157" s="2"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="2"/>
@@ -4443,7 +4479,7 @@
       <c r="V158" s="2"/>
       <c r="W158" s="2"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="2"/>
@@ -4468,7 +4504,7 @@
       <c r="V159" s="2"/>
       <c r="W159" s="2"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="2"/>
@@ -4493,7 +4529,7 @@
       <c r="V160" s="2"/>
       <c r="W160" s="2"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="2"/>
@@ -4518,7 +4554,7 @@
       <c r="V161" s="2"/>
       <c r="W161" s="2"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="2"/>
@@ -4543,7 +4579,7 @@
       <c r="V162" s="2"/>
       <c r="W162" s="2"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="2"/>
@@ -4568,7 +4604,7 @@
       <c r="V163" s="2"/>
       <c r="W163" s="2"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="2"/>
@@ -4593,7 +4629,7 @@
       <c r="V164" s="2"/>
       <c r="W164" s="2"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="2"/>
@@ -4618,7 +4654,7 @@
       <c r="V165" s="2"/>
       <c r="W165" s="2"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="2"/>
@@ -4643,7 +4679,7 @@
       <c r="V166" s="2"/>
       <c r="W166" s="2"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="2"/>
@@ -4668,7 +4704,7 @@
       <c r="V167" s="2"/>
       <c r="W167" s="2"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="2"/>
@@ -4693,7 +4729,7 @@
       <c r="V168" s="2"/>
       <c r="W168" s="2"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="2"/>
@@ -4718,7 +4754,7 @@
       <c r="V169" s="2"/>
       <c r="W169" s="2"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="2"/>
@@ -4743,7 +4779,7 @@
       <c r="V170" s="2"/>
       <c r="W170" s="2"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="2"/>
@@ -4768,7 +4804,7 @@
       <c r="V171" s="2"/>
       <c r="W171" s="2"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="2"/>
@@ -4793,7 +4829,7 @@
       <c r="V172" s="2"/>
       <c r="W172" s="2"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="2"/>
@@ -4818,7 +4854,7 @@
       <c r="V173" s="2"/>
       <c r="W173" s="2"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="2"/>
@@ -4843,7 +4879,7 @@
       <c r="V174" s="2"/>
       <c r="W174" s="2"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="2"/>
@@ -4868,7 +4904,7 @@
       <c r="V175" s="2"/>
       <c r="W175" s="2"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="2"/>
@@ -4893,7 +4929,7 @@
       <c r="V176" s="2"/>
       <c r="W176" s="2"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="2"/>
@@ -4918,7 +4954,7 @@
       <c r="V177" s="2"/>
       <c r="W177" s="2"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="2"/>
@@ -4943,7 +4979,7 @@
       <c r="V178" s="2"/>
       <c r="W178" s="2"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="2"/>
@@ -4968,7 +5004,7 @@
       <c r="V179" s="2"/>
       <c r="W179" s="2"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="2"/>
@@ -4993,7 +5029,7 @@
       <c r="V180" s="2"/>
       <c r="W180" s="2"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="2"/>
@@ -5018,7 +5054,7 @@
       <c r="V181" s="2"/>
       <c r="W181" s="2"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="2"/>
@@ -5043,7 +5079,7 @@
       <c r="V182" s="2"/>
       <c r="W182" s="2"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="2"/>
@@ -5068,7 +5104,7 @@
       <c r="V183" s="2"/>
       <c r="W183" s="2"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="2"/>
@@ -5093,7 +5129,7 @@
       <c r="V184" s="2"/>
       <c r="W184" s="2"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="2"/>
@@ -5118,7 +5154,7 @@
       <c r="V185" s="2"/>
       <c r="W185" s="2"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="2"/>
@@ -5143,7 +5179,7 @@
       <c r="V186" s="2"/>
       <c r="W186" s="2"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="2"/>
@@ -5168,7 +5204,7 @@
       <c r="V187" s="2"/>
       <c r="W187" s="2"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="2"/>
@@ -5193,7 +5229,7 @@
       <c r="V188" s="2"/>
       <c r="W188" s="2"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="2"/>
@@ -5218,7 +5254,7 @@
       <c r="V189" s="2"/>
       <c r="W189" s="2"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="2"/>
@@ -5243,7 +5279,7 @@
       <c r="V190" s="2"/>
       <c r="W190" s="2"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="2"/>
@@ -5268,7 +5304,7 @@
       <c r="V191" s="2"/>
       <c r="W191" s="2"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="2"/>
@@ -5293,7 +5329,7 @@
       <c r="V192" s="2"/>
       <c r="W192" s="2"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="2"/>
@@ -5318,7 +5354,7 @@
       <c r="V193" s="2"/>
       <c r="W193" s="2"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="2"/>
@@ -5343,7 +5379,7 @@
       <c r="V194" s="2"/>
       <c r="W194" s="2"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="2"/>
@@ -5368,9 +5404,9 @@
       <c r="V195" s="2"/>
       <c r="W195" s="2"/>
     </row>
-    <row r="196">
-      <c r="A196" s="5"/>
-      <c r="B196" s="5"/>
+    <row r="196" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+      <c r="A196" s="4"/>
+      <c r="B196" s="4"/>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
@@ -5393,7 +5429,7 @@
       <c r="V196" s="2"/>
       <c r="W196" s="2"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="2"/>
@@ -5418,7 +5454,7 @@
       <c r="V197" s="2"/>
       <c r="W197" s="2"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="2"/>
@@ -5443,7 +5479,7 @@
       <c r="V198" s="2"/>
       <c r="W198" s="2"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="2"/>
@@ -5468,7 +5504,7 @@
       <c r="V199" s="2"/>
       <c r="W199" s="2"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="2"/>
@@ -5493,7 +5529,7 @@
       <c r="V200" s="2"/>
       <c r="W200" s="2"/>
     </row>
-    <row r="201">
+    <row r="201" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="2"/>
@@ -5518,7 +5554,7 @@
       <c r="V201" s="2"/>
       <c r="W201" s="2"/>
     </row>
-    <row r="202">
+    <row r="202" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="2"/>
@@ -5543,7 +5579,7 @@
       <c r="V202" s="2"/>
       <c r="W202" s="2"/>
     </row>
-    <row r="203">
+    <row r="203" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="2"/>
@@ -5568,7 +5604,7 @@
       <c r="V203" s="2"/>
       <c r="W203" s="2"/>
     </row>
-    <row r="204">
+    <row r="204" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="2"/>
@@ -5593,7 +5629,7 @@
       <c r="V204" s="2"/>
       <c r="W204" s="2"/>
     </row>
-    <row r="205">
+    <row r="205" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="2"/>
@@ -5618,7 +5654,7 @@
       <c r="V205" s="2"/>
       <c r="W205" s="2"/>
     </row>
-    <row r="206">
+    <row r="206" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="2"/>
@@ -5643,7 +5679,7 @@
       <c r="V206" s="2"/>
       <c r="W206" s="2"/>
     </row>
-    <row r="207">
+    <row r="207" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="2"/>
@@ -5668,7 +5704,7 @@
       <c r="V207" s="2"/>
       <c r="W207" s="2"/>
     </row>
-    <row r="208">
+    <row r="208" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="2"/>
@@ -5693,7 +5729,7 @@
       <c r="V208" s="2"/>
       <c r="W208" s="2"/>
     </row>
-    <row r="209">
+    <row r="209" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="2"/>
@@ -5718,7 +5754,7 @@
       <c r="V209" s="2"/>
       <c r="W209" s="2"/>
     </row>
-    <row r="210">
+    <row r="210" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="2"/>
@@ -5743,7 +5779,7 @@
       <c r="V210" s="2"/>
       <c r="W210" s="2"/>
     </row>
-    <row r="211">
+    <row r="211" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="2"/>
@@ -5768,7 +5804,7 @@
       <c r="V211" s="2"/>
       <c r="W211" s="2"/>
     </row>
-    <row r="212">
+    <row r="212" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="2"/>
@@ -5793,7 +5829,7 @@
       <c r="V212" s="2"/>
       <c r="W212" s="2"/>
     </row>
-    <row r="213">
+    <row r="213" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="2"/>
@@ -5818,7 +5854,7 @@
       <c r="V213" s="2"/>
       <c r="W213" s="2"/>
     </row>
-    <row r="214">
+    <row r="214" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="2"/>
@@ -5843,7 +5879,7 @@
       <c r="V214" s="2"/>
       <c r="W214" s="2"/>
     </row>
-    <row r="215">
+    <row r="215" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="2"/>
@@ -5868,7 +5904,7 @@
       <c r="V215" s="2"/>
       <c r="W215" s="2"/>
     </row>
-    <row r="216">
+    <row r="216" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="2"/>
@@ -5893,7 +5929,7 @@
       <c r="V216" s="2"/>
       <c r="W216" s="2"/>
     </row>
-    <row r="217">
+    <row r="217" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="2"/>
@@ -5918,7 +5954,7 @@
       <c r="V217" s="2"/>
       <c r="W217" s="2"/>
     </row>
-    <row r="218">
+    <row r="218" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="2"/>
@@ -5943,7 +5979,7 @@
       <c r="V218" s="2"/>
       <c r="W218" s="2"/>
     </row>
-    <row r="219">
+    <row r="219" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="2"/>
@@ -5968,7 +6004,7 @@
       <c r="V219" s="2"/>
       <c r="W219" s="2"/>
     </row>
-    <row r="220">
+    <row r="220" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="2"/>
@@ -5993,7 +6029,7 @@
       <c r="V220" s="2"/>
       <c r="W220" s="2"/>
     </row>
-    <row r="221">
+    <row r="221" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="2"/>
@@ -6018,7 +6054,7 @@
       <c r="V221" s="2"/>
       <c r="W221" s="2"/>
     </row>
-    <row r="222">
+    <row r="222" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="2"/>
@@ -6043,7 +6079,7 @@
       <c r="V222" s="2"/>
       <c r="W222" s="2"/>
     </row>
-    <row r="223">
+    <row r="223" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="2"/>
@@ -6068,7 +6104,7 @@
       <c r="V223" s="2"/>
       <c r="W223" s="2"/>
     </row>
-    <row r="224">
+    <row r="224" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="2"/>
@@ -6093,7 +6129,7 @@
       <c r="V224" s="2"/>
       <c r="W224" s="2"/>
     </row>
-    <row r="225">
+    <row r="225" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="2"/>
@@ -6118,7 +6154,7 @@
       <c r="V225" s="2"/>
       <c r="W225" s="2"/>
     </row>
-    <row r="226">
+    <row r="226" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="2"/>
@@ -6143,7 +6179,7 @@
       <c r="V226" s="2"/>
       <c r="W226" s="2"/>
     </row>
-    <row r="227">
+    <row r="227" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="2"/>
@@ -6168,7 +6204,7 @@
       <c r="V227" s="2"/>
       <c r="W227" s="2"/>
     </row>
-    <row r="228">
+    <row r="228" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="2"/>
@@ -6193,7 +6229,7 @@
       <c r="V228" s="2"/>
       <c r="W228" s="2"/>
     </row>
-    <row r="229">
+    <row r="229" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="2"/>
@@ -6218,7 +6254,7 @@
       <c r="V229" s="2"/>
       <c r="W229" s="2"/>
     </row>
-    <row r="230">
+    <row r="230" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="2"/>
@@ -6243,7 +6279,7 @@
       <c r="V230" s="2"/>
       <c r="W230" s="2"/>
     </row>
-    <row r="231">
+    <row r="231" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="2"/>
@@ -6268,7 +6304,7 @@
       <c r="V231" s="2"/>
       <c r="W231" s="2"/>
     </row>
-    <row r="232">
+    <row r="232" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="2"/>
@@ -6293,7 +6329,7 @@
       <c r="V232" s="2"/>
       <c r="W232" s="2"/>
     </row>
-    <row r="233">
+    <row r="233" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="2"/>
@@ -6318,7 +6354,7 @@
       <c r="V233" s="2"/>
       <c r="W233" s="2"/>
     </row>
-    <row r="234">
+    <row r="234" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="2"/>
@@ -6343,7 +6379,7 @@
       <c r="V234" s="2"/>
       <c r="W234" s="2"/>
     </row>
-    <row r="235">
+    <row r="235" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="2"/>
@@ -6368,7 +6404,7 @@
       <c r="V235" s="2"/>
       <c r="W235" s="2"/>
     </row>
-    <row r="236">
+    <row r="236" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="2"/>
@@ -6393,7 +6429,7 @@
       <c r="V236" s="2"/>
       <c r="W236" s="2"/>
     </row>
-    <row r="237">
+    <row r="237" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="2"/>
@@ -6418,7 +6454,7 @@
       <c r="V237" s="2"/>
       <c r="W237" s="2"/>
     </row>
-    <row r="238">
+    <row r="238" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="2"/>
@@ -6443,7 +6479,7 @@
       <c r="V238" s="2"/>
       <c r="W238" s="2"/>
     </row>
-    <row r="239">
+    <row r="239" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="2"/>
@@ -6468,7 +6504,7 @@
       <c r="V239" s="2"/>
       <c r="W239" s="2"/>
     </row>
-    <row r="240">
+    <row r="240" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="2"/>
@@ -6493,7 +6529,7 @@
       <c r="V240" s="2"/>
       <c r="W240" s="2"/>
     </row>
-    <row r="241">
+    <row r="241" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="2"/>
@@ -6518,7 +6554,7 @@
       <c r="V241" s="2"/>
       <c r="W241" s="2"/>
     </row>
-    <row r="242">
+    <row r="242" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="2"/>
@@ -6543,7 +6579,7 @@
       <c r="V242" s="2"/>
       <c r="W242" s="2"/>
     </row>
-    <row r="243">
+    <row r="243" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="2"/>
@@ -6568,7 +6604,7 @@
       <c r="V243" s="2"/>
       <c r="W243" s="2"/>
     </row>
-    <row r="244">
+    <row r="244" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="2"/>
@@ -6593,7 +6629,7 @@
       <c r="V244" s="2"/>
       <c r="W244" s="2"/>
     </row>
-    <row r="245">
+    <row r="245" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="2"/>
@@ -6618,7 +6654,7 @@
       <c r="V245" s="2"/>
       <c r="W245" s="2"/>
     </row>
-    <row r="246">
+    <row r="246" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="2"/>
@@ -6643,7 +6679,7 @@
       <c r="V246" s="2"/>
       <c r="W246" s="2"/>
     </row>
-    <row r="247">
+    <row r="247" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="2"/>
@@ -6668,7 +6704,7 @@
       <c r="V247" s="2"/>
       <c r="W247" s="2"/>
     </row>
-    <row r="248">
+    <row r="248" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A248" s="5"/>
       <c r="B248" s="5"/>
       <c r="C248" s="2"/>
@@ -6693,7 +6729,7 @@
       <c r="V248" s="2"/>
       <c r="W248" s="2"/>
     </row>
-    <row r="249">
+    <row r="249" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A249" s="5"/>
       <c r="B249" s="5"/>
       <c r="C249" s="2"/>
@@ -6718,7 +6754,7 @@
       <c r="V249" s="2"/>
       <c r="W249" s="2"/>
     </row>
-    <row r="250">
+    <row r="250" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A250" s="5"/>
       <c r="B250" s="5"/>
       <c r="C250" s="2"/>
@@ -6743,7 +6779,7 @@
       <c r="V250" s="2"/>
       <c r="W250" s="2"/>
     </row>
-    <row r="251">
+    <row r="251" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A251" s="5"/>
       <c r="B251" s="5"/>
       <c r="C251" s="2"/>
@@ -6768,7 +6804,7 @@
       <c r="V251" s="2"/>
       <c r="W251" s="2"/>
     </row>
-    <row r="252">
+    <row r="252" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A252" s="5"/>
       <c r="B252" s="5"/>
       <c r="C252" s="2"/>
@@ -6793,7 +6829,7 @@
       <c r="V252" s="2"/>
       <c r="W252" s="2"/>
     </row>
-    <row r="253">
+    <row r="253" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A253" s="5"/>
       <c r="B253" s="5"/>
       <c r="C253" s="2"/>
@@ -6818,7 +6854,7 @@
       <c r="V253" s="2"/>
       <c r="W253" s="2"/>
     </row>
-    <row r="254">
+    <row r="254" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A254" s="5"/>
       <c r="B254" s="5"/>
       <c r="C254" s="2"/>
@@ -6843,7 +6879,7 @@
       <c r="V254" s="2"/>
       <c r="W254" s="2"/>
     </row>
-    <row r="255">
+    <row r="255" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A255" s="5"/>
       <c r="B255" s="5"/>
       <c r="C255" s="2"/>
@@ -6868,7 +6904,7 @@
       <c r="V255" s="2"/>
       <c r="W255" s="2"/>
     </row>
-    <row r="256">
+    <row r="256" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A256" s="5"/>
       <c r="B256" s="5"/>
       <c r="C256" s="2"/>
@@ -6893,7 +6929,7 @@
       <c r="V256" s="2"/>
       <c r="W256" s="2"/>
     </row>
-    <row r="257">
+    <row r="257" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A257" s="5"/>
       <c r="B257" s="5"/>
       <c r="C257" s="2"/>
@@ -6918,7 +6954,7 @@
       <c r="V257" s="2"/>
       <c r="W257" s="2"/>
     </row>
-    <row r="258">
+    <row r="258" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A258" s="5"/>
       <c r="B258" s="5"/>
       <c r="C258" s="2"/>
@@ -6943,7 +6979,7 @@
       <c r="V258" s="2"/>
       <c r="W258" s="2"/>
     </row>
-    <row r="259">
+    <row r="259" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A259" s="5"/>
       <c r="B259" s="5"/>
       <c r="C259" s="2"/>
@@ -6968,7 +7004,7 @@
       <c r="V259" s="2"/>
       <c r="W259" s="2"/>
     </row>
-    <row r="260">
+    <row r="260" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A260" s="5"/>
       <c r="B260" s="5"/>
       <c r="C260" s="2"/>
@@ -6993,7 +7029,7 @@
       <c r="V260" s="2"/>
       <c r="W260" s="2"/>
     </row>
-    <row r="261">
+    <row r="261" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A261" s="5"/>
       <c r="B261" s="5"/>
       <c r="C261" s="2"/>
@@ -7018,7 +7054,7 @@
       <c r="V261" s="2"/>
       <c r="W261" s="2"/>
     </row>
-    <row r="262">
+    <row r="262" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A262" s="5"/>
       <c r="B262" s="5"/>
       <c r="C262" s="2"/>
@@ -7043,7 +7079,7 @@
       <c r="V262" s="2"/>
       <c r="W262" s="2"/>
     </row>
-    <row r="263">
+    <row r="263" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A263" s="5"/>
       <c r="B263" s="5"/>
       <c r="C263" s="2"/>
@@ -7068,7 +7104,7 @@
       <c r="V263" s="2"/>
       <c r="W263" s="2"/>
     </row>
-    <row r="264">
+    <row r="264" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A264" s="5"/>
       <c r="B264" s="5"/>
       <c r="C264" s="2"/>
@@ -7093,7 +7129,7 @@
       <c r="V264" s="2"/>
       <c r="W264" s="2"/>
     </row>
-    <row r="265">
+    <row r="265" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A265" s="5"/>
       <c r="B265" s="5"/>
       <c r="C265" s="2"/>
@@ -7118,7 +7154,7 @@
       <c r="V265" s="2"/>
       <c r="W265" s="2"/>
     </row>
-    <row r="266">
+    <row r="266" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A266" s="5"/>
       <c r="B266" s="5"/>
       <c r="C266" s="2"/>
@@ -7143,7 +7179,7 @@
       <c r="V266" s="2"/>
       <c r="W266" s="2"/>
     </row>
-    <row r="267">
+    <row r="267" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A267" s="5"/>
       <c r="B267" s="5"/>
       <c r="C267" s="2"/>
@@ -7168,7 +7204,7 @@
       <c r="V267" s="2"/>
       <c r="W267" s="2"/>
     </row>
-    <row r="268">
+    <row r="268" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A268" s="5"/>
       <c r="B268" s="5"/>
       <c r="C268" s="2"/>
@@ -7193,7 +7229,7 @@
       <c r="V268" s="2"/>
       <c r="W268" s="2"/>
     </row>
-    <row r="269">
+    <row r="269" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A269" s="5"/>
       <c r="B269" s="5"/>
       <c r="C269" s="2"/>
@@ -7218,7 +7254,7 @@
       <c r="V269" s="2"/>
       <c r="W269" s="2"/>
     </row>
-    <row r="270">
+    <row r="270" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A270" s="5"/>
       <c r="B270" s="5"/>
       <c r="C270" s="2"/>
@@ -7243,7 +7279,7 @@
       <c r="V270" s="2"/>
       <c r="W270" s="2"/>
     </row>
-    <row r="271">
+    <row r="271" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A271" s="5"/>
       <c r="B271" s="5"/>
       <c r="C271" s="2"/>
@@ -7268,7 +7304,7 @@
       <c r="V271" s="2"/>
       <c r="W271" s="2"/>
     </row>
-    <row r="272">
+    <row r="272" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A272" s="5"/>
       <c r="B272" s="5"/>
       <c r="C272" s="2"/>
@@ -7293,7 +7329,7 @@
       <c r="V272" s="2"/>
       <c r="W272" s="2"/>
     </row>
-    <row r="273">
+    <row r="273" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A273" s="5"/>
       <c r="B273" s="5"/>
       <c r="C273" s="2"/>
@@ -7318,7 +7354,7 @@
       <c r="V273" s="2"/>
       <c r="W273" s="2"/>
     </row>
-    <row r="274">
+    <row r="274" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A274" s="5"/>
       <c r="B274" s="5"/>
       <c r="C274" s="2"/>
@@ -7343,7 +7379,7 @@
       <c r="V274" s="2"/>
       <c r="W274" s="2"/>
     </row>
-    <row r="275">
+    <row r="275" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A275" s="5"/>
       <c r="B275" s="5"/>
       <c r="C275" s="2"/>
@@ -7368,7 +7404,7 @@
       <c r="V275" s="2"/>
       <c r="W275" s="2"/>
     </row>
-    <row r="276">
+    <row r="276" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A276" s="5"/>
       <c r="B276" s="5"/>
       <c r="C276" s="2"/>
@@ -7393,7 +7429,7 @@
       <c r="V276" s="2"/>
       <c r="W276" s="2"/>
     </row>
-    <row r="277">
+    <row r="277" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A277" s="5"/>
       <c r="B277" s="5"/>
       <c r="C277" s="2"/>
@@ -7418,7 +7454,7 @@
       <c r="V277" s="2"/>
       <c r="W277" s="2"/>
     </row>
-    <row r="278">
+    <row r="278" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A278" s="5"/>
       <c r="B278" s="5"/>
       <c r="C278" s="2"/>
@@ -7443,7 +7479,7 @@
       <c r="V278" s="2"/>
       <c r="W278" s="2"/>
     </row>
-    <row r="279">
+    <row r="279" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A279" s="5"/>
       <c r="B279" s="5"/>
       <c r="C279" s="2"/>
@@ -7468,7 +7504,7 @@
       <c r="V279" s="2"/>
       <c r="W279" s="2"/>
     </row>
-    <row r="280">
+    <row r="280" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A280" s="5"/>
       <c r="B280" s="5"/>
       <c r="C280" s="2"/>
@@ -7493,7 +7529,7 @@
       <c r="V280" s="2"/>
       <c r="W280" s="2"/>
     </row>
-    <row r="281">
+    <row r="281" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A281" s="5"/>
       <c r="B281" s="5"/>
       <c r="C281" s="2"/>
@@ -7518,7 +7554,7 @@
       <c r="V281" s="2"/>
       <c r="W281" s="2"/>
     </row>
-    <row r="282">
+    <row r="282" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A282" s="5"/>
       <c r="B282" s="5"/>
       <c r="C282" s="2"/>
@@ -7543,7 +7579,7 @@
       <c r="V282" s="2"/>
       <c r="W282" s="2"/>
     </row>
-    <row r="283">
+    <row r="283" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A283" s="5"/>
       <c r="B283" s="5"/>
       <c r="C283" s="2"/>
@@ -7568,7 +7604,7 @@
       <c r="V283" s="2"/>
       <c r="W283" s="2"/>
     </row>
-    <row r="284">
+    <row r="284" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A284" s="5"/>
       <c r="B284" s="5"/>
       <c r="C284" s="2"/>
@@ -7593,7 +7629,7 @@
       <c r="V284" s="2"/>
       <c r="W284" s="2"/>
     </row>
-    <row r="285">
+    <row r="285" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A285" s="5"/>
       <c r="B285" s="5"/>
       <c r="C285" s="2"/>
@@ -7618,7 +7654,7 @@
       <c r="V285" s="2"/>
       <c r="W285" s="2"/>
     </row>
-    <row r="286">
+    <row r="286" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A286" s="5"/>
       <c r="B286" s="5"/>
       <c r="C286" s="2"/>
@@ -7643,7 +7679,7 @@
       <c r="V286" s="2"/>
       <c r="W286" s="2"/>
     </row>
-    <row r="287">
+    <row r="287" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A287" s="5"/>
       <c r="B287" s="5"/>
       <c r="C287" s="2"/>
@@ -7668,7 +7704,7 @@
       <c r="V287" s="2"/>
       <c r="W287" s="2"/>
     </row>
-    <row r="288">
+    <row r="288" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A288" s="5"/>
       <c r="B288" s="5"/>
       <c r="C288" s="2"/>
@@ -7693,7 +7729,7 @@
       <c r="V288" s="2"/>
       <c r="W288" s="2"/>
     </row>
-    <row r="289">
+    <row r="289" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A289" s="5"/>
       <c r="B289" s="5"/>
       <c r="C289" s="2"/>
@@ -7718,7 +7754,7 @@
       <c r="V289" s="2"/>
       <c r="W289" s="2"/>
     </row>
-    <row r="290">
+    <row r="290" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A290" s="5"/>
       <c r="B290" s="5"/>
       <c r="C290" s="2"/>
@@ -7743,7 +7779,7 @@
       <c r="V290" s="2"/>
       <c r="W290" s="2"/>
     </row>
-    <row r="291">
+    <row r="291" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A291" s="5"/>
       <c r="B291" s="5"/>
       <c r="C291" s="2"/>
@@ -7768,7 +7804,7 @@
       <c r="V291" s="2"/>
       <c r="W291" s="2"/>
     </row>
-    <row r="292">
+    <row r="292" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A292" s="5"/>
       <c r="B292" s="5"/>
       <c r="C292" s="2"/>
@@ -7793,7 +7829,7 @@
       <c r="V292" s="2"/>
       <c r="W292" s="2"/>
     </row>
-    <row r="293">
+    <row r="293" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A293" s="5"/>
       <c r="B293" s="5"/>
       <c r="C293" s="2"/>
@@ -7818,7 +7854,7 @@
       <c r="V293" s="2"/>
       <c r="W293" s="2"/>
     </row>
-    <row r="294">
+    <row r="294" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A294" s="5"/>
       <c r="B294" s="5"/>
       <c r="C294" s="2"/>
@@ -7843,7 +7879,7 @@
       <c r="V294" s="2"/>
       <c r="W294" s="2"/>
     </row>
-    <row r="295">
+    <row r="295" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A295" s="5"/>
       <c r="B295" s="5"/>
       <c r="C295" s="2"/>
@@ -7868,7 +7904,7 @@
       <c r="V295" s="2"/>
       <c r="W295" s="2"/>
     </row>
-    <row r="296">
+    <row r="296" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A296" s="5"/>
       <c r="B296" s="5"/>
       <c r="C296" s="2"/>
@@ -7893,7 +7929,7 @@
       <c r="V296" s="2"/>
       <c r="W296" s="2"/>
     </row>
-    <row r="297">
+    <row r="297" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A297" s="5"/>
       <c r="B297" s="5"/>
       <c r="C297" s="2"/>
@@ -7918,7 +7954,7 @@
       <c r="V297" s="2"/>
       <c r="W297" s="2"/>
     </row>
-    <row r="298">
+    <row r="298" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A298" s="5"/>
       <c r="B298" s="5"/>
       <c r="C298" s="2"/>
@@ -7943,7 +7979,7 @@
       <c r="V298" s="2"/>
       <c r="W298" s="2"/>
     </row>
-    <row r="299">
+    <row r="299" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A299" s="5"/>
       <c r="B299" s="5"/>
       <c r="C299" s="2"/>
@@ -7968,7 +8004,7 @@
       <c r="V299" s="2"/>
       <c r="W299" s="2"/>
     </row>
-    <row r="300">
+    <row r="300" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A300" s="5"/>
       <c r="B300" s="5"/>
       <c r="C300" s="2"/>
@@ -7993,7 +8029,7 @@
       <c r="V300" s="2"/>
       <c r="W300" s="2"/>
     </row>
-    <row r="301">
+    <row r="301" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A301" s="5"/>
       <c r="B301" s="5"/>
       <c r="C301" s="2"/>
@@ -8018,7 +8054,7 @@
       <c r="V301" s="2"/>
       <c r="W301" s="2"/>
     </row>
-    <row r="302">
+    <row r="302" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A302" s="5"/>
       <c r="B302" s="5"/>
       <c r="C302" s="2"/>
@@ -8043,7 +8079,7 @@
       <c r="V302" s="2"/>
       <c r="W302" s="2"/>
     </row>
-    <row r="303">
+    <row r="303" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A303" s="5"/>
       <c r="B303" s="5"/>
       <c r="C303" s="2"/>
@@ -8068,7 +8104,7 @@
       <c r="V303" s="2"/>
       <c r="W303" s="2"/>
     </row>
-    <row r="304">
+    <row r="304" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A304" s="5"/>
       <c r="B304" s="5"/>
       <c r="C304" s="2"/>
@@ -8093,7 +8129,7 @@
       <c r="V304" s="2"/>
       <c r="W304" s="2"/>
     </row>
-    <row r="305">
+    <row r="305" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A305" s="5"/>
       <c r="B305" s="5"/>
       <c r="C305" s="2"/>
@@ -8118,7 +8154,7 @@
       <c r="V305" s="2"/>
       <c r="W305" s="2"/>
     </row>
-    <row r="306">
+    <row r="306" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A306" s="5"/>
       <c r="B306" s="5"/>
       <c r="C306" s="2"/>
@@ -8143,7 +8179,7 @@
       <c r="V306" s="2"/>
       <c r="W306" s="2"/>
     </row>
-    <row r="307">
+    <row r="307" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A307" s="5"/>
       <c r="B307" s="5"/>
       <c r="C307" s="2"/>
@@ -8168,7 +8204,7 @@
       <c r="V307" s="2"/>
       <c r="W307" s="2"/>
     </row>
-    <row r="308">
+    <row r="308" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A308" s="5"/>
       <c r="B308" s="5"/>
       <c r="C308" s="2"/>
@@ -8193,7 +8229,7 @@
       <c r="V308" s="2"/>
       <c r="W308" s="2"/>
     </row>
-    <row r="309">
+    <row r="309" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A309" s="5"/>
       <c r="B309" s="5"/>
       <c r="C309" s="2"/>
@@ -8218,7 +8254,7 @@
       <c r="V309" s="2"/>
       <c r="W309" s="2"/>
     </row>
-    <row r="310">
+    <row r="310" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A310" s="5"/>
       <c r="B310" s="5"/>
       <c r="C310" s="2"/>
@@ -8243,7 +8279,7 @@
       <c r="V310" s="2"/>
       <c r="W310" s="2"/>
     </row>
-    <row r="311">
+    <row r="311" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A311" s="5"/>
       <c r="B311" s="5"/>
       <c r="C311" s="2"/>
@@ -8268,7 +8304,7 @@
       <c r="V311" s="2"/>
       <c r="W311" s="2"/>
     </row>
-    <row r="312">
+    <row r="312" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A312" s="5"/>
       <c r="B312" s="5"/>
       <c r="C312" s="2"/>
@@ -8293,7 +8329,7 @@
       <c r="V312" s="2"/>
       <c r="W312" s="2"/>
     </row>
-    <row r="313">
+    <row r="313" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A313" s="5"/>
       <c r="B313" s="5"/>
       <c r="C313" s="2"/>
@@ -8318,7 +8354,7 @@
       <c r="V313" s="2"/>
       <c r="W313" s="2"/>
     </row>
-    <row r="314">
+    <row r="314" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A314" s="5"/>
       <c r="B314" s="5"/>
       <c r="C314" s="2"/>
@@ -8343,7 +8379,7 @@
       <c r="V314" s="2"/>
       <c r="W314" s="2"/>
     </row>
-    <row r="315">
+    <row r="315" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A315" s="5"/>
       <c r="B315" s="5"/>
       <c r="C315" s="2"/>
@@ -8368,7 +8404,7 @@
       <c r="V315" s="2"/>
       <c r="W315" s="2"/>
     </row>
-    <row r="316">
+    <row r="316" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A316" s="5"/>
       <c r="B316" s="5"/>
       <c r="C316" s="2"/>
@@ -8393,7 +8429,7 @@
       <c r="V316" s="2"/>
       <c r="W316" s="2"/>
     </row>
-    <row r="317">
+    <row r="317" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A317" s="5"/>
       <c r="B317" s="5"/>
       <c r="C317" s="2"/>
@@ -8418,7 +8454,7 @@
       <c r="V317" s="2"/>
       <c r="W317" s="2"/>
     </row>
-    <row r="318">
+    <row r="318" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A318" s="5"/>
       <c r="B318" s="5"/>
       <c r="C318" s="2"/>
@@ -8443,7 +8479,7 @@
       <c r="V318" s="2"/>
       <c r="W318" s="2"/>
     </row>
-    <row r="319">
+    <row r="319" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A319" s="5"/>
       <c r="B319" s="5"/>
       <c r="C319" s="2"/>
@@ -8468,7 +8504,7 @@
       <c r="V319" s="2"/>
       <c r="W319" s="2"/>
     </row>
-    <row r="320">
+    <row r="320" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A320" s="5"/>
       <c r="B320" s="5"/>
       <c r="C320" s="2"/>
@@ -8493,7 +8529,7 @@
       <c r="V320" s="2"/>
       <c r="W320" s="2"/>
     </row>
-    <row r="321">
+    <row r="321" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A321" s="5"/>
       <c r="B321" s="5"/>
       <c r="C321" s="2"/>
@@ -8518,7 +8554,7 @@
       <c r="V321" s="2"/>
       <c r="W321" s="2"/>
     </row>
-    <row r="322">
+    <row r="322" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A322" s="5"/>
       <c r="B322" s="5"/>
       <c r="C322" s="2"/>
@@ -8543,7 +8579,7 @@
       <c r="V322" s="2"/>
       <c r="W322" s="2"/>
     </row>
-    <row r="323">
+    <row r="323" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A323" s="5"/>
       <c r="B323" s="5"/>
       <c r="C323" s="2"/>
@@ -8568,7 +8604,7 @@
       <c r="V323" s="2"/>
       <c r="W323" s="2"/>
     </row>
-    <row r="324">
+    <row r="324" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A324" s="5"/>
       <c r="B324" s="5"/>
       <c r="C324" s="2"/>
@@ -8593,7 +8629,7 @@
       <c r="V324" s="2"/>
       <c r="W324" s="2"/>
     </row>
-    <row r="325">
+    <row r="325" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A325" s="5"/>
       <c r="B325" s="5"/>
       <c r="C325" s="2"/>
@@ -8618,7 +8654,7 @@
       <c r="V325" s="2"/>
       <c r="W325" s="2"/>
     </row>
-    <row r="326">
+    <row r="326" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A326" s="5"/>
       <c r="B326" s="5"/>
       <c r="C326" s="2"/>
@@ -8643,7 +8679,7 @@
       <c r="V326" s="2"/>
       <c r="W326" s="2"/>
     </row>
-    <row r="327">
+    <row r="327" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A327" s="5"/>
       <c r="B327" s="5"/>
       <c r="C327" s="2"/>
@@ -8668,7 +8704,7 @@
       <c r="V327" s="2"/>
       <c r="W327" s="2"/>
     </row>
-    <row r="328">
+    <row r="328" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A328" s="5"/>
       <c r="B328" s="5"/>
       <c r="C328" s="2"/>
@@ -8693,7 +8729,7 @@
       <c r="V328" s="2"/>
       <c r="W328" s="2"/>
     </row>
-    <row r="329">
+    <row r="329" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A329" s="5"/>
       <c r="B329" s="5"/>
       <c r="C329" s="2"/>
@@ -8718,7 +8754,7 @@
       <c r="V329" s="2"/>
       <c r="W329" s="2"/>
     </row>
-    <row r="330">
+    <row r="330" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A330" s="5"/>
       <c r="B330" s="5"/>
       <c r="C330" s="2"/>
@@ -8743,7 +8779,7 @@
       <c r="V330" s="2"/>
       <c r="W330" s="2"/>
     </row>
-    <row r="331">
+    <row r="331" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A331" s="5"/>
       <c r="B331" s="5"/>
       <c r="C331" s="2"/>
@@ -8768,7 +8804,7 @@
       <c r="V331" s="2"/>
       <c r="W331" s="2"/>
     </row>
-    <row r="332">
+    <row r="332" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A332" s="5"/>
       <c r="B332" s="5"/>
       <c r="C332" s="2"/>
@@ -8793,7 +8829,7 @@
       <c r="V332" s="2"/>
       <c r="W332" s="2"/>
     </row>
-    <row r="333">
+    <row r="333" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A333" s="5"/>
       <c r="B333" s="5"/>
       <c r="C333" s="2"/>
@@ -8818,7 +8854,7 @@
       <c r="V333" s="2"/>
       <c r="W333" s="2"/>
     </row>
-    <row r="334">
+    <row r="334" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A334" s="5"/>
       <c r="B334" s="5"/>
       <c r="C334" s="2"/>
@@ -8843,7 +8879,7 @@
       <c r="V334" s="2"/>
       <c r="W334" s="2"/>
     </row>
-    <row r="335">
+    <row r="335" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A335" s="5"/>
       <c r="B335" s="5"/>
       <c r="C335" s="2"/>
@@ -8868,7 +8904,7 @@
       <c r="V335" s="2"/>
       <c r="W335" s="2"/>
     </row>
-    <row r="336">
+    <row r="336" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A336" s="5"/>
       <c r="B336" s="5"/>
       <c r="C336" s="2"/>
@@ -8893,7 +8929,7 @@
       <c r="V336" s="2"/>
       <c r="W336" s="2"/>
     </row>
-    <row r="337">
+    <row r="337" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A337" s="5"/>
       <c r="B337" s="5"/>
       <c r="C337" s="2"/>
@@ -8918,7 +8954,7 @@
       <c r="V337" s="2"/>
       <c r="W337" s="2"/>
     </row>
-    <row r="338">
+    <row r="338" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A338" s="5"/>
       <c r="B338" s="5"/>
       <c r="C338" s="2"/>
@@ -8943,7 +8979,7 @@
       <c r="V338" s="2"/>
       <c r="W338" s="2"/>
     </row>
-    <row r="339">
+    <row r="339" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A339" s="5"/>
       <c r="B339" s="5"/>
       <c r="C339" s="2"/>
@@ -8968,7 +9004,7 @@
       <c r="V339" s="2"/>
       <c r="W339" s="2"/>
     </row>
-    <row r="340">
+    <row r="340" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A340" s="5"/>
       <c r="B340" s="5"/>
       <c r="C340" s="2"/>
@@ -8993,7 +9029,7 @@
       <c r="V340" s="2"/>
       <c r="W340" s="2"/>
     </row>
-    <row r="341">
+    <row r="341" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A341" s="5"/>
       <c r="B341" s="5"/>
       <c r="C341" s="2"/>
@@ -9018,7 +9054,7 @@
       <c r="V341" s="2"/>
       <c r="W341" s="2"/>
     </row>
-    <row r="342">
+    <row r="342" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A342" s="5"/>
       <c r="B342" s="5"/>
       <c r="C342" s="2"/>
@@ -9043,7 +9079,7 @@
       <c r="V342" s="2"/>
       <c r="W342" s="2"/>
     </row>
-    <row r="343">
+    <row r="343" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A343" s="5"/>
       <c r="B343" s="5"/>
       <c r="C343" s="2"/>
@@ -9068,7 +9104,7 @@
       <c r="V343" s="2"/>
       <c r="W343" s="2"/>
     </row>
-    <row r="344">
+    <row r="344" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A344" s="5"/>
       <c r="B344" s="5"/>
       <c r="C344" s="2"/>
@@ -9093,7 +9129,7 @@
       <c r="V344" s="2"/>
       <c r="W344" s="2"/>
     </row>
-    <row r="345">
+    <row r="345" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A345" s="5"/>
       <c r="B345" s="5"/>
       <c r="C345" s="2"/>
@@ -9118,7 +9154,7 @@
       <c r="V345" s="2"/>
       <c r="W345" s="2"/>
     </row>
-    <row r="346">
+    <row r="346" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A346" s="5"/>
       <c r="B346" s="5"/>
       <c r="C346" s="2"/>
@@ -9143,7 +9179,7 @@
       <c r="V346" s="2"/>
       <c r="W346" s="2"/>
     </row>
-    <row r="347">
+    <row r="347" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A347" s="5"/>
       <c r="B347" s="5"/>
       <c r="C347" s="2"/>
@@ -9168,7 +9204,7 @@
       <c r="V347" s="2"/>
       <c r="W347" s="2"/>
     </row>
-    <row r="348">
+    <row r="348" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A348" s="5"/>
       <c r="B348" s="5"/>
       <c r="C348" s="2"/>
@@ -9193,7 +9229,7 @@
       <c r="V348" s="2"/>
       <c r="W348" s="2"/>
     </row>
-    <row r="349">
+    <row r="349" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A349" s="5"/>
       <c r="B349" s="5"/>
       <c r="C349" s="2"/>
@@ -9218,7 +9254,7 @@
       <c r="V349" s="2"/>
       <c r="W349" s="2"/>
     </row>
-    <row r="350">
+    <row r="350" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A350" s="5"/>
       <c r="B350" s="5"/>
       <c r="C350" s="2"/>
@@ -9243,7 +9279,7 @@
       <c r="V350" s="2"/>
       <c r="W350" s="2"/>
     </row>
-    <row r="351">
+    <row r="351" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A351" s="5"/>
       <c r="B351" s="5"/>
       <c r="C351" s="2"/>
@@ -9268,7 +9304,7 @@
       <c r="V351" s="2"/>
       <c r="W351" s="2"/>
     </row>
-    <row r="352">
+    <row r="352" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A352" s="5"/>
       <c r="B352" s="5"/>
       <c r="C352" s="2"/>
@@ -9293,7 +9329,7 @@
       <c r="V352" s="2"/>
       <c r="W352" s="2"/>
     </row>
-    <row r="353">
+    <row r="353" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A353" s="5"/>
       <c r="B353" s="5"/>
       <c r="C353" s="2"/>
@@ -9318,7 +9354,7 @@
       <c r="V353" s="2"/>
       <c r="W353" s="2"/>
     </row>
-    <row r="354">
+    <row r="354" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A354" s="5"/>
       <c r="B354" s="5"/>
       <c r="C354" s="2"/>
@@ -9343,7 +9379,7 @@
       <c r="V354" s="2"/>
       <c r="W354" s="2"/>
     </row>
-    <row r="355">
+    <row r="355" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A355" s="5"/>
       <c r="B355" s="5"/>
       <c r="C355" s="2"/>
@@ -9368,7 +9404,7 @@
       <c r="V355" s="2"/>
       <c r="W355" s="2"/>
     </row>
-    <row r="356">
+    <row r="356" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A356" s="5"/>
       <c r="B356" s="5"/>
       <c r="C356" s="2"/>
@@ -9393,7 +9429,7 @@
       <c r="V356" s="2"/>
       <c r="W356" s="2"/>
     </row>
-    <row r="357">
+    <row r="357" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A357" s="5"/>
       <c r="B357" s="5"/>
       <c r="C357" s="2"/>
@@ -9418,7 +9454,7 @@
       <c r="V357" s="2"/>
       <c r="W357" s="2"/>
     </row>
-    <row r="358">
+    <row r="358" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A358" s="5"/>
       <c r="B358" s="5"/>
       <c r="C358" s="2"/>
@@ -9443,7 +9479,7 @@
       <c r="V358" s="2"/>
       <c r="W358" s="2"/>
     </row>
-    <row r="359">
+    <row r="359" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A359" s="5"/>
       <c r="B359" s="5"/>
       <c r="C359" s="2"/>
@@ -9468,7 +9504,7 @@
       <c r="V359" s="2"/>
       <c r="W359" s="2"/>
     </row>
-    <row r="360">
+    <row r="360" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A360" s="5"/>
       <c r="B360" s="5"/>
       <c r="C360" s="2"/>
@@ -9493,7 +9529,7 @@
       <c r="V360" s="2"/>
       <c r="W360" s="2"/>
     </row>
-    <row r="361">
+    <row r="361" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A361" s="5"/>
       <c r="B361" s="5"/>
       <c r="C361" s="2"/>
@@ -9518,7 +9554,7 @@
       <c r="V361" s="2"/>
       <c r="W361" s="2"/>
     </row>
-    <row r="362">
+    <row r="362" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A362" s="5"/>
       <c r="B362" s="5"/>
       <c r="C362" s="2"/>
@@ -9543,7 +9579,7 @@
       <c r="V362" s="2"/>
       <c r="W362" s="2"/>
     </row>
-    <row r="363">
+    <row r="363" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A363" s="5"/>
       <c r="B363" s="5"/>
       <c r="C363" s="2"/>
@@ -9568,7 +9604,7 @@
       <c r="V363" s="2"/>
       <c r="W363" s="2"/>
     </row>
-    <row r="364">
+    <row r="364" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A364" s="5"/>
       <c r="B364" s="5"/>
       <c r="C364" s="2"/>
@@ -9593,7 +9629,7 @@
       <c r="V364" s="2"/>
       <c r="W364" s="2"/>
     </row>
-    <row r="365">
+    <row r="365" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A365" s="5"/>
       <c r="B365" s="5"/>
       <c r="C365" s="2"/>
@@ -9618,7 +9654,7 @@
       <c r="V365" s="2"/>
       <c r="W365" s="2"/>
     </row>
-    <row r="366">
+    <row r="366" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A366" s="5"/>
       <c r="B366" s="5"/>
       <c r="C366" s="2"/>
@@ -9643,7 +9679,7 @@
       <c r="V366" s="2"/>
       <c r="W366" s="2"/>
     </row>
-    <row r="367">
+    <row r="367" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A367" s="5"/>
       <c r="B367" s="5"/>
       <c r="C367" s="2"/>
@@ -9668,7 +9704,7 @@
       <c r="V367" s="2"/>
       <c r="W367" s="2"/>
     </row>
-    <row r="368">
+    <row r="368" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A368" s="5"/>
       <c r="B368" s="5"/>
       <c r="C368" s="2"/>
@@ -9693,7 +9729,7 @@
       <c r="V368" s="2"/>
       <c r="W368" s="2"/>
     </row>
-    <row r="369">
+    <row r="369" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A369" s="5"/>
       <c r="B369" s="5"/>
       <c r="C369" s="2"/>
@@ -9718,7 +9754,7 @@
       <c r="V369" s="2"/>
       <c r="W369" s="2"/>
     </row>
-    <row r="370">
+    <row r="370" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A370" s="5"/>
       <c r="B370" s="5"/>
       <c r="C370" s="2"/>
@@ -9743,7 +9779,7 @@
       <c r="V370" s="2"/>
       <c r="W370" s="2"/>
     </row>
-    <row r="371">
+    <row r="371" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A371" s="5"/>
       <c r="B371" s="5"/>
       <c r="C371" s="2"/>
@@ -9768,7 +9804,7 @@
       <c r="V371" s="2"/>
       <c r="W371" s="2"/>
     </row>
-    <row r="372">
+    <row r="372" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A372" s="5"/>
       <c r="B372" s="5"/>
       <c r="C372" s="2"/>
@@ -9793,7 +9829,7 @@
       <c r="V372" s="2"/>
       <c r="W372" s="2"/>
     </row>
-    <row r="373">
+    <row r="373" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A373" s="5"/>
       <c r="B373" s="5"/>
       <c r="C373" s="2"/>
@@ -9818,7 +9854,7 @@
       <c r="V373" s="2"/>
       <c r="W373" s="2"/>
     </row>
-    <row r="374">
+    <row r="374" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A374" s="5"/>
       <c r="B374" s="5"/>
       <c r="C374" s="2"/>
@@ -9843,7 +9879,7 @@
       <c r="V374" s="2"/>
       <c r="W374" s="2"/>
     </row>
-    <row r="375">
+    <row r="375" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A375" s="5"/>
       <c r="B375" s="5"/>
       <c r="C375" s="2"/>
@@ -9868,7 +9904,7 @@
       <c r="V375" s="2"/>
       <c r="W375" s="2"/>
     </row>
-    <row r="376">
+    <row r="376" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A376" s="5"/>
       <c r="B376" s="5"/>
       <c r="C376" s="2"/>
@@ -9893,7 +9929,7 @@
       <c r="V376" s="2"/>
       <c r="W376" s="2"/>
     </row>
-    <row r="377">
+    <row r="377" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A377" s="5"/>
       <c r="B377" s="5"/>
       <c r="C377" s="2"/>
@@ -9918,7 +9954,7 @@
       <c r="V377" s="2"/>
       <c r="W377" s="2"/>
     </row>
-    <row r="378">
+    <row r="378" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A378" s="5"/>
       <c r="B378" s="5"/>
       <c r="C378" s="2"/>
@@ -9943,7 +9979,7 @@
       <c r="V378" s="2"/>
       <c r="W378" s="2"/>
     </row>
-    <row r="379">
+    <row r="379" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A379" s="5"/>
       <c r="B379" s="5"/>
       <c r="C379" s="2"/>
@@ -9968,7 +10004,7 @@
       <c r="V379" s="2"/>
       <c r="W379" s="2"/>
     </row>
-    <row r="380">
+    <row r="380" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A380" s="5"/>
       <c r="B380" s="5"/>
       <c r="C380" s="2"/>
@@ -9993,7 +10029,7 @@
       <c r="V380" s="2"/>
       <c r="W380" s="2"/>
     </row>
-    <row r="381">
+    <row r="381" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A381" s="5"/>
       <c r="B381" s="5"/>
       <c r="C381" s="2"/>
@@ -10018,7 +10054,7 @@
       <c r="V381" s="2"/>
       <c r="W381" s="2"/>
     </row>
-    <row r="382">
+    <row r="382" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A382" s="5"/>
       <c r="B382" s="5"/>
       <c r="C382" s="2"/>
@@ -10043,7 +10079,7 @@
       <c r="V382" s="2"/>
       <c r="W382" s="2"/>
     </row>
-    <row r="383">
+    <row r="383" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A383" s="5"/>
       <c r="B383" s="5"/>
       <c r="C383" s="2"/>
@@ -10068,7 +10104,7 @@
       <c r="V383" s="2"/>
       <c r="W383" s="2"/>
     </row>
-    <row r="384">
+    <row r="384" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A384" s="5"/>
       <c r="B384" s="5"/>
       <c r="C384" s="2"/>
@@ -10093,7 +10129,7 @@
       <c r="V384" s="2"/>
       <c r="W384" s="2"/>
     </row>
-    <row r="385">
+    <row r="385" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A385" s="5"/>
       <c r="B385" s="5"/>
       <c r="C385" s="2"/>
@@ -10118,7 +10154,7 @@
       <c r="V385" s="2"/>
       <c r="W385" s="2"/>
     </row>
-    <row r="386">
+    <row r="386" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A386" s="5"/>
       <c r="B386" s="5"/>
       <c r="C386" s="2"/>
@@ -10143,7 +10179,7 @@
       <c r="V386" s="2"/>
       <c r="W386" s="2"/>
     </row>
-    <row r="387">
+    <row r="387" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A387" s="5"/>
       <c r="B387" s="5"/>
       <c r="C387" s="2"/>
@@ -10168,7 +10204,7 @@
       <c r="V387" s="2"/>
       <c r="W387" s="2"/>
     </row>
-    <row r="388">
+    <row r="388" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A388" s="5"/>
       <c r="B388" s="5"/>
       <c r="C388" s="2"/>
@@ -10193,7 +10229,7 @@
       <c r="V388" s="2"/>
       <c r="W388" s="2"/>
     </row>
-    <row r="389">
+    <row r="389" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A389" s="5"/>
       <c r="B389" s="5"/>
       <c r="C389" s="2"/>
@@ -10218,7 +10254,7 @@
       <c r="V389" s="2"/>
       <c r="W389" s="2"/>
     </row>
-    <row r="390">
+    <row r="390" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A390" s="5"/>
       <c r="B390" s="5"/>
       <c r="C390" s="2"/>
@@ -10243,7 +10279,7 @@
       <c r="V390" s="2"/>
       <c r="W390" s="2"/>
     </row>
-    <row r="391">
+    <row r="391" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A391" s="5"/>
       <c r="B391" s="5"/>
       <c r="C391" s="2"/>
@@ -10268,7 +10304,7 @@
       <c r="V391" s="2"/>
       <c r="W391" s="2"/>
     </row>
-    <row r="392">
+    <row r="392" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A392" s="5"/>
       <c r="B392" s="5"/>
       <c r="C392" s="2"/>
@@ -10293,7 +10329,7 @@
       <c r="V392" s="2"/>
       <c r="W392" s="2"/>
     </row>
-    <row r="393">
+    <row r="393" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A393" s="5"/>
       <c r="B393" s="5"/>
       <c r="C393" s="2"/>
@@ -10318,7 +10354,7 @@
       <c r="V393" s="2"/>
       <c r="W393" s="2"/>
     </row>
-    <row r="394">
+    <row r="394" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A394" s="5"/>
       <c r="B394" s="5"/>
       <c r="C394" s="2"/>
@@ -10343,7 +10379,7 @@
       <c r="V394" s="2"/>
       <c r="W394" s="2"/>
     </row>
-    <row r="395">
+    <row r="395" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A395" s="5"/>
       <c r="B395" s="5"/>
       <c r="C395" s="2"/>
@@ -10368,7 +10404,7 @@
       <c r="V395" s="2"/>
       <c r="W395" s="2"/>
     </row>
-    <row r="396">
+    <row r="396" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A396" s="5"/>
       <c r="B396" s="5"/>
       <c r="C396" s="2"/>
@@ -10393,7 +10429,7 @@
       <c r="V396" s="2"/>
       <c r="W396" s="2"/>
     </row>
-    <row r="397">
+    <row r="397" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A397" s="5"/>
       <c r="B397" s="5"/>
       <c r="C397" s="2"/>
@@ -10418,7 +10454,7 @@
       <c r="V397" s="2"/>
       <c r="W397" s="2"/>
     </row>
-    <row r="398">
+    <row r="398" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A398" s="5"/>
       <c r="B398" s="5"/>
       <c r="C398" s="2"/>
@@ -10443,7 +10479,7 @@
       <c r="V398" s="2"/>
       <c r="W398" s="2"/>
     </row>
-    <row r="399">
+    <row r="399" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A399" s="5"/>
       <c r="B399" s="5"/>
       <c r="C399" s="2"/>
@@ -10468,7 +10504,7 @@
       <c r="V399" s="2"/>
       <c r="W399" s="2"/>
     </row>
-    <row r="400">
+    <row r="400" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A400" s="5"/>
       <c r="B400" s="5"/>
       <c r="C400" s="2"/>
@@ -10493,7 +10529,7 @@
       <c r="V400" s="2"/>
       <c r="W400" s="2"/>
     </row>
-    <row r="401">
+    <row r="401" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A401" s="5"/>
       <c r="B401" s="5"/>
       <c r="C401" s="2"/>
@@ -10518,7 +10554,7 @@
       <c r="V401" s="2"/>
       <c r="W401" s="2"/>
     </row>
-    <row r="402">
+    <row r="402" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A402" s="5"/>
       <c r="B402" s="5"/>
       <c r="C402" s="2"/>
@@ -10543,7 +10579,7 @@
       <c r="V402" s="2"/>
       <c r="W402" s="2"/>
     </row>
-    <row r="403">
+    <row r="403" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A403" s="5"/>
       <c r="B403" s="5"/>
       <c r="C403" s="2"/>
@@ -10568,7 +10604,7 @@
       <c r="V403" s="2"/>
       <c r="W403" s="2"/>
     </row>
-    <row r="404">
+    <row r="404" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A404" s="5"/>
       <c r="B404" s="5"/>
       <c r="C404" s="2"/>
@@ -10593,7 +10629,7 @@
       <c r="V404" s="2"/>
       <c r="W404" s="2"/>
     </row>
-    <row r="405">
+    <row r="405" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A405" s="5"/>
       <c r="B405" s="5"/>
       <c r="C405" s="2"/>
@@ -10618,7 +10654,7 @@
       <c r="V405" s="2"/>
       <c r="W405" s="2"/>
     </row>
-    <row r="406">
+    <row r="406" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A406" s="5"/>
       <c r="B406" s="5"/>
       <c r="C406" s="2"/>
@@ -10643,7 +10679,7 @@
       <c r="V406" s="2"/>
       <c r="W406" s="2"/>
     </row>
-    <row r="407">
+    <row r="407" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A407" s="5"/>
       <c r="B407" s="5"/>
       <c r="C407" s="2"/>
@@ -10668,7 +10704,7 @@
       <c r="V407" s="2"/>
       <c r="W407" s="2"/>
     </row>
-    <row r="408">
+    <row r="408" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A408" s="5"/>
       <c r="B408" s="5"/>
       <c r="C408" s="2"/>
@@ -10693,7 +10729,7 @@
       <c r="V408" s="2"/>
       <c r="W408" s="2"/>
     </row>
-    <row r="409">
+    <row r="409" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A409" s="5"/>
       <c r="B409" s="5"/>
       <c r="C409" s="2"/>
@@ -10718,7 +10754,7 @@
       <c r="V409" s="2"/>
       <c r="W409" s="2"/>
     </row>
-    <row r="410">
+    <row r="410" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A410" s="5"/>
       <c r="B410" s="5"/>
       <c r="C410" s="2"/>
@@ -10743,7 +10779,7 @@
       <c r="V410" s="2"/>
       <c r="W410" s="2"/>
     </row>
-    <row r="411">
+    <row r="411" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A411" s="5"/>
       <c r="B411" s="5"/>
       <c r="C411" s="2"/>
@@ -10768,7 +10804,7 @@
       <c r="V411" s="2"/>
       <c r="W411" s="2"/>
     </row>
-    <row r="412">
+    <row r="412" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A412" s="5"/>
       <c r="B412" s="5"/>
       <c r="C412" s="2"/>
@@ -10793,7 +10829,7 @@
       <c r="V412" s="2"/>
       <c r="W412" s="2"/>
     </row>
-    <row r="413">
+    <row r="413" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A413" s="5"/>
       <c r="B413" s="5"/>
       <c r="C413" s="2"/>
@@ -10818,7 +10854,7 @@
       <c r="V413" s="2"/>
       <c r="W413" s="2"/>
     </row>
-    <row r="414">
+    <row r="414" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A414" s="5"/>
       <c r="B414" s="5"/>
       <c r="C414" s="2"/>
@@ -10843,7 +10879,7 @@
       <c r="V414" s="2"/>
       <c r="W414" s="2"/>
     </row>
-    <row r="415">
+    <row r="415" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A415" s="5"/>
       <c r="B415" s="5"/>
       <c r="C415" s="2"/>
@@ -10868,7 +10904,7 @@
       <c r="V415" s="2"/>
       <c r="W415" s="2"/>
     </row>
-    <row r="416">
+    <row r="416" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A416" s="5"/>
       <c r="B416" s="5"/>
       <c r="C416" s="2"/>
@@ -10893,7 +10929,7 @@
       <c r="V416" s="2"/>
       <c r="W416" s="2"/>
     </row>
-    <row r="417">
+    <row r="417" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A417" s="5"/>
       <c r="B417" s="5"/>
       <c r="C417" s="2"/>
@@ -10918,7 +10954,7 @@
       <c r="V417" s="2"/>
       <c r="W417" s="2"/>
     </row>
-    <row r="418">
+    <row r="418" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A418" s="5"/>
       <c r="B418" s="5"/>
       <c r="C418" s="2"/>
@@ -10943,7 +10979,7 @@
       <c r="V418" s="2"/>
       <c r="W418" s="2"/>
     </row>
-    <row r="419">
+    <row r="419" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A419" s="5"/>
       <c r="B419" s="5"/>
       <c r="C419" s="2"/>
@@ -10968,7 +11004,7 @@
       <c r="V419" s="2"/>
       <c r="W419" s="2"/>
     </row>
-    <row r="420">
+    <row r="420" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A420" s="5"/>
       <c r="B420" s="5"/>
       <c r="C420" s="2"/>
@@ -10993,7 +11029,7 @@
       <c r="V420" s="2"/>
       <c r="W420" s="2"/>
     </row>
-    <row r="421">
+    <row r="421" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A421" s="5"/>
       <c r="B421" s="5"/>
       <c r="C421" s="2"/>
@@ -11018,7 +11054,7 @@
       <c r="V421" s="2"/>
       <c r="W421" s="2"/>
     </row>
-    <row r="422">
+    <row r="422" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A422" s="5"/>
       <c r="B422" s="5"/>
       <c r="C422" s="2"/>
@@ -11043,7 +11079,7 @@
       <c r="V422" s="2"/>
       <c r="W422" s="2"/>
     </row>
-    <row r="423">
+    <row r="423" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A423" s="5"/>
       <c r="B423" s="5"/>
       <c r="C423" s="2"/>
@@ -11068,7 +11104,7 @@
       <c r="V423" s="2"/>
       <c r="W423" s="2"/>
     </row>
-    <row r="424">
+    <row r="424" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A424" s="5"/>
       <c r="B424" s="5"/>
       <c r="C424" s="2"/>
@@ -11093,7 +11129,7 @@
       <c r="V424" s="2"/>
       <c r="W424" s="2"/>
     </row>
-    <row r="425">
+    <row r="425" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A425" s="5"/>
       <c r="B425" s="5"/>
       <c r="C425" s="2"/>
@@ -11118,7 +11154,7 @@
       <c r="V425" s="2"/>
       <c r="W425" s="2"/>
     </row>
-    <row r="426">
+    <row r="426" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A426" s="5"/>
       <c r="B426" s="5"/>
       <c r="C426" s="2"/>
@@ -11143,7 +11179,7 @@
       <c r="V426" s="2"/>
       <c r="W426" s="2"/>
     </row>
-    <row r="427">
+    <row r="427" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A427" s="5"/>
       <c r="B427" s="5"/>
       <c r="C427" s="2"/>
@@ -11168,7 +11204,7 @@
       <c r="V427" s="2"/>
       <c r="W427" s="2"/>
     </row>
-    <row r="428">
+    <row r="428" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A428" s="5"/>
       <c r="B428" s="5"/>
       <c r="C428" s="2"/>
@@ -11193,7 +11229,7 @@
       <c r="V428" s="2"/>
       <c r="W428" s="2"/>
     </row>
-    <row r="429">
+    <row r="429" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A429" s="5"/>
       <c r="B429" s="5"/>
       <c r="C429" s="2"/>
@@ -11218,7 +11254,7 @@
       <c r="V429" s="2"/>
       <c r="W429" s="2"/>
     </row>
-    <row r="430">
+    <row r="430" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A430" s="5"/>
       <c r="B430" s="5"/>
       <c r="C430" s="2"/>
@@ -11243,7 +11279,7 @@
       <c r="V430" s="2"/>
       <c r="W430" s="2"/>
     </row>
-    <row r="431">
+    <row r="431" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A431" s="5"/>
       <c r="B431" s="5"/>
       <c r="C431" s="2"/>
@@ -11268,7 +11304,7 @@
       <c r="V431" s="2"/>
       <c r="W431" s="2"/>
     </row>
-    <row r="432">
+    <row r="432" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A432" s="5"/>
       <c r="B432" s="5"/>
       <c r="C432" s="2"/>
@@ -11293,7 +11329,7 @@
       <c r="V432" s="2"/>
       <c r="W432" s="2"/>
     </row>
-    <row r="433">
+    <row r="433" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A433" s="5"/>
       <c r="B433" s="5"/>
       <c r="C433" s="2"/>
@@ -11318,7 +11354,7 @@
       <c r="V433" s="2"/>
       <c r="W433" s="2"/>
     </row>
-    <row r="434">
+    <row r="434" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A434" s="5"/>
       <c r="B434" s="5"/>
       <c r="C434" s="2"/>
@@ -11343,7 +11379,7 @@
       <c r="V434" s="2"/>
       <c r="W434" s="2"/>
     </row>
-    <row r="435">
+    <row r="435" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A435" s="5"/>
       <c r="B435" s="5"/>
       <c r="C435" s="2"/>
@@ -11368,7 +11404,7 @@
       <c r="V435" s="2"/>
       <c r="W435" s="2"/>
     </row>
-    <row r="436">
+    <row r="436" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A436" s="5"/>
       <c r="B436" s="5"/>
       <c r="C436" s="2"/>
@@ -11393,7 +11429,7 @@
       <c r="V436" s="2"/>
       <c r="W436" s="2"/>
     </row>
-    <row r="437">
+    <row r="437" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A437" s="5"/>
       <c r="B437" s="5"/>
       <c r="C437" s="2"/>
@@ -11418,7 +11454,7 @@
       <c r="V437" s="2"/>
       <c r="W437" s="2"/>
     </row>
-    <row r="438">
+    <row r="438" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A438" s="5"/>
       <c r="B438" s="5"/>
       <c r="C438" s="2"/>
@@ -11443,7 +11479,7 @@
       <c r="V438" s="2"/>
       <c r="W438" s="2"/>
     </row>
-    <row r="439">
+    <row r="439" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A439" s="5"/>
       <c r="B439" s="5"/>
       <c r="C439" s="2"/>
@@ -11468,7 +11504,7 @@
       <c r="V439" s="2"/>
       <c r="W439" s="2"/>
     </row>
-    <row r="440">
+    <row r="440" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A440" s="5"/>
       <c r="B440" s="5"/>
       <c r="C440" s="2"/>
@@ -11493,7 +11529,7 @@
       <c r="V440" s="2"/>
       <c r="W440" s="2"/>
     </row>
-    <row r="441">
+    <row r="441" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A441" s="5"/>
       <c r="B441" s="5"/>
       <c r="C441" s="2"/>
@@ -11518,7 +11554,7 @@
       <c r="V441" s="2"/>
       <c r="W441" s="2"/>
     </row>
-    <row r="442">
+    <row r="442" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A442" s="5"/>
       <c r="B442" s="5"/>
       <c r="C442" s="2"/>
@@ -11543,7 +11579,7 @@
       <c r="V442" s="2"/>
       <c r="W442" s="2"/>
     </row>
-    <row r="443">
+    <row r="443" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A443" s="5"/>
       <c r="B443" s="5"/>
       <c r="C443" s="2"/>
@@ -11568,7 +11604,7 @@
       <c r="V443" s="2"/>
       <c r="W443" s="2"/>
     </row>
-    <row r="444">
+    <row r="444" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A444" s="5"/>
       <c r="B444" s="5"/>
       <c r="C444" s="2"/>
@@ -11593,7 +11629,7 @@
       <c r="V444" s="2"/>
       <c r="W444" s="2"/>
     </row>
-    <row r="445">
+    <row r="445" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A445" s="5"/>
       <c r="B445" s="5"/>
       <c r="C445" s="2"/>
@@ -11618,7 +11654,7 @@
       <c r="V445" s="2"/>
       <c r="W445" s="2"/>
     </row>
-    <row r="446">
+    <row r="446" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A446" s="5"/>
       <c r="B446" s="5"/>
       <c r="C446" s="2"/>
@@ -11643,7 +11679,7 @@
       <c r="V446" s="2"/>
       <c r="W446" s="2"/>
     </row>
-    <row r="447">
+    <row r="447" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A447" s="5"/>
       <c r="B447" s="5"/>
       <c r="C447" s="2"/>
@@ -11668,7 +11704,7 @@
       <c r="V447" s="2"/>
       <c r="W447" s="2"/>
     </row>
-    <row r="448">
+    <row r="448" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A448" s="5"/>
       <c r="B448" s="5"/>
       <c r="C448" s="2"/>
@@ -11693,7 +11729,7 @@
       <c r="V448" s="2"/>
       <c r="W448" s="2"/>
     </row>
-    <row r="449">
+    <row r="449" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A449" s="5"/>
       <c r="B449" s="5"/>
       <c r="C449" s="2"/>
@@ -11718,7 +11754,7 @@
       <c r="V449" s="2"/>
       <c r="W449" s="2"/>
     </row>
-    <row r="450">
+    <row r="450" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A450" s="5"/>
       <c r="B450" s="5"/>
       <c r="C450" s="2"/>
@@ -11743,7 +11779,7 @@
       <c r="V450" s="2"/>
       <c r="W450" s="2"/>
     </row>
-    <row r="451">
+    <row r="451" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A451" s="5"/>
       <c r="B451" s="5"/>
       <c r="C451" s="2"/>
@@ -11768,7 +11804,7 @@
       <c r="V451" s="2"/>
       <c r="W451" s="2"/>
     </row>
-    <row r="452">
+    <row r="452" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A452" s="5"/>
       <c r="B452" s="5"/>
       <c r="C452" s="2"/>
@@ -11793,7 +11829,7 @@
       <c r="V452" s="2"/>
       <c r="W452" s="2"/>
     </row>
-    <row r="453">
+    <row r="453" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A453" s="5"/>
       <c r="B453" s="5"/>
       <c r="C453" s="2"/>
@@ -11818,7 +11854,7 @@
       <c r="V453" s="2"/>
       <c r="W453" s="2"/>
     </row>
-    <row r="454">
+    <row r="454" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A454" s="5"/>
       <c r="B454" s="5"/>
       <c r="C454" s="2"/>
@@ -11843,7 +11879,7 @@
       <c r="V454" s="2"/>
       <c r="W454" s="2"/>
     </row>
-    <row r="455">
+    <row r="455" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A455" s="5"/>
       <c r="B455" s="5"/>
       <c r="C455" s="2"/>
@@ -11868,7 +11904,7 @@
       <c r="V455" s="2"/>
       <c r="W455" s="2"/>
     </row>
-    <row r="456">
+    <row r="456" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A456" s="5"/>
       <c r="B456" s="5"/>
       <c r="C456" s="2"/>
@@ -11893,7 +11929,7 @@
       <c r="V456" s="2"/>
       <c r="W456" s="2"/>
     </row>
-    <row r="457">
+    <row r="457" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A457" s="5"/>
       <c r="B457" s="5"/>
       <c r="C457" s="2"/>
@@ -11918,7 +11954,7 @@
       <c r="V457" s="2"/>
       <c r="W457" s="2"/>
     </row>
-    <row r="458">
+    <row r="458" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A458" s="5"/>
       <c r="B458" s="5"/>
       <c r="C458" s="2"/>
@@ -11943,7 +11979,7 @@
       <c r="V458" s="2"/>
       <c r="W458" s="2"/>
     </row>
-    <row r="459">
+    <row r="459" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A459" s="5"/>
       <c r="B459" s="5"/>
       <c r="C459" s="2"/>
@@ -11968,7 +12004,7 @@
       <c r="V459" s="2"/>
       <c r="W459" s="2"/>
     </row>
-    <row r="460">
+    <row r="460" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A460" s="5"/>
       <c r="B460" s="5"/>
       <c r="C460" s="2"/>
@@ -11993,7 +12029,7 @@
       <c r="V460" s="2"/>
       <c r="W460" s="2"/>
     </row>
-    <row r="461">
+    <row r="461" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A461" s="5"/>
       <c r="B461" s="5"/>
       <c r="C461" s="2"/>
@@ -12018,7 +12054,7 @@
       <c r="V461" s="2"/>
       <c r="W461" s="2"/>
     </row>
-    <row r="462">
+    <row r="462" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A462" s="5"/>
       <c r="B462" s="5"/>
       <c r="C462" s="2"/>
@@ -12043,7 +12079,7 @@
       <c r="V462" s="2"/>
       <c r="W462" s="2"/>
     </row>
-    <row r="463">
+    <row r="463" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A463" s="5"/>
       <c r="B463" s="5"/>
       <c r="C463" s="2"/>
@@ -12068,7 +12104,7 @@
       <c r="V463" s="2"/>
       <c r="W463" s="2"/>
     </row>
-    <row r="464">
+    <row r="464" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A464" s="5"/>
       <c r="B464" s="5"/>
       <c r="C464" s="2"/>
@@ -12093,7 +12129,7 @@
       <c r="V464" s="2"/>
       <c r="W464" s="2"/>
     </row>
-    <row r="465">
+    <row r="465" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A465" s="5"/>
       <c r="B465" s="5"/>
       <c r="C465" s="2"/>
@@ -12118,7 +12154,7 @@
       <c r="V465" s="2"/>
       <c r="W465" s="2"/>
     </row>
-    <row r="466">
+    <row r="466" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A466" s="5"/>
       <c r="B466" s="5"/>
       <c r="C466" s="2"/>
@@ -12143,7 +12179,7 @@
       <c r="V466" s="2"/>
       <c r="W466" s="2"/>
     </row>
-    <row r="467">
+    <row r="467" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A467" s="5"/>
       <c r="B467" s="5"/>
       <c r="C467" s="2"/>
@@ -12168,7 +12204,7 @@
       <c r="V467" s="2"/>
       <c r="W467" s="2"/>
     </row>
-    <row r="468">
+    <row r="468" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A468" s="5"/>
       <c r="B468" s="5"/>
       <c r="C468" s="2"/>
@@ -12193,7 +12229,7 @@
       <c r="V468" s="2"/>
       <c r="W468" s="2"/>
     </row>
-    <row r="469">
+    <row r="469" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A469" s="5"/>
       <c r="B469" s="5"/>
       <c r="C469" s="2"/>
@@ -12218,7 +12254,7 @@
       <c r="V469" s="2"/>
       <c r="W469" s="2"/>
     </row>
-    <row r="470">
+    <row r="470" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A470" s="5"/>
       <c r="B470" s="5"/>
       <c r="C470" s="2"/>
@@ -12243,7 +12279,7 @@
       <c r="V470" s="2"/>
       <c r="W470" s="2"/>
     </row>
-    <row r="471">
+    <row r="471" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A471" s="5"/>
       <c r="B471" s="5"/>
       <c r="C471" s="2"/>
@@ -12268,7 +12304,7 @@
       <c r="V471" s="2"/>
       <c r="W471" s="2"/>
     </row>
-    <row r="472">
+    <row r="472" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A472" s="5"/>
       <c r="B472" s="5"/>
       <c r="C472" s="2"/>
@@ -12293,7 +12329,7 @@
       <c r="V472" s="2"/>
       <c r="W472" s="2"/>
     </row>
-    <row r="473">
+    <row r="473" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A473" s="5"/>
       <c r="B473" s="5"/>
       <c r="C473" s="2"/>
@@ -12318,7 +12354,7 @@
       <c r="V473" s="2"/>
       <c r="W473" s="2"/>
     </row>
-    <row r="474">
+    <row r="474" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A474" s="5"/>
       <c r="B474" s="5"/>
       <c r="C474" s="2"/>
@@ -12343,7 +12379,7 @@
       <c r="V474" s="2"/>
       <c r="W474" s="2"/>
     </row>
-    <row r="475">
+    <row r="475" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A475" s="5"/>
       <c r="B475" s="5"/>
       <c r="C475" s="2"/>
@@ -12368,7 +12404,7 @@
       <c r="V475" s="2"/>
       <c r="W475" s="2"/>
     </row>
-    <row r="476">
+    <row r="476" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A476" s="5"/>
       <c r="B476" s="5"/>
       <c r="C476" s="2"/>
@@ -12393,7 +12429,7 @@
       <c r="V476" s="2"/>
       <c r="W476" s="2"/>
     </row>
-    <row r="477">
+    <row r="477" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A477" s="5"/>
       <c r="B477" s="5"/>
       <c r="C477" s="2"/>
@@ -12418,7 +12454,7 @@
       <c r="V477" s="2"/>
       <c r="W477" s="2"/>
     </row>
-    <row r="478">
+    <row r="478" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A478" s="5"/>
       <c r="B478" s="5"/>
       <c r="C478" s="2"/>
@@ -12443,7 +12479,7 @@
       <c r="V478" s="2"/>
       <c r="W478" s="2"/>
     </row>
-    <row r="479">
+    <row r="479" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A479" s="5"/>
       <c r="B479" s="5"/>
       <c r="C479" s="2"/>
@@ -12468,7 +12504,7 @@
       <c r="V479" s="2"/>
       <c r="W479" s="2"/>
     </row>
-    <row r="480">
+    <row r="480" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A480" s="5"/>
       <c r="B480" s="5"/>
       <c r="C480" s="2"/>
@@ -12493,7 +12529,7 @@
       <c r="V480" s="2"/>
       <c r="W480" s="2"/>
     </row>
-    <row r="481">
+    <row r="481" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A481" s="5"/>
       <c r="B481" s="5"/>
       <c r="C481" s="2"/>
@@ -12518,7 +12554,7 @@
       <c r="V481" s="2"/>
       <c r="W481" s="2"/>
     </row>
-    <row r="482">
+    <row r="482" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A482" s="5"/>
       <c r="B482" s="5"/>
       <c r="C482" s="2"/>
@@ -12543,7 +12579,7 @@
       <c r="V482" s="2"/>
       <c r="W482" s="2"/>
     </row>
-    <row r="483">
+    <row r="483" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A483" s="5"/>
       <c r="B483" s="5"/>
       <c r="C483" s="2"/>
@@ -12568,7 +12604,7 @@
       <c r="V483" s="2"/>
       <c r="W483" s="2"/>
     </row>
-    <row r="484">
+    <row r="484" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A484" s="5"/>
       <c r="B484" s="5"/>
       <c r="C484" s="2"/>
@@ -12593,7 +12629,7 @@
       <c r="V484" s="2"/>
       <c r="W484" s="2"/>
     </row>
-    <row r="485">
+    <row r="485" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A485" s="5"/>
       <c r="B485" s="5"/>
       <c r="C485" s="2"/>
@@ -12618,7 +12654,7 @@
       <c r="V485" s="2"/>
       <c r="W485" s="2"/>
     </row>
-    <row r="486">
+    <row r="486" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A486" s="5"/>
       <c r="B486" s="5"/>
       <c r="C486" s="2"/>
@@ -12643,7 +12679,7 @@
       <c r="V486" s="2"/>
       <c r="W486" s="2"/>
     </row>
-    <row r="487">
+    <row r="487" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A487" s="5"/>
       <c r="B487" s="5"/>
       <c r="C487" s="2"/>
@@ -12668,7 +12704,7 @@
       <c r="V487" s="2"/>
       <c r="W487" s="2"/>
     </row>
-    <row r="488">
+    <row r="488" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A488" s="5"/>
       <c r="B488" s="5"/>
       <c r="C488" s="2"/>
@@ -12693,7 +12729,7 @@
       <c r="V488" s="2"/>
       <c r="W488" s="2"/>
     </row>
-    <row r="489">
+    <row r="489" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A489" s="5"/>
       <c r="B489" s="5"/>
       <c r="C489" s="2"/>
@@ -12718,7 +12754,7 @@
       <c r="V489" s="2"/>
       <c r="W489" s="2"/>
     </row>
-    <row r="490">
+    <row r="490" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A490" s="5"/>
       <c r="B490" s="5"/>
       <c r="C490" s="2"/>
@@ -12743,7 +12779,7 @@
       <c r="V490" s="2"/>
       <c r="W490" s="2"/>
     </row>
-    <row r="491">
+    <row r="491" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A491" s="5"/>
       <c r="B491" s="5"/>
       <c r="C491" s="2"/>
@@ -12768,7 +12804,7 @@
       <c r="V491" s="2"/>
       <c r="W491" s="2"/>
     </row>
-    <row r="492">
+    <row r="492" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A492" s="5"/>
       <c r="B492" s="5"/>
       <c r="C492" s="2"/>
@@ -12793,7 +12829,7 @@
       <c r="V492" s="2"/>
       <c r="W492" s="2"/>
     </row>
-    <row r="493">
+    <row r="493" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A493" s="5"/>
       <c r="B493" s="5"/>
       <c r="C493" s="2"/>
@@ -12818,7 +12854,7 @@
       <c r="V493" s="2"/>
       <c r="W493" s="2"/>
     </row>
-    <row r="494">
+    <row r="494" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A494" s="5"/>
       <c r="B494" s="5"/>
       <c r="C494" s="2"/>
@@ -12843,7 +12879,7 @@
       <c r="V494" s="2"/>
       <c r="W494" s="2"/>
     </row>
-    <row r="495">
+    <row r="495" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A495" s="5"/>
       <c r="B495" s="5"/>
       <c r="C495" s="2"/>
@@ -12868,7 +12904,7 @@
       <c r="V495" s="2"/>
       <c r="W495" s="2"/>
     </row>
-    <row r="496">
+    <row r="496" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A496" s="5"/>
       <c r="B496" s="5"/>
       <c r="C496" s="2"/>
@@ -12893,7 +12929,7 @@
       <c r="V496" s="2"/>
       <c r="W496" s="2"/>
     </row>
-    <row r="497">
+    <row r="497" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A497" s="5"/>
       <c r="B497" s="5"/>
       <c r="C497" s="2"/>
@@ -12918,7 +12954,7 @@
       <c r="V497" s="2"/>
       <c r="W497" s="2"/>
     </row>
-    <row r="498">
+    <row r="498" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A498" s="5"/>
       <c r="B498" s="5"/>
       <c r="C498" s="2"/>
@@ -12943,7 +12979,7 @@
       <c r="V498" s="2"/>
       <c r="W498" s="2"/>
     </row>
-    <row r="499">
+    <row r="499" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A499" s="5"/>
       <c r="B499" s="5"/>
       <c r="C499" s="2"/>
@@ -12968,7 +13004,7 @@
       <c r="V499" s="2"/>
       <c r="W499" s="2"/>
     </row>
-    <row r="500">
+    <row r="500" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A500" s="5"/>
       <c r="B500" s="5"/>
       <c r="C500" s="2"/>
@@ -12993,7 +13029,7 @@
       <c r="V500" s="2"/>
       <c r="W500" s="2"/>
     </row>
-    <row r="501">
+    <row r="501" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A501" s="5"/>
       <c r="B501" s="5"/>
       <c r="C501" s="2"/>
@@ -13018,7 +13054,7 @@
       <c r="V501" s="2"/>
       <c r="W501" s="2"/>
     </row>
-    <row r="502">
+    <row r="502" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A502" s="5"/>
       <c r="B502" s="5"/>
       <c r="C502" s="2"/>
@@ -13043,7 +13079,7 @@
       <c r="V502" s="2"/>
       <c r="W502" s="2"/>
     </row>
-    <row r="503">
+    <row r="503" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A503" s="5"/>
       <c r="B503" s="5"/>
       <c r="C503" s="2"/>
@@ -13068,7 +13104,7 @@
       <c r="V503" s="2"/>
       <c r="W503" s="2"/>
     </row>
-    <row r="504">
+    <row r="504" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A504" s="5"/>
       <c r="B504" s="5"/>
       <c r="C504" s="2"/>
@@ -13093,7 +13129,7 @@
       <c r="V504" s="2"/>
       <c r="W504" s="2"/>
     </row>
-    <row r="505">
+    <row r="505" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A505" s="5"/>
       <c r="B505" s="5"/>
       <c r="C505" s="2"/>
@@ -13118,7 +13154,7 @@
       <c r="V505" s="2"/>
       <c r="W505" s="2"/>
     </row>
-    <row r="506">
+    <row r="506" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A506" s="5"/>
       <c r="B506" s="5"/>
       <c r="C506" s="2"/>
@@ -13143,7 +13179,7 @@
       <c r="V506" s="2"/>
       <c r="W506" s="2"/>
     </row>
-    <row r="507">
+    <row r="507" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A507" s="5"/>
       <c r="B507" s="5"/>
       <c r="C507" s="2"/>
@@ -13168,7 +13204,7 @@
       <c r="V507" s="2"/>
       <c r="W507" s="2"/>
     </row>
-    <row r="508">
+    <row r="508" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A508" s="5"/>
       <c r="B508" s="5"/>
       <c r="C508" s="2"/>
@@ -13193,7 +13229,7 @@
       <c r="V508" s="2"/>
       <c r="W508" s="2"/>
     </row>
-    <row r="509">
+    <row r="509" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A509" s="5"/>
       <c r="B509" s="5"/>
       <c r="C509" s="2"/>
@@ -13218,7 +13254,7 @@
       <c r="V509" s="2"/>
       <c r="W509" s="2"/>
     </row>
-    <row r="510">
+    <row r="510" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A510" s="5"/>
       <c r="B510" s="5"/>
       <c r="C510" s="2"/>
@@ -13243,7 +13279,7 @@
       <c r="V510" s="2"/>
       <c r="W510" s="2"/>
     </row>
-    <row r="511">
+    <row r="511" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A511" s="5"/>
       <c r="B511" s="5"/>
       <c r="C511" s="2"/>
@@ -13268,7 +13304,7 @@
       <c r="V511" s="2"/>
       <c r="W511" s="2"/>
     </row>
-    <row r="512">
+    <row r="512" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A512" s="5"/>
       <c r="B512" s="5"/>
       <c r="C512" s="2"/>
@@ -13293,7 +13329,7 @@
       <c r="V512" s="2"/>
       <c r="W512" s="2"/>
     </row>
-    <row r="513">
+    <row r="513" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A513" s="5"/>
       <c r="B513" s="5"/>
       <c r="C513" s="2"/>
@@ -13318,7 +13354,7 @@
       <c r="V513" s="2"/>
       <c r="W513" s="2"/>
     </row>
-    <row r="514">
+    <row r="514" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A514" s="5"/>
       <c r="B514" s="5"/>
       <c r="C514" s="2"/>
@@ -13343,7 +13379,7 @@
       <c r="V514" s="2"/>
       <c r="W514" s="2"/>
     </row>
-    <row r="515">
+    <row r="515" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A515" s="5"/>
       <c r="B515" s="5"/>
       <c r="C515" s="2"/>
@@ -13368,7 +13404,7 @@
       <c r="V515" s="2"/>
       <c r="W515" s="2"/>
     </row>
-    <row r="516">
+    <row r="516" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A516" s="5"/>
       <c r="B516" s="5"/>
       <c r="C516" s="2"/>
@@ -13393,7 +13429,7 @@
       <c r="V516" s="2"/>
       <c r="W516" s="2"/>
     </row>
-    <row r="517">
+    <row r="517" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A517" s="5"/>
       <c r="B517" s="5"/>
       <c r="C517" s="2"/>
@@ -13418,7 +13454,7 @@
       <c r="V517" s="2"/>
       <c r="W517" s="2"/>
     </row>
-    <row r="518">
+    <row r="518" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A518" s="5"/>
       <c r="B518" s="5"/>
       <c r="C518" s="2"/>
@@ -13443,7 +13479,7 @@
       <c r="V518" s="2"/>
       <c r="W518" s="2"/>
     </row>
-    <row r="519">
+    <row r="519" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A519" s="5"/>
       <c r="B519" s="5"/>
       <c r="C519" s="2"/>
@@ -13468,7 +13504,7 @@
       <c r="V519" s="2"/>
       <c r="W519" s="2"/>
     </row>
-    <row r="520">
+    <row r="520" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A520" s="5"/>
       <c r="B520" s="5"/>
       <c r="C520" s="2"/>
@@ -13493,7 +13529,7 @@
       <c r="V520" s="2"/>
       <c r="W520" s="2"/>
     </row>
-    <row r="521">
+    <row r="521" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A521" s="5"/>
       <c r="B521" s="5"/>
       <c r="C521" s="2"/>
@@ -13518,7 +13554,7 @@
       <c r="V521" s="2"/>
       <c r="W521" s="2"/>
     </row>
-    <row r="522">
+    <row r="522" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A522" s="5"/>
       <c r="B522" s="5"/>
       <c r="C522" s="2"/>
@@ -13543,7 +13579,7 @@
       <c r="V522" s="2"/>
       <c r="W522" s="2"/>
     </row>
-    <row r="523">
+    <row r="523" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A523" s="5"/>
       <c r="B523" s="5"/>
       <c r="C523" s="2"/>
@@ -13568,7 +13604,7 @@
       <c r="V523" s="2"/>
       <c r="W523" s="2"/>
     </row>
-    <row r="524">
+    <row r="524" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A524" s="5"/>
       <c r="B524" s="5"/>
       <c r="C524" s="2"/>
@@ -13593,7 +13629,7 @@
       <c r="V524" s="2"/>
       <c r="W524" s="2"/>
     </row>
-    <row r="525">
+    <row r="525" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A525" s="5"/>
       <c r="B525" s="5"/>
       <c r="C525" s="2"/>
@@ -13618,7 +13654,7 @@
       <c r="V525" s="2"/>
       <c r="W525" s="2"/>
     </row>
-    <row r="526">
+    <row r="526" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A526" s="5"/>
       <c r="B526" s="5"/>
       <c r="C526" s="2"/>
@@ -13643,7 +13679,7 @@
       <c r="V526" s="2"/>
       <c r="W526" s="2"/>
     </row>
-    <row r="527">
+    <row r="527" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A527" s="5"/>
       <c r="B527" s="5"/>
       <c r="C527" s="2"/>
@@ -13668,7 +13704,7 @@
       <c r="V527" s="2"/>
       <c r="W527" s="2"/>
     </row>
-    <row r="528">
+    <row r="528" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A528" s="5"/>
       <c r="B528" s="5"/>
       <c r="C528" s="2"/>
@@ -13693,7 +13729,7 @@
       <c r="V528" s="2"/>
       <c r="W528" s="2"/>
     </row>
-    <row r="529">
+    <row r="529" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A529" s="5"/>
       <c r="B529" s="5"/>
       <c r="C529" s="2"/>
@@ -13718,7 +13754,7 @@
       <c r="V529" s="2"/>
       <c r="W529" s="2"/>
     </row>
-    <row r="530">
+    <row r="530" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A530" s="5"/>
       <c r="B530" s="5"/>
       <c r="C530" s="2"/>
@@ -13743,7 +13779,7 @@
       <c r="V530" s="2"/>
       <c r="W530" s="2"/>
     </row>
-    <row r="531">
+    <row r="531" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A531" s="5"/>
       <c r="B531" s="5"/>
       <c r="C531" s="2"/>
@@ -13768,7 +13804,7 @@
       <c r="V531" s="2"/>
       <c r="W531" s="2"/>
     </row>
-    <row r="532">
+    <row r="532" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A532" s="5"/>
       <c r="B532" s="5"/>
       <c r="C532" s="2"/>
@@ -13793,7 +13829,7 @@
       <c r="V532" s="2"/>
       <c r="W532" s="2"/>
     </row>
-    <row r="533">
+    <row r="533" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A533" s="5"/>
       <c r="B533" s="5"/>
       <c r="C533" s="2"/>
@@ -13818,7 +13854,7 @@
       <c r="V533" s="2"/>
       <c r="W533" s="2"/>
     </row>
-    <row r="534">
+    <row r="534" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A534" s="5"/>
       <c r="B534" s="5"/>
       <c r="C534" s="2"/>
@@ -13843,7 +13879,7 @@
       <c r="V534" s="2"/>
       <c r="W534" s="2"/>
     </row>
-    <row r="535">
+    <row r="535" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A535" s="5"/>
       <c r="B535" s="5"/>
       <c r="C535" s="2"/>
@@ -13868,7 +13904,7 @@
       <c r="V535" s="2"/>
       <c r="W535" s="2"/>
     </row>
-    <row r="536">
+    <row r="536" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A536" s="5"/>
       <c r="B536" s="5"/>
       <c r="C536" s="2"/>
@@ -13893,7 +13929,7 @@
       <c r="V536" s="2"/>
       <c r="W536" s="2"/>
     </row>
-    <row r="537">
+    <row r="537" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A537" s="5"/>
       <c r="B537" s="5"/>
       <c r="C537" s="2"/>
@@ -13918,7 +13954,7 @@
       <c r="V537" s="2"/>
       <c r="W537" s="2"/>
     </row>
-    <row r="538">
+    <row r="538" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A538" s="5"/>
       <c r="B538" s="5"/>
       <c r="C538" s="2"/>
@@ -13943,7 +13979,7 @@
       <c r="V538" s="2"/>
       <c r="W538" s="2"/>
     </row>
-    <row r="539">
+    <row r="539" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A539" s="5"/>
       <c r="B539" s="5"/>
       <c r="C539" s="2"/>
@@ -13968,7 +14004,7 @@
       <c r="V539" s="2"/>
       <c r="W539" s="2"/>
     </row>
-    <row r="540">
+    <row r="540" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A540" s="5"/>
       <c r="B540" s="5"/>
       <c r="C540" s="2"/>
@@ -13993,7 +14029,7 @@
       <c r="V540" s="2"/>
       <c r="W540" s="2"/>
     </row>
-    <row r="541">
+    <row r="541" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A541" s="5"/>
       <c r="B541" s="5"/>
       <c r="C541" s="2"/>
@@ -14018,7 +14054,7 @@
       <c r="V541" s="2"/>
       <c r="W541" s="2"/>
     </row>
-    <row r="542">
+    <row r="542" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A542" s="5"/>
       <c r="B542" s="5"/>
       <c r="C542" s="2"/>
@@ -14043,7 +14079,7 @@
       <c r="V542" s="2"/>
       <c r="W542" s="2"/>
     </row>
-    <row r="543">
+    <row r="543" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A543" s="5"/>
       <c r="B543" s="5"/>
       <c r="C543" s="2"/>
@@ -14068,7 +14104,7 @@
       <c r="V543" s="2"/>
       <c r="W543" s="2"/>
     </row>
-    <row r="544">
+    <row r="544" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A544" s="5"/>
       <c r="B544" s="5"/>
       <c r="C544" s="2"/>
@@ -14093,7 +14129,7 @@
       <c r="V544" s="2"/>
       <c r="W544" s="2"/>
     </row>
-    <row r="545">
+    <row r="545" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A545" s="5"/>
       <c r="B545" s="5"/>
       <c r="C545" s="2"/>
@@ -14118,7 +14154,7 @@
       <c r="V545" s="2"/>
       <c r="W545" s="2"/>
     </row>
-    <row r="546">
+    <row r="546" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A546" s="5"/>
       <c r="B546" s="5"/>
       <c r="C546" s="2"/>
@@ -14143,7 +14179,7 @@
       <c r="V546" s="2"/>
       <c r="W546" s="2"/>
     </row>
-    <row r="547">
+    <row r="547" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A547" s="5"/>
       <c r="B547" s="5"/>
       <c r="C547" s="2"/>
@@ -14168,7 +14204,7 @@
       <c r="V547" s="2"/>
       <c r="W547" s="2"/>
     </row>
-    <row r="548">
+    <row r="548" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A548" s="5"/>
       <c r="B548" s="5"/>
       <c r="C548" s="2"/>
@@ -14193,7 +14229,7 @@
       <c r="V548" s="2"/>
       <c r="W548" s="2"/>
     </row>
-    <row r="549">
+    <row r="549" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A549" s="5"/>
       <c r="B549" s="5"/>
       <c r="C549" s="2"/>
@@ -14218,7 +14254,7 @@
       <c r="V549" s="2"/>
       <c r="W549" s="2"/>
     </row>
-    <row r="550">
+    <row r="550" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A550" s="5"/>
       <c r="B550" s="5"/>
       <c r="C550" s="2"/>
@@ -14243,7 +14279,7 @@
       <c r="V550" s="2"/>
       <c r="W550" s="2"/>
     </row>
-    <row r="551">
+    <row r="551" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A551" s="5"/>
       <c r="B551" s="5"/>
       <c r="C551" s="2"/>
@@ -14268,7 +14304,7 @@
       <c r="V551" s="2"/>
       <c r="W551" s="2"/>
     </row>
-    <row r="552">
+    <row r="552" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A552" s="5"/>
       <c r="B552" s="5"/>
       <c r="C552" s="2"/>
@@ -14293,7 +14329,7 @@
       <c r="V552" s="2"/>
       <c r="W552" s="2"/>
     </row>
-    <row r="553">
+    <row r="553" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A553" s="5"/>
       <c r="B553" s="5"/>
       <c r="C553" s="2"/>
@@ -14318,7 +14354,7 @@
       <c r="V553" s="2"/>
       <c r="W553" s="2"/>
     </row>
-    <row r="554">
+    <row r="554" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A554" s="5"/>
       <c r="B554" s="5"/>
       <c r="C554" s="2"/>
@@ -14343,7 +14379,7 @@
       <c r="V554" s="2"/>
       <c r="W554" s="2"/>
     </row>
-    <row r="555">
+    <row r="555" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A555" s="5"/>
       <c r="B555" s="5"/>
       <c r="C555" s="2"/>
@@ -14368,7 +14404,7 @@
       <c r="V555" s="2"/>
       <c r="W555" s="2"/>
     </row>
-    <row r="556">
+    <row r="556" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A556" s="5"/>
       <c r="B556" s="5"/>
       <c r="C556" s="2"/>
@@ -14393,7 +14429,7 @@
       <c r="V556" s="2"/>
       <c r="W556" s="2"/>
     </row>
-    <row r="557">
+    <row r="557" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A557" s="5"/>
       <c r="B557" s="5"/>
       <c r="C557" s="2"/>
@@ -14418,7 +14454,7 @@
       <c r="V557" s="2"/>
       <c r="W557" s="2"/>
     </row>
-    <row r="558">
+    <row r="558" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A558" s="5"/>
       <c r="B558" s="5"/>
       <c r="C558" s="2"/>
@@ -14443,7 +14479,7 @@
       <c r="V558" s="2"/>
       <c r="W558" s="2"/>
     </row>
-    <row r="559">
+    <row r="559" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A559" s="5"/>
       <c r="B559" s="5"/>
       <c r="C559" s="2"/>
@@ -14468,7 +14504,7 @@
       <c r="V559" s="2"/>
       <c r="W559" s="2"/>
     </row>
-    <row r="560">
+    <row r="560" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A560" s="5"/>
       <c r="B560" s="5"/>
       <c r="C560" s="2"/>
@@ -14493,7 +14529,7 @@
       <c r="V560" s="2"/>
       <c r="W560" s="2"/>
     </row>
-    <row r="561">
+    <row r="561" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A561" s="5"/>
       <c r="B561" s="5"/>
       <c r="C561" s="2"/>
@@ -14518,7 +14554,7 @@
       <c r="V561" s="2"/>
       <c r="W561" s="2"/>
     </row>
-    <row r="562">
+    <row r="562" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A562" s="5"/>
       <c r="B562" s="5"/>
       <c r="C562" s="2"/>
@@ -14543,7 +14579,7 @@
       <c r="V562" s="2"/>
       <c r="W562" s="2"/>
     </row>
-    <row r="563">
+    <row r="563" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A563" s="5"/>
       <c r="B563" s="5"/>
       <c r="C563" s="2"/>
@@ -14568,7 +14604,7 @@
       <c r="V563" s="2"/>
       <c r="W563" s="2"/>
     </row>
-    <row r="564">
+    <row r="564" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A564" s="5"/>
       <c r="B564" s="5"/>
       <c r="C564" s="2"/>
@@ -14593,7 +14629,7 @@
       <c r="V564" s="2"/>
       <c r="W564" s="2"/>
     </row>
-    <row r="565">
+    <row r="565" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A565" s="5"/>
       <c r="B565" s="5"/>
       <c r="C565" s="2"/>
@@ -14618,7 +14654,7 @@
       <c r="V565" s="2"/>
       <c r="W565" s="2"/>
     </row>
-    <row r="566">
+    <row r="566" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A566" s="5"/>
       <c r="B566" s="5"/>
       <c r="C566" s="2"/>
@@ -14643,7 +14679,7 @@
       <c r="V566" s="2"/>
       <c r="W566" s="2"/>
     </row>
-    <row r="567">
+    <row r="567" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A567" s="5"/>
       <c r="B567" s="5"/>
       <c r="C567" s="2"/>
@@ -14668,7 +14704,7 @@
       <c r="V567" s="2"/>
       <c r="W567" s="2"/>
     </row>
-    <row r="568">
+    <row r="568" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A568" s="5"/>
       <c r="B568" s="5"/>
       <c r="C568" s="2"/>
@@ -14693,7 +14729,7 @@
       <c r="V568" s="2"/>
       <c r="W568" s="2"/>
     </row>
-    <row r="569">
+    <row r="569" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A569" s="5"/>
       <c r="B569" s="5"/>
       <c r="C569" s="2"/>
@@ -14718,7 +14754,7 @@
       <c r="V569" s="2"/>
       <c r="W569" s="2"/>
     </row>
-    <row r="570">
+    <row r="570" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A570" s="5"/>
       <c r="B570" s="5"/>
       <c r="C570" s="2"/>
@@ -14743,7 +14779,7 @@
       <c r="V570" s="2"/>
       <c r="W570" s="2"/>
     </row>
-    <row r="571">
+    <row r="571" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A571" s="5"/>
       <c r="B571" s="5"/>
       <c r="C571" s="2"/>
@@ -14768,7 +14804,7 @@
       <c r="V571" s="2"/>
       <c r="W571" s="2"/>
     </row>
-    <row r="572">
+    <row r="572" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A572" s="5"/>
       <c r="B572" s="5"/>
       <c r="C572" s="2"/>
@@ -14793,7 +14829,7 @@
       <c r="V572" s="2"/>
       <c r="W572" s="2"/>
     </row>
-    <row r="573">
+    <row r="573" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A573" s="5"/>
       <c r="B573" s="5"/>
       <c r="C573" s="2"/>
@@ -14818,7 +14854,7 @@
       <c r="V573" s="2"/>
       <c r="W573" s="2"/>
     </row>
-    <row r="574">
+    <row r="574" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A574" s="5"/>
       <c r="B574" s="5"/>
       <c r="C574" s="2"/>
@@ -14843,7 +14879,7 @@
       <c r="V574" s="2"/>
       <c r="W574" s="2"/>
     </row>
-    <row r="575">
+    <row r="575" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A575" s="5"/>
       <c r="B575" s="5"/>
       <c r="C575" s="2"/>
@@ -14868,7 +14904,7 @@
       <c r="V575" s="2"/>
       <c r="W575" s="2"/>
     </row>
-    <row r="576">
+    <row r="576" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A576" s="5"/>
       <c r="B576" s="5"/>
       <c r="C576" s="2"/>
@@ -14893,7 +14929,7 @@
       <c r="V576" s="2"/>
       <c r="W576" s="2"/>
     </row>
-    <row r="577">
+    <row r="577" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A577" s="5"/>
       <c r="B577" s="5"/>
       <c r="C577" s="2"/>
@@ -14918,7 +14954,7 @@
       <c r="V577" s="2"/>
       <c r="W577" s="2"/>
     </row>
-    <row r="578">
+    <row r="578" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A578" s="5"/>
       <c r="B578" s="5"/>
       <c r="C578" s="2"/>
@@ -14943,7 +14979,7 @@
       <c r="V578" s="2"/>
       <c r="W578" s="2"/>
     </row>
-    <row r="579">
+    <row r="579" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A579" s="5"/>
       <c r="B579" s="5"/>
       <c r="C579" s="2"/>
@@ -14968,7 +15004,7 @@
       <c r="V579" s="2"/>
       <c r="W579" s="2"/>
     </row>
-    <row r="580">
+    <row r="580" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A580" s="5"/>
       <c r="B580" s="5"/>
       <c r="C580" s="2"/>
@@ -14993,7 +15029,7 @@
       <c r="V580" s="2"/>
       <c r="W580" s="2"/>
     </row>
-    <row r="581">
+    <row r="581" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A581" s="5"/>
       <c r="B581" s="5"/>
       <c r="C581" s="2"/>
@@ -15018,7 +15054,7 @@
       <c r="V581" s="2"/>
       <c r="W581" s="2"/>
     </row>
-    <row r="582">
+    <row r="582" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A582" s="5"/>
       <c r="B582" s="5"/>
       <c r="C582" s="2"/>
@@ -15043,7 +15079,7 @@
       <c r="V582" s="2"/>
       <c r="W582" s="2"/>
     </row>
-    <row r="583">
+    <row r="583" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A583" s="5"/>
       <c r="B583" s="5"/>
       <c r="C583" s="2"/>
@@ -15068,7 +15104,7 @@
       <c r="V583" s="2"/>
       <c r="W583" s="2"/>
     </row>
-    <row r="584">
+    <row r="584" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A584" s="5"/>
       <c r="B584" s="5"/>
       <c r="C584" s="2"/>
@@ -15093,7 +15129,7 @@
       <c r="V584" s="2"/>
       <c r="W584" s="2"/>
     </row>
-    <row r="585">
+    <row r="585" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A585" s="5"/>
       <c r="B585" s="5"/>
       <c r="C585" s="2"/>
@@ -15118,7 +15154,7 @@
       <c r="V585" s="2"/>
       <c r="W585" s="2"/>
     </row>
-    <row r="586">
+    <row r="586" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A586" s="5"/>
       <c r="B586" s="5"/>
       <c r="C586" s="2"/>
@@ -15143,7 +15179,7 @@
       <c r="V586" s="2"/>
       <c r="W586" s="2"/>
     </row>
-    <row r="587">
+    <row r="587" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A587" s="5"/>
       <c r="B587" s="5"/>
       <c r="C587" s="2"/>
@@ -15168,7 +15204,7 @@
       <c r="V587" s="2"/>
       <c r="W587" s="2"/>
     </row>
-    <row r="588">
+    <row r="588" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A588" s="5"/>
       <c r="B588" s="5"/>
       <c r="C588" s="2"/>
@@ -15193,7 +15229,7 @@
       <c r="V588" s="2"/>
       <c r="W588" s="2"/>
     </row>
-    <row r="589">
+    <row r="589" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A589" s="5"/>
       <c r="B589" s="5"/>
       <c r="C589" s="2"/>
@@ -15218,7 +15254,7 @@
       <c r="V589" s="2"/>
       <c r="W589" s="2"/>
     </row>
-    <row r="590">
+    <row r="590" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A590" s="5"/>
       <c r="B590" s="5"/>
       <c r="C590" s="2"/>
@@ -15243,7 +15279,7 @@
       <c r="V590" s="2"/>
       <c r="W590" s="2"/>
     </row>
-    <row r="591">
+    <row r="591" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A591" s="5"/>
       <c r="B591" s="5"/>
       <c r="C591" s="2"/>
@@ -15268,7 +15304,7 @@
       <c r="V591" s="2"/>
       <c r="W591" s="2"/>
     </row>
-    <row r="592">
+    <row r="592" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A592" s="5"/>
       <c r="B592" s="5"/>
       <c r="C592" s="2"/>
@@ -15293,7 +15329,7 @@
       <c r="V592" s="2"/>
       <c r="W592" s="2"/>
     </row>
-    <row r="593">
+    <row r="593" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A593" s="5"/>
       <c r="B593" s="5"/>
       <c r="C593" s="2"/>
@@ -15318,7 +15354,7 @@
       <c r="V593" s="2"/>
       <c r="W593" s="2"/>
     </row>
-    <row r="594">
+    <row r="594" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A594" s="5"/>
       <c r="B594" s="5"/>
       <c r="C594" s="2"/>
@@ -15343,7 +15379,7 @@
       <c r="V594" s="2"/>
       <c r="W594" s="2"/>
     </row>
-    <row r="595">
+    <row r="595" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A595" s="5"/>
       <c r="B595" s="5"/>
       <c r="C595" s="2"/>
@@ -15368,7 +15404,7 @@
       <c r="V595" s="2"/>
       <c r="W595" s="2"/>
     </row>
-    <row r="596">
+    <row r="596" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A596" s="5"/>
       <c r="B596" s="5"/>
       <c r="C596" s="2"/>
@@ -15393,7 +15429,7 @@
       <c r="V596" s="2"/>
       <c r="W596" s="2"/>
     </row>
-    <row r="597">
+    <row r="597" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A597" s="5"/>
       <c r="B597" s="5"/>
       <c r="C597" s="2"/>
@@ -15418,7 +15454,7 @@
       <c r="V597" s="2"/>
       <c r="W597" s="2"/>
     </row>
-    <row r="598">
+    <row r="598" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A598" s="5"/>
       <c r="B598" s="5"/>
       <c r="C598" s="2"/>
@@ -15443,7 +15479,7 @@
       <c r="V598" s="2"/>
       <c r="W598" s="2"/>
     </row>
-    <row r="599">
+    <row r="599" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A599" s="5"/>
       <c r="B599" s="5"/>
       <c r="C599" s="2"/>
@@ -15468,7 +15504,7 @@
       <c r="V599" s="2"/>
       <c r="W599" s="2"/>
     </row>
-    <row r="600">
+    <row r="600" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A600" s="5"/>
       <c r="B600" s="5"/>
       <c r="C600" s="2"/>
@@ -15493,7 +15529,7 @@
       <c r="V600" s="2"/>
       <c r="W600" s="2"/>
     </row>
-    <row r="601">
+    <row r="601" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A601" s="5"/>
       <c r="B601" s="5"/>
       <c r="C601" s="2"/>
@@ -15518,7 +15554,7 @@
       <c r="V601" s="2"/>
       <c r="W601" s="2"/>
     </row>
-    <row r="602">
+    <row r="602" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A602" s="5"/>
       <c r="B602" s="5"/>
       <c r="C602" s="2"/>
@@ -15543,7 +15579,7 @@
       <c r="V602" s="2"/>
       <c r="W602" s="2"/>
     </row>
-    <row r="603">
+    <row r="603" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A603" s="5"/>
       <c r="B603" s="5"/>
       <c r="C603" s="2"/>
@@ -15568,7 +15604,7 @@
       <c r="V603" s="2"/>
       <c r="W603" s="2"/>
     </row>
-    <row r="604">
+    <row r="604" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A604" s="5"/>
       <c r="B604" s="5"/>
       <c r="C604" s="2"/>
@@ -15593,7 +15629,7 @@
       <c r="V604" s="2"/>
       <c r="W604" s="2"/>
     </row>
-    <row r="605">
+    <row r="605" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A605" s="5"/>
       <c r="B605" s="5"/>
       <c r="C605" s="2"/>
@@ -15618,7 +15654,7 @@
       <c r="V605" s="2"/>
       <c r="W605" s="2"/>
     </row>
-    <row r="606">
+    <row r="606" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A606" s="5"/>
       <c r="B606" s="5"/>
       <c r="C606" s="2"/>
@@ -15643,7 +15679,7 @@
       <c r="V606" s="2"/>
       <c r="W606" s="2"/>
     </row>
-    <row r="607">
+    <row r="607" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A607" s="5"/>
       <c r="B607" s="5"/>
       <c r="C607" s="2"/>
@@ -15668,7 +15704,7 @@
       <c r="V607" s="2"/>
       <c r="W607" s="2"/>
     </row>
-    <row r="608">
+    <row r="608" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A608" s="5"/>
       <c r="B608" s="5"/>
       <c r="C608" s="2"/>
@@ -15693,7 +15729,7 @@
       <c r="V608" s="2"/>
       <c r="W608" s="2"/>
     </row>
-    <row r="609">
+    <row r="609" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A609" s="5"/>
       <c r="B609" s="5"/>
       <c r="C609" s="2"/>
@@ -15718,7 +15754,7 @@
       <c r="V609" s="2"/>
       <c r="W609" s="2"/>
     </row>
-    <row r="610">
+    <row r="610" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A610" s="5"/>
       <c r="B610" s="5"/>
       <c r="C610" s="2"/>
@@ -15743,7 +15779,7 @@
       <c r="V610" s="2"/>
       <c r="W610" s="2"/>
     </row>
-    <row r="611">
+    <row r="611" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A611" s="5"/>
       <c r="B611" s="5"/>
       <c r="C611" s="2"/>
@@ -15768,7 +15804,7 @@
       <c r="V611" s="2"/>
       <c r="W611" s="2"/>
     </row>
-    <row r="612">
+    <row r="612" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A612" s="5"/>
       <c r="B612" s="5"/>
       <c r="C612" s="2"/>
@@ -15793,7 +15829,7 @@
       <c r="V612" s="2"/>
       <c r="W612" s="2"/>
     </row>
-    <row r="613">
+    <row r="613" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A613" s="5"/>
       <c r="B613" s="5"/>
       <c r="C613" s="2"/>
@@ -15818,7 +15854,7 @@
       <c r="V613" s="2"/>
       <c r="W613" s="2"/>
     </row>
-    <row r="614">
+    <row r="614" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A614" s="5"/>
       <c r="B614" s="5"/>
       <c r="C614" s="2"/>
@@ -15843,7 +15879,7 @@
       <c r="V614" s="2"/>
       <c r="W614" s="2"/>
     </row>
-    <row r="615">
+    <row r="615" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A615" s="5"/>
       <c r="B615" s="5"/>
       <c r="C615" s="2"/>
@@ -15868,7 +15904,7 @@
       <c r="V615" s="2"/>
       <c r="W615" s="2"/>
     </row>
-    <row r="616">
+    <row r="616" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A616" s="5"/>
       <c r="B616" s="5"/>
       <c r="C616" s="2"/>
@@ -15893,7 +15929,7 @@
       <c r="V616" s="2"/>
       <c r="W616" s="2"/>
     </row>
-    <row r="617">
+    <row r="617" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A617" s="5"/>
       <c r="B617" s="5"/>
       <c r="C617" s="2"/>
@@ -15918,7 +15954,7 @@
       <c r="V617" s="2"/>
       <c r="W617" s="2"/>
     </row>
-    <row r="618">
+    <row r="618" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A618" s="5"/>
       <c r="B618" s="5"/>
       <c r="C618" s="2"/>
@@ -15943,7 +15979,7 @@
       <c r="V618" s="2"/>
       <c r="W618" s="2"/>
     </row>
-    <row r="619">
+    <row r="619" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A619" s="5"/>
       <c r="B619" s="5"/>
       <c r="C619" s="2"/>
@@ -15968,7 +16004,7 @@
       <c r="V619" s="2"/>
       <c r="W619" s="2"/>
     </row>
-    <row r="620">
+    <row r="620" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A620" s="5"/>
       <c r="B620" s="5"/>
       <c r="C620" s="2"/>
@@ -15993,7 +16029,7 @@
       <c r="V620" s="2"/>
       <c r="W620" s="2"/>
     </row>
-    <row r="621">
+    <row r="621" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A621" s="5"/>
       <c r="B621" s="5"/>
       <c r="C621" s="2"/>
@@ -16018,7 +16054,7 @@
       <c r="V621" s="2"/>
       <c r="W621" s="2"/>
     </row>
-    <row r="622">
+    <row r="622" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A622" s="5"/>
       <c r="B622" s="5"/>
       <c r="C622" s="2"/>
@@ -16043,7 +16079,7 @@
       <c r="V622" s="2"/>
       <c r="W622" s="2"/>
     </row>
-    <row r="623">
+    <row r="623" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A623" s="5"/>
       <c r="B623" s="5"/>
       <c r="C623" s="2"/>
@@ -16068,7 +16104,7 @@
       <c r="V623" s="2"/>
       <c r="W623" s="2"/>
     </row>
-    <row r="624">
+    <row r="624" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A624" s="5"/>
       <c r="B624" s="5"/>
       <c r="C624" s="2"/>
@@ -16093,7 +16129,7 @@
       <c r="V624" s="2"/>
       <c r="W624" s="2"/>
     </row>
-    <row r="625">
+    <row r="625" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A625" s="5"/>
       <c r="B625" s="5"/>
       <c r="C625" s="2"/>
@@ -16118,7 +16154,7 @@
       <c r="V625" s="2"/>
       <c r="W625" s="2"/>
     </row>
-    <row r="626">
+    <row r="626" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A626" s="5"/>
       <c r="B626" s="5"/>
       <c r="C626" s="2"/>
@@ -16143,7 +16179,7 @@
       <c r="V626" s="2"/>
       <c r="W626" s="2"/>
     </row>
-    <row r="627">
+    <row r="627" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A627" s="5"/>
       <c r="B627" s="5"/>
       <c r="C627" s="2"/>
@@ -16168,7 +16204,7 @@
       <c r="V627" s="2"/>
       <c r="W627" s="2"/>
     </row>
-    <row r="628">
+    <row r="628" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A628" s="5"/>
       <c r="B628" s="5"/>
       <c r="C628" s="2"/>
@@ -16193,7 +16229,7 @@
       <c r="V628" s="2"/>
       <c r="W628" s="2"/>
     </row>
-    <row r="629">
+    <row r="629" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A629" s="5"/>
       <c r="B629" s="5"/>
       <c r="C629" s="2"/>
@@ -16218,7 +16254,7 @@
       <c r="V629" s="2"/>
       <c r="W629" s="2"/>
     </row>
-    <row r="630">
+    <row r="630" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A630" s="5"/>
       <c r="B630" s="5"/>
       <c r="C630" s="2"/>
@@ -16243,7 +16279,7 @@
       <c r="V630" s="2"/>
       <c r="W630" s="2"/>
     </row>
-    <row r="631">
+    <row r="631" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A631" s="5"/>
       <c r="B631" s="5"/>
       <c r="C631" s="2"/>
@@ -16268,7 +16304,7 @@
       <c r="V631" s="2"/>
       <c r="W631" s="2"/>
     </row>
-    <row r="632">
+    <row r="632" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A632" s="5"/>
       <c r="B632" s="5"/>
       <c r="C632" s="2"/>
@@ -16293,7 +16329,7 @@
       <c r="V632" s="2"/>
       <c r="W632" s="2"/>
     </row>
-    <row r="633">
+    <row r="633" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A633" s="5"/>
       <c r="B633" s="5"/>
       <c r="C633" s="2"/>
@@ -16318,7 +16354,7 @@
       <c r="V633" s="2"/>
       <c r="W633" s="2"/>
     </row>
-    <row r="634">
+    <row r="634" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A634" s="5"/>
       <c r="B634" s="5"/>
       <c r="C634" s="2"/>
@@ -16343,7 +16379,7 @@
       <c r="V634" s="2"/>
       <c r="W634" s="2"/>
     </row>
-    <row r="635">
+    <row r="635" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A635" s="5"/>
       <c r="B635" s="5"/>
       <c r="C635" s="2"/>
@@ -16368,7 +16404,7 @@
       <c r="V635" s="2"/>
       <c r="W635" s="2"/>
     </row>
-    <row r="636">
+    <row r="636" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A636" s="5"/>
       <c r="B636" s="5"/>
       <c r="C636" s="2"/>
@@ -16393,7 +16429,7 @@
       <c r="V636" s="2"/>
       <c r="W636" s="2"/>
     </row>
-    <row r="637">
+    <row r="637" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A637" s="5"/>
       <c r="B637" s="5"/>
       <c r="C637" s="2"/>
@@ -16418,7 +16454,7 @@
       <c r="V637" s="2"/>
       <c r="W637" s="2"/>
     </row>
-    <row r="638">
+    <row r="638" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A638" s="5"/>
       <c r="B638" s="5"/>
       <c r="C638" s="2"/>
@@ -16443,7 +16479,7 @@
       <c r="V638" s="2"/>
       <c r="W638" s="2"/>
     </row>
-    <row r="639">
+    <row r="639" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A639" s="5"/>
       <c r="B639" s="5"/>
       <c r="C639" s="2"/>
@@ -16468,7 +16504,7 @@
       <c r="V639" s="2"/>
       <c r="W639" s="2"/>
     </row>
-    <row r="640">
+    <row r="640" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A640" s="5"/>
       <c r="B640" s="5"/>
       <c r="C640" s="2"/>
@@ -16493,7 +16529,7 @@
       <c r="V640" s="2"/>
       <c r="W640" s="2"/>
     </row>
-    <row r="641">
+    <row r="641" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A641" s="5"/>
       <c r="B641" s="5"/>
       <c r="C641" s="2"/>
@@ -16518,7 +16554,7 @@
       <c r="V641" s="2"/>
       <c r="W641" s="2"/>
     </row>
-    <row r="642">
+    <row r="642" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A642" s="5"/>
       <c r="B642" s="5"/>
       <c r="C642" s="2"/>
@@ -16543,7 +16579,7 @@
       <c r="V642" s="2"/>
       <c r="W642" s="2"/>
     </row>
-    <row r="643">
+    <row r="643" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A643" s="5"/>
       <c r="B643" s="5"/>
       <c r="C643" s="2"/>
@@ -16568,7 +16604,7 @@
       <c r="V643" s="2"/>
       <c r="W643" s="2"/>
     </row>
-    <row r="644">
+    <row r="644" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A644" s="5"/>
       <c r="B644" s="5"/>
       <c r="C644" s="2"/>
@@ -16593,7 +16629,7 @@
       <c r="V644" s="2"/>
       <c r="W644" s="2"/>
     </row>
-    <row r="645">
+    <row r="645" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A645" s="5"/>
       <c r="B645" s="5"/>
       <c r="C645" s="2"/>
@@ -16618,7 +16654,7 @@
       <c r="V645" s="2"/>
       <c r="W645" s="2"/>
     </row>
-    <row r="646">
+    <row r="646" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A646" s="5"/>
       <c r="B646" s="5"/>
       <c r="C646" s="2"/>
@@ -16643,7 +16679,7 @@
       <c r="V646" s="2"/>
       <c r="W646" s="2"/>
     </row>
-    <row r="647">
+    <row r="647" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A647" s="5"/>
       <c r="B647" s="5"/>
       <c r="C647" s="2"/>
@@ -16668,7 +16704,7 @@
       <c r="V647" s="2"/>
       <c r="W647" s="2"/>
     </row>
-    <row r="648">
+    <row r="648" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A648" s="5"/>
       <c r="B648" s="5"/>
       <c r="C648" s="2"/>
@@ -16693,7 +16729,7 @@
       <c r="V648" s="2"/>
       <c r="W648" s="2"/>
     </row>
-    <row r="649">
+    <row r="649" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A649" s="5"/>
       <c r="B649" s="5"/>
       <c r="C649" s="2"/>
@@ -16718,7 +16754,7 @@
       <c r="V649" s="2"/>
       <c r="W649" s="2"/>
     </row>
-    <row r="650">
+    <row r="650" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A650" s="5"/>
       <c r="B650" s="5"/>
       <c r="C650" s="2"/>
@@ -16743,7 +16779,7 @@
       <c r="V650" s="2"/>
       <c r="W650" s="2"/>
     </row>
-    <row r="651">
+    <row r="651" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A651" s="5"/>
       <c r="B651" s="5"/>
       <c r="C651" s="2"/>
@@ -16768,7 +16804,7 @@
       <c r="V651" s="2"/>
       <c r="W651" s="2"/>
     </row>
-    <row r="652">
+    <row r="652" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A652" s="5"/>
       <c r="B652" s="5"/>
       <c r="C652" s="2"/>
@@ -16793,7 +16829,7 @@
       <c r="V652" s="2"/>
       <c r="W652" s="2"/>
     </row>
-    <row r="653">
+    <row r="653" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A653" s="5"/>
       <c r="B653" s="5"/>
       <c r="C653" s="2"/>
@@ -16818,7 +16854,7 @@
       <c r="V653" s="2"/>
       <c r="W653" s="2"/>
     </row>
-    <row r="654">
+    <row r="654" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A654" s="5"/>
       <c r="B654" s="5"/>
       <c r="C654" s="2"/>
@@ -16843,7 +16879,7 @@
       <c r="V654" s="2"/>
       <c r="W654" s="2"/>
     </row>
-    <row r="655">
+    <row r="655" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A655" s="5"/>
       <c r="B655" s="5"/>
       <c r="C655" s="2"/>
@@ -16868,7 +16904,7 @@
       <c r="V655" s="2"/>
       <c r="W655" s="2"/>
     </row>
-    <row r="656">
+    <row r="656" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A656" s="5"/>
       <c r="B656" s="5"/>
       <c r="C656" s="2"/>
@@ -16893,7 +16929,7 @@
       <c r="V656" s="2"/>
       <c r="W656" s="2"/>
     </row>
-    <row r="657">
+    <row r="657" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A657" s="5"/>
       <c r="B657" s="5"/>
       <c r="C657" s="2"/>
@@ -16918,7 +16954,7 @@
       <c r="V657" s="2"/>
       <c r="W657" s="2"/>
     </row>
-    <row r="658">
+    <row r="658" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A658" s="5"/>
       <c r="B658" s="5"/>
       <c r="C658" s="2"/>
@@ -16943,7 +16979,7 @@
       <c r="V658" s="2"/>
       <c r="W658" s="2"/>
     </row>
-    <row r="659">
+    <row r="659" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A659" s="5"/>
       <c r="B659" s="5"/>
       <c r="C659" s="2"/>
@@ -16968,7 +17004,7 @@
       <c r="V659" s="2"/>
       <c r="W659" s="2"/>
     </row>
-    <row r="660">
+    <row r="660" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A660" s="5"/>
       <c r="B660" s="5"/>
       <c r="C660" s="2"/>
@@ -16993,7 +17029,7 @@
       <c r="V660" s="2"/>
       <c r="W660" s="2"/>
     </row>
-    <row r="661">
+    <row r="661" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A661" s="5"/>
       <c r="B661" s="5"/>
       <c r="C661" s="2"/>
@@ -17018,7 +17054,7 @@
       <c r="V661" s="2"/>
       <c r="W661" s="2"/>
     </row>
-    <row r="662">
+    <row r="662" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A662" s="5"/>
       <c r="B662" s="5"/>
       <c r="C662" s="2"/>
@@ -17043,7 +17079,7 @@
       <c r="V662" s="2"/>
       <c r="W662" s="2"/>
     </row>
-    <row r="663">
+    <row r="663" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A663" s="5"/>
       <c r="B663" s="5"/>
       <c r="C663" s="2"/>
@@ -17068,7 +17104,7 @@
       <c r="V663" s="2"/>
       <c r="W663" s="2"/>
     </row>
-    <row r="664">
+    <row r="664" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A664" s="5"/>
       <c r="B664" s="5"/>
       <c r="C664" s="2"/>
@@ -17093,7 +17129,7 @@
       <c r="V664" s="2"/>
       <c r="W664" s="2"/>
     </row>
-    <row r="665">
+    <row r="665" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A665" s="5"/>
       <c r="B665" s="5"/>
       <c r="C665" s="2"/>
@@ -17118,7 +17154,7 @@
       <c r="V665" s="2"/>
       <c r="W665" s="2"/>
     </row>
-    <row r="666">
+    <row r="666" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A666" s="5"/>
       <c r="B666" s="5"/>
       <c r="C666" s="2"/>
@@ -17143,7 +17179,7 @@
       <c r="V666" s="2"/>
       <c r="W666" s="2"/>
     </row>
-    <row r="667">
+    <row r="667" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A667" s="5"/>
       <c r="B667" s="5"/>
       <c r="C667" s="2"/>
@@ -17168,7 +17204,7 @@
       <c r="V667" s="2"/>
       <c r="W667" s="2"/>
     </row>
-    <row r="668">
+    <row r="668" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A668" s="5"/>
       <c r="B668" s="5"/>
       <c r="C668" s="2"/>
@@ -17193,7 +17229,7 @@
       <c r="V668" s="2"/>
       <c r="W668" s="2"/>
     </row>
-    <row r="669">
+    <row r="669" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A669" s="5"/>
       <c r="B669" s="5"/>
       <c r="C669" s="2"/>
@@ -17218,7 +17254,7 @@
       <c r="V669" s="2"/>
       <c r="W669" s="2"/>
     </row>
-    <row r="670">
+    <row r="670" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A670" s="5"/>
       <c r="B670" s="5"/>
       <c r="C670" s="2"/>
@@ -17243,7 +17279,7 @@
       <c r="V670" s="2"/>
       <c r="W670" s="2"/>
     </row>
-    <row r="671">
+    <row r="671" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A671" s="5"/>
       <c r="B671" s="5"/>
       <c r="C671" s="2"/>
@@ -17268,7 +17304,7 @@
       <c r="V671" s="2"/>
       <c r="W671" s="2"/>
     </row>
-    <row r="672">
+    <row r="672" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A672" s="5"/>
       <c r="B672" s="5"/>
       <c r="C672" s="2"/>
@@ -17293,7 +17329,7 @@
       <c r="V672" s="2"/>
       <c r="W672" s="2"/>
     </row>
-    <row r="673">
+    <row r="673" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A673" s="5"/>
       <c r="B673" s="5"/>
       <c r="C673" s="2"/>
@@ -17318,7 +17354,7 @@
       <c r="V673" s="2"/>
       <c r="W673" s="2"/>
     </row>
-    <row r="674">
+    <row r="674" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A674" s="5"/>
       <c r="B674" s="5"/>
       <c r="C674" s="2"/>
@@ -17343,7 +17379,7 @@
       <c r="V674" s="2"/>
       <c r="W674" s="2"/>
     </row>
-    <row r="675">
+    <row r="675" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A675" s="5"/>
       <c r="B675" s="5"/>
       <c r="C675" s="2"/>
@@ -17368,7 +17404,7 @@
       <c r="V675" s="2"/>
       <c r="W675" s="2"/>
     </row>
-    <row r="676">
+    <row r="676" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A676" s="5"/>
       <c r="B676" s="5"/>
       <c r="C676" s="2"/>
@@ -17393,7 +17429,7 @@
       <c r="V676" s="2"/>
       <c r="W676" s="2"/>
     </row>
-    <row r="677">
+    <row r="677" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A677" s="5"/>
       <c r="B677" s="5"/>
       <c r="C677" s="2"/>
@@ -17418,7 +17454,7 @@
       <c r="V677" s="2"/>
       <c r="W677" s="2"/>
     </row>
-    <row r="678">
+    <row r="678" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A678" s="5"/>
       <c r="B678" s="5"/>
       <c r="C678" s="2"/>
@@ -17443,7 +17479,7 @@
       <c r="V678" s="2"/>
       <c r="W678" s="2"/>
     </row>
-    <row r="679">
+    <row r="679" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A679" s="5"/>
       <c r="B679" s="5"/>
       <c r="C679" s="2"/>
@@ -17468,7 +17504,7 @@
       <c r="V679" s="2"/>
       <c r="W679" s="2"/>
     </row>
-    <row r="680">
+    <row r="680" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A680" s="5"/>
       <c r="B680" s="5"/>
       <c r="C680" s="2"/>
@@ -17493,7 +17529,7 @@
       <c r="V680" s="2"/>
       <c r="W680" s="2"/>
     </row>
-    <row r="681">
+    <row r="681" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A681" s="5"/>
       <c r="B681" s="5"/>
       <c r="C681" s="2"/>
@@ -17518,7 +17554,7 @@
       <c r="V681" s="2"/>
       <c r="W681" s="2"/>
     </row>
-    <row r="682">
+    <row r="682" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A682" s="5"/>
       <c r="B682" s="5"/>
       <c r="C682" s="2"/>
@@ -17543,7 +17579,7 @@
       <c r="V682" s="2"/>
       <c r="W682" s="2"/>
     </row>
-    <row r="683">
+    <row r="683" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A683" s="5"/>
       <c r="B683" s="5"/>
       <c r="C683" s="2"/>
@@ -17568,7 +17604,7 @@
       <c r="V683" s="2"/>
       <c r="W683" s="2"/>
     </row>
-    <row r="684">
+    <row r="684" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A684" s="5"/>
       <c r="B684" s="5"/>
       <c r="C684" s="2"/>
@@ -17593,7 +17629,7 @@
       <c r="V684" s="2"/>
       <c r="W684" s="2"/>
     </row>
-    <row r="685">
+    <row r="685" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A685" s="5"/>
       <c r="B685" s="5"/>
       <c r="C685" s="2"/>
@@ -17618,7 +17654,7 @@
       <c r="V685" s="2"/>
       <c r="W685" s="2"/>
     </row>
-    <row r="686">
+    <row r="686" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A686" s="5"/>
       <c r="B686" s="5"/>
       <c r="C686" s="2"/>
@@ -17643,7 +17679,7 @@
       <c r="V686" s="2"/>
       <c r="W686" s="2"/>
     </row>
-    <row r="687">
+    <row r="687" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A687" s="5"/>
       <c r="B687" s="5"/>
       <c r="C687" s="2"/>
@@ -17668,7 +17704,7 @@
       <c r="V687" s="2"/>
       <c r="W687" s="2"/>
     </row>
-    <row r="688">
+    <row r="688" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A688" s="5"/>
       <c r="B688" s="5"/>
       <c r="C688" s="2"/>
@@ -17693,7 +17729,7 @@
       <c r="V688" s="2"/>
       <c r="W688" s="2"/>
     </row>
-    <row r="689">
+    <row r="689" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A689" s="5"/>
       <c r="B689" s="5"/>
       <c r="C689" s="2"/>
@@ -17718,7 +17754,7 @@
       <c r="V689" s="2"/>
       <c r="W689" s="2"/>
     </row>
-    <row r="690">
+    <row r="690" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A690" s="5"/>
       <c r="B690" s="5"/>
       <c r="C690" s="2"/>
@@ -17743,7 +17779,7 @@
       <c r="V690" s="2"/>
       <c r="W690" s="2"/>
     </row>
-    <row r="691">
+    <row r="691" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A691" s="5"/>
       <c r="B691" s="5"/>
       <c r="C691" s="2"/>
@@ -17768,7 +17804,7 @@
       <c r="V691" s="2"/>
       <c r="W691" s="2"/>
     </row>
-    <row r="692">
+    <row r="692" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A692" s="5"/>
       <c r="B692" s="5"/>
       <c r="C692" s="2"/>
@@ -17793,7 +17829,7 @@
       <c r="V692" s="2"/>
       <c r="W692" s="2"/>
     </row>
-    <row r="693">
+    <row r="693" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A693" s="5"/>
       <c r="B693" s="5"/>
       <c r="C693" s="2"/>
@@ -17818,7 +17854,7 @@
       <c r="V693" s="2"/>
       <c r="W693" s="2"/>
     </row>
-    <row r="694">
+    <row r="694" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A694" s="5"/>
       <c r="B694" s="5"/>
       <c r="C694" s="2"/>
@@ -17843,7 +17879,7 @@
       <c r="V694" s="2"/>
       <c r="W694" s="2"/>
     </row>
-    <row r="695">
+    <row r="695" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A695" s="5"/>
       <c r="B695" s="5"/>
       <c r="C695" s="2"/>
@@ -17868,7 +17904,7 @@
       <c r="V695" s="2"/>
       <c r="W695" s="2"/>
     </row>
-    <row r="696">
+    <row r="696" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A696" s="5"/>
       <c r="B696" s="5"/>
       <c r="C696" s="2"/>
@@ -17893,7 +17929,7 @@
       <c r="V696" s="2"/>
       <c r="W696" s="2"/>
     </row>
-    <row r="697">
+    <row r="697" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A697" s="5"/>
       <c r="B697" s="5"/>
       <c r="C697" s="2"/>
@@ -17918,7 +17954,7 @@
       <c r="V697" s="2"/>
       <c r="W697" s="2"/>
     </row>
-    <row r="698">
+    <row r="698" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A698" s="5"/>
       <c r="B698" s="5"/>
       <c r="C698" s="2"/>
@@ -17943,7 +17979,7 @@
       <c r="V698" s="2"/>
       <c r="W698" s="2"/>
     </row>
-    <row r="699">
+    <row r="699" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A699" s="5"/>
       <c r="B699" s="5"/>
       <c r="C699" s="2"/>
@@ -17968,7 +18004,7 @@
       <c r="V699" s="2"/>
       <c r="W699" s="2"/>
     </row>
-    <row r="700">
+    <row r="700" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A700" s="5"/>
       <c r="B700" s="5"/>
       <c r="C700" s="2"/>
@@ -17993,7 +18029,7 @@
       <c r="V700" s="2"/>
       <c r="W700" s="2"/>
     </row>
-    <row r="701">
+    <row r="701" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A701" s="5"/>
       <c r="B701" s="5"/>
       <c r="C701" s="2"/>
@@ -18018,7 +18054,7 @@
       <c r="V701" s="2"/>
       <c r="W701" s="2"/>
     </row>
-    <row r="702">
+    <row r="702" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A702" s="5"/>
       <c r="B702" s="5"/>
       <c r="C702" s="2"/>
@@ -18043,7 +18079,7 @@
       <c r="V702" s="2"/>
       <c r="W702" s="2"/>
     </row>
-    <row r="703">
+    <row r="703" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A703" s="5"/>
       <c r="B703" s="5"/>
       <c r="C703" s="2"/>
@@ -18068,7 +18104,7 @@
       <c r="V703" s="2"/>
       <c r="W703" s="2"/>
     </row>
-    <row r="704">
+    <row r="704" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A704" s="5"/>
       <c r="B704" s="5"/>
       <c r="C704" s="2"/>
@@ -18093,7 +18129,7 @@
       <c r="V704" s="2"/>
       <c r="W704" s="2"/>
     </row>
-    <row r="705">
+    <row r="705" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A705" s="5"/>
       <c r="B705" s="5"/>
       <c r="C705" s="2"/>
@@ -18118,7 +18154,7 @@
       <c r="V705" s="2"/>
       <c r="W705" s="2"/>
     </row>
-    <row r="706">
+    <row r="706" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A706" s="5"/>
       <c r="B706" s="5"/>
       <c r="C706" s="2"/>
@@ -18143,7 +18179,7 @@
       <c r="V706" s="2"/>
       <c r="W706" s="2"/>
     </row>
-    <row r="707">
+    <row r="707" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A707" s="5"/>
       <c r="B707" s="5"/>
       <c r="C707" s="2"/>
@@ -18168,7 +18204,7 @@
       <c r="V707" s="2"/>
       <c r="W707" s="2"/>
     </row>
-    <row r="708">
+    <row r="708" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A708" s="5"/>
       <c r="B708" s="5"/>
       <c r="C708" s="2"/>
@@ -18193,7 +18229,7 @@
       <c r="V708" s="2"/>
       <c r="W708" s="2"/>
     </row>
-    <row r="709">
+    <row r="709" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A709" s="5"/>
       <c r="B709" s="5"/>
       <c r="C709" s="2"/>
@@ -18218,7 +18254,7 @@
       <c r="V709" s="2"/>
       <c r="W709" s="2"/>
     </row>
-    <row r="710">
+    <row r="710" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A710" s="5"/>
       <c r="B710" s="5"/>
       <c r="C710" s="2"/>
@@ -18243,7 +18279,7 @@
       <c r="V710" s="2"/>
       <c r="W710" s="2"/>
     </row>
-    <row r="711">
+    <row r="711" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A711" s="5"/>
       <c r="B711" s="5"/>
       <c r="C711" s="2"/>
@@ -18268,7 +18304,7 @@
       <c r="V711" s="2"/>
       <c r="W711" s="2"/>
     </row>
-    <row r="712">
+    <row r="712" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A712" s="5"/>
       <c r="B712" s="5"/>
       <c r="C712" s="2"/>
@@ -18293,7 +18329,7 @@
       <c r="V712" s="2"/>
       <c r="W712" s="2"/>
     </row>
-    <row r="713">
+    <row r="713" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A713" s="5"/>
       <c r="B713" s="5"/>
       <c r="C713" s="2"/>
@@ -18318,7 +18354,7 @@
       <c r="V713" s="2"/>
       <c r="W713" s="2"/>
     </row>
-    <row r="714">
+    <row r="714" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A714" s="5"/>
       <c r="B714" s="5"/>
       <c r="C714" s="2"/>
@@ -18343,7 +18379,7 @@
       <c r="V714" s="2"/>
       <c r="W714" s="2"/>
     </row>
-    <row r="715">
+    <row r="715" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A715" s="5"/>
       <c r="B715" s="5"/>
       <c r="C715" s="2"/>
@@ -18368,7 +18404,7 @@
       <c r="V715" s="2"/>
       <c r="W715" s="2"/>
     </row>
-    <row r="716">
+    <row r="716" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A716" s="5"/>
       <c r="B716" s="5"/>
       <c r="C716" s="2"/>
@@ -18393,7 +18429,7 @@
       <c r="V716" s="2"/>
       <c r="W716" s="2"/>
     </row>
-    <row r="717">
+    <row r="717" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A717" s="5"/>
       <c r="B717" s="5"/>
       <c r="C717" s="2"/>
@@ -18418,7 +18454,7 @@
       <c r="V717" s="2"/>
       <c r="W717" s="2"/>
     </row>
-    <row r="718">
+    <row r="718" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A718" s="5"/>
       <c r="B718" s="5"/>
       <c r="C718" s="2"/>
@@ -18443,7 +18479,7 @@
       <c r="V718" s="2"/>
       <c r="W718" s="2"/>
     </row>
-    <row r="719">
+    <row r="719" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A719" s="5"/>
       <c r="B719" s="5"/>
       <c r="C719" s="2"/>
@@ -18468,7 +18504,7 @@
       <c r="V719" s="2"/>
       <c r="W719" s="2"/>
     </row>
-    <row r="720">
+    <row r="720" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A720" s="5"/>
       <c r="B720" s="5"/>
       <c r="C720" s="2"/>
@@ -18493,7 +18529,7 @@
       <c r="V720" s="2"/>
       <c r="W720" s="2"/>
     </row>
-    <row r="721">
+    <row r="721" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A721" s="5"/>
       <c r="B721" s="5"/>
       <c r="C721" s="2"/>
@@ -18518,7 +18554,7 @@
       <c r="V721" s="2"/>
       <c r="W721" s="2"/>
     </row>
-    <row r="722">
+    <row r="722" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A722" s="5"/>
       <c r="B722" s="5"/>
       <c r="C722" s="2"/>
@@ -18543,7 +18579,7 @@
       <c r="V722" s="2"/>
       <c r="W722" s="2"/>
     </row>
-    <row r="723">
+    <row r="723" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A723" s="5"/>
       <c r="B723" s="5"/>
       <c r="C723" s="2"/>
@@ -18568,7 +18604,7 @@
       <c r="V723" s="2"/>
       <c r="W723" s="2"/>
     </row>
-    <row r="724">
+    <row r="724" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A724" s="5"/>
       <c r="B724" s="5"/>
       <c r="C724" s="2"/>
@@ -18593,7 +18629,7 @@
       <c r="V724" s="2"/>
       <c r="W724" s="2"/>
     </row>
-    <row r="725">
+    <row r="725" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A725" s="5"/>
       <c r="B725" s="5"/>
       <c r="C725" s="2"/>
@@ -18618,7 +18654,7 @@
       <c r="V725" s="2"/>
       <c r="W725" s="2"/>
     </row>
-    <row r="726">
+    <row r="726" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A726" s="5"/>
       <c r="B726" s="5"/>
       <c r="C726" s="2"/>
@@ -18643,7 +18679,7 @@
       <c r="V726" s="2"/>
       <c r="W726" s="2"/>
     </row>
-    <row r="727">
+    <row r="727" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A727" s="5"/>
       <c r="B727" s="5"/>
       <c r="C727" s="2"/>
@@ -18668,7 +18704,7 @@
       <c r="V727" s="2"/>
       <c r="W727" s="2"/>
     </row>
-    <row r="728">
+    <row r="728" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A728" s="5"/>
       <c r="B728" s="5"/>
       <c r="C728" s="2"/>
@@ -18693,7 +18729,7 @@
       <c r="V728" s="2"/>
       <c r="W728" s="2"/>
     </row>
-    <row r="729">
+    <row r="729" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A729" s="5"/>
       <c r="B729" s="5"/>
       <c r="C729" s="2"/>
@@ -18718,7 +18754,7 @@
       <c r="V729" s="2"/>
       <c r="W729" s="2"/>
     </row>
-    <row r="730">
+    <row r="730" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A730" s="5"/>
       <c r="B730" s="5"/>
       <c r="C730" s="2"/>
@@ -18743,7 +18779,7 @@
       <c r="V730" s="2"/>
       <c r="W730" s="2"/>
     </row>
-    <row r="731">
+    <row r="731" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A731" s="5"/>
       <c r="B731" s="5"/>
       <c r="C731" s="2"/>
@@ -18768,7 +18804,7 @@
       <c r="V731" s="2"/>
       <c r="W731" s="2"/>
     </row>
-    <row r="732">
+    <row r="732" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A732" s="5"/>
       <c r="B732" s="5"/>
       <c r="C732" s="2"/>
@@ -18793,7 +18829,7 @@
       <c r="V732" s="2"/>
       <c r="W732" s="2"/>
     </row>
-    <row r="733">
+    <row r="733" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A733" s="5"/>
       <c r="B733" s="5"/>
       <c r="C733" s="2"/>
@@ -18818,7 +18854,7 @@
       <c r="V733" s="2"/>
       <c r="W733" s="2"/>
     </row>
-    <row r="734">
+    <row r="734" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A734" s="5"/>
       <c r="B734" s="5"/>
       <c r="C734" s="2"/>
@@ -18843,7 +18879,7 @@
       <c r="V734" s="2"/>
       <c r="W734" s="2"/>
     </row>
-    <row r="735">
+    <row r="735" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A735" s="5"/>
       <c r="B735" s="5"/>
       <c r="C735" s="2"/>
@@ -18868,7 +18904,7 @@
       <c r="V735" s="2"/>
       <c r="W735" s="2"/>
     </row>
-    <row r="736">
+    <row r="736" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A736" s="5"/>
       <c r="B736" s="5"/>
       <c r="C736" s="2"/>
@@ -18893,7 +18929,7 @@
       <c r="V736" s="2"/>
       <c r="W736" s="2"/>
     </row>
-    <row r="737">
+    <row r="737" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A737" s="5"/>
       <c r="B737" s="5"/>
       <c r="C737" s="2"/>
@@ -18918,7 +18954,7 @@
       <c r="V737" s="2"/>
       <c r="W737" s="2"/>
     </row>
-    <row r="738">
+    <row r="738" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A738" s="5"/>
       <c r="B738" s="5"/>
       <c r="C738" s="2"/>
@@ -18943,7 +18979,7 @@
       <c r="V738" s="2"/>
       <c r="W738" s="2"/>
     </row>
-    <row r="739">
+    <row r="739" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A739" s="5"/>
       <c r="B739" s="5"/>
       <c r="C739" s="2"/>
@@ -18968,7 +19004,7 @@
       <c r="V739" s="2"/>
       <c r="W739" s="2"/>
     </row>
-    <row r="740">
+    <row r="740" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A740" s="5"/>
       <c r="B740" s="5"/>
       <c r="C740" s="2"/>
@@ -18993,7 +19029,7 @@
       <c r="V740" s="2"/>
       <c r="W740" s="2"/>
     </row>
-    <row r="741">
+    <row r="741" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A741" s="5"/>
       <c r="B741" s="5"/>
       <c r="C741" s="2"/>
@@ -19018,7 +19054,7 @@
       <c r="V741" s="2"/>
       <c r="W741" s="2"/>
     </row>
-    <row r="742">
+    <row r="742" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A742" s="5"/>
       <c r="B742" s="5"/>
       <c r="C742" s="2"/>
@@ -19043,7 +19079,7 @@
       <c r="V742" s="2"/>
       <c r="W742" s="2"/>
     </row>
-    <row r="743">
+    <row r="743" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A743" s="5"/>
       <c r="B743" s="5"/>
       <c r="C743" s="2"/>
@@ -19068,7 +19104,7 @@
       <c r="V743" s="2"/>
       <c r="W743" s="2"/>
     </row>
-    <row r="744">
+    <row r="744" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A744" s="5"/>
       <c r="B744" s="5"/>
       <c r="C744" s="2"/>
@@ -19093,7 +19129,7 @@
       <c r="V744" s="2"/>
       <c r="W744" s="2"/>
     </row>
-    <row r="745">
+    <row r="745" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A745" s="5"/>
       <c r="B745" s="5"/>
       <c r="C745" s="2"/>
@@ -19118,7 +19154,7 @@
       <c r="V745" s="2"/>
       <c r="W745" s="2"/>
     </row>
-    <row r="746">
+    <row r="746" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A746" s="5"/>
       <c r="B746" s="5"/>
       <c r="C746" s="2"/>
@@ -19143,7 +19179,7 @@
       <c r="V746" s="2"/>
       <c r="W746" s="2"/>
     </row>
-    <row r="747">
+    <row r="747" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A747" s="5"/>
       <c r="B747" s="5"/>
       <c r="C747" s="2"/>
@@ -19168,7 +19204,7 @@
       <c r="V747" s="2"/>
       <c r="W747" s="2"/>
     </row>
-    <row r="748">
+    <row r="748" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A748" s="5"/>
       <c r="B748" s="5"/>
       <c r="C748" s="2"/>
@@ -19193,7 +19229,7 @@
       <c r="V748" s="2"/>
       <c r="W748" s="2"/>
     </row>
-    <row r="749">
+    <row r="749" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A749" s="5"/>
       <c r="B749" s="5"/>
       <c r="C749" s="2"/>
@@ -19218,7 +19254,7 @@
       <c r="V749" s="2"/>
       <c r="W749" s="2"/>
     </row>
-    <row r="750">
+    <row r="750" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A750" s="5"/>
       <c r="B750" s="5"/>
       <c r="C750" s="2"/>
@@ -19243,7 +19279,7 @@
       <c r="V750" s="2"/>
       <c r="W750" s="2"/>
     </row>
-    <row r="751">
+    <row r="751" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A751" s="5"/>
       <c r="B751" s="5"/>
       <c r="C751" s="2"/>
@@ -19268,7 +19304,7 @@
       <c r="V751" s="2"/>
       <c r="W751" s="2"/>
     </row>
-    <row r="752">
+    <row r="752" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A752" s="5"/>
       <c r="B752" s="5"/>
       <c r="C752" s="2"/>
@@ -19293,7 +19329,7 @@
       <c r="V752" s="2"/>
       <c r="W752" s="2"/>
     </row>
-    <row r="753">
+    <row r="753" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A753" s="5"/>
       <c r="B753" s="5"/>
       <c r="C753" s="2"/>
@@ -19318,7 +19354,7 @@
       <c r="V753" s="2"/>
       <c r="W753" s="2"/>
     </row>
-    <row r="754">
+    <row r="754" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A754" s="5"/>
       <c r="B754" s="5"/>
       <c r="C754" s="2"/>
@@ -19343,7 +19379,7 @@
       <c r="V754" s="2"/>
       <c r="W754" s="2"/>
     </row>
-    <row r="755">
+    <row r="755" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A755" s="5"/>
       <c r="B755" s="5"/>
       <c r="C755" s="2"/>
@@ -19368,7 +19404,7 @@
       <c r="V755" s="2"/>
       <c r="W755" s="2"/>
     </row>
-    <row r="756">
+    <row r="756" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A756" s="5"/>
       <c r="B756" s="5"/>
       <c r="C756" s="2"/>
@@ -19393,7 +19429,7 @@
       <c r="V756" s="2"/>
       <c r="W756" s="2"/>
     </row>
-    <row r="757">
+    <row r="757" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A757" s="5"/>
       <c r="B757" s="5"/>
       <c r="C757" s="2"/>
@@ -19418,7 +19454,7 @@
       <c r="V757" s="2"/>
       <c r="W757" s="2"/>
     </row>
-    <row r="758">
+    <row r="758" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A758" s="5"/>
       <c r="B758" s="5"/>
       <c r="C758" s="2"/>
@@ -19443,7 +19479,7 @@
       <c r="V758" s="2"/>
       <c r="W758" s="2"/>
     </row>
-    <row r="759">
+    <row r="759" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A759" s="5"/>
       <c r="B759" s="5"/>
       <c r="C759" s="2"/>
@@ -19468,7 +19504,7 @@
       <c r="V759" s="2"/>
       <c r="W759" s="2"/>
     </row>
-    <row r="760">
+    <row r="760" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A760" s="5"/>
       <c r="B760" s="5"/>
       <c r="C760" s="2"/>
@@ -19493,7 +19529,7 @@
       <c r="V760" s="2"/>
       <c r="W760" s="2"/>
     </row>
-    <row r="761">
+    <row r="761" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A761" s="5"/>
       <c r="B761" s="5"/>
       <c r="C761" s="2"/>
@@ -19518,7 +19554,7 @@
       <c r="V761" s="2"/>
       <c r="W761" s="2"/>
     </row>
-    <row r="762">
+    <row r="762" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A762" s="5"/>
       <c r="B762" s="5"/>
       <c r="C762" s="2"/>
@@ -19543,7 +19579,7 @@
       <c r="V762" s="2"/>
       <c r="W762" s="2"/>
     </row>
-    <row r="763">
+    <row r="763" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A763" s="5"/>
       <c r="B763" s="5"/>
       <c r="C763" s="2"/>
@@ -19568,7 +19604,7 @@
       <c r="V763" s="2"/>
       <c r="W763" s="2"/>
     </row>
-    <row r="764">
+    <row r="764" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A764" s="5"/>
       <c r="B764" s="5"/>
       <c r="C764" s="2"/>
@@ -19593,7 +19629,7 @@
       <c r="V764" s="2"/>
       <c r="W764" s="2"/>
     </row>
-    <row r="765">
+    <row r="765" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A765" s="5"/>
       <c r="B765" s="5"/>
       <c r="C765" s="2"/>
@@ -19618,7 +19654,7 @@
       <c r="V765" s="2"/>
       <c r="W765" s="2"/>
     </row>
-    <row r="766">
+    <row r="766" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A766" s="5"/>
       <c r="B766" s="5"/>
       <c r="C766" s="2"/>
@@ -19643,7 +19679,7 @@
       <c r="V766" s="2"/>
       <c r="W766" s="2"/>
     </row>
-    <row r="767">
+    <row r="767" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A767" s="5"/>
       <c r="B767" s="5"/>
       <c r="C767" s="2"/>
@@ -19668,7 +19704,7 @@
       <c r="V767" s="2"/>
       <c r="W767" s="2"/>
     </row>
-    <row r="768">
+    <row r="768" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A768" s="5"/>
       <c r="B768" s="5"/>
       <c r="C768" s="2"/>
@@ -19693,7 +19729,7 @@
       <c r="V768" s="2"/>
       <c r="W768" s="2"/>
     </row>
-    <row r="769">
+    <row r="769" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A769" s="5"/>
       <c r="B769" s="5"/>
       <c r="C769" s="2"/>
@@ -19718,7 +19754,7 @@
       <c r="V769" s="2"/>
       <c r="W769" s="2"/>
     </row>
-    <row r="770">
+    <row r="770" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A770" s="5"/>
       <c r="B770" s="5"/>
       <c r="C770" s="2"/>
@@ -19743,7 +19779,7 @@
       <c r="V770" s="2"/>
       <c r="W770" s="2"/>
     </row>
-    <row r="771">
+    <row r="771" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A771" s="5"/>
       <c r="B771" s="5"/>
       <c r="C771" s="2"/>
@@ -19768,7 +19804,7 @@
       <c r="V771" s="2"/>
       <c r="W771" s="2"/>
     </row>
-    <row r="772">
+    <row r="772" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A772" s="5"/>
       <c r="B772" s="5"/>
       <c r="C772" s="2"/>
@@ -19793,7 +19829,7 @@
       <c r="V772" s="2"/>
       <c r="W772" s="2"/>
     </row>
-    <row r="773">
+    <row r="773" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A773" s="5"/>
       <c r="B773" s="5"/>
       <c r="C773" s="2"/>
@@ -19818,7 +19854,7 @@
       <c r="V773" s="2"/>
       <c r="W773" s="2"/>
     </row>
-    <row r="774">
+    <row r="774" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A774" s="5"/>
       <c r="B774" s="5"/>
       <c r="C774" s="2"/>
@@ -19843,7 +19879,7 @@
       <c r="V774" s="2"/>
       <c r="W774" s="2"/>
     </row>
-    <row r="775">
+    <row r="775" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A775" s="5"/>
       <c r="B775" s="5"/>
       <c r="C775" s="2"/>
@@ -19868,7 +19904,7 @@
       <c r="V775" s="2"/>
       <c r="W775" s="2"/>
     </row>
-    <row r="776">
+    <row r="776" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A776" s="5"/>
       <c r="B776" s="5"/>
       <c r="C776" s="2"/>
@@ -19893,7 +19929,7 @@
       <c r="V776" s="2"/>
       <c r="W776" s="2"/>
     </row>
-    <row r="777">
+    <row r="777" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A777" s="5"/>
       <c r="B777" s="5"/>
       <c r="C777" s="2"/>
@@ -19918,7 +19954,7 @@
       <c r="V777" s="2"/>
       <c r="W777" s="2"/>
     </row>
-    <row r="778">
+    <row r="778" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A778" s="5"/>
       <c r="B778" s="5"/>
       <c r="C778" s="2"/>
@@ -19943,7 +19979,7 @@
       <c r="V778" s="2"/>
       <c r="W778" s="2"/>
     </row>
-    <row r="779">
+    <row r="779" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A779" s="5"/>
       <c r="B779" s="5"/>
       <c r="C779" s="2"/>
@@ -19968,7 +20004,7 @@
       <c r="V779" s="2"/>
       <c r="W779" s="2"/>
     </row>
-    <row r="780">
+    <row r="780" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A780" s="5"/>
       <c r="B780" s="5"/>
       <c r="C780" s="2"/>
@@ -19993,7 +20029,7 @@
       <c r="V780" s="2"/>
       <c r="W780" s="2"/>
     </row>
-    <row r="781">
+    <row r="781" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A781" s="5"/>
       <c r="B781" s="5"/>
       <c r="C781" s="2"/>
@@ -20018,7 +20054,7 @@
       <c r="V781" s="2"/>
       <c r="W781" s="2"/>
     </row>
-    <row r="782">
+    <row r="782" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A782" s="5"/>
       <c r="B782" s="5"/>
       <c r="C782" s="2"/>
@@ -20043,7 +20079,7 @@
       <c r="V782" s="2"/>
       <c r="W782" s="2"/>
     </row>
-    <row r="783">
+    <row r="783" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A783" s="5"/>
       <c r="B783" s="5"/>
       <c r="C783" s="2"/>
@@ -20068,7 +20104,7 @@
       <c r="V783" s="2"/>
       <c r="W783" s="2"/>
     </row>
-    <row r="784">
+    <row r="784" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A784" s="5"/>
       <c r="B784" s="5"/>
       <c r="C784" s="2"/>
@@ -20093,7 +20129,7 @@
       <c r="V784" s="2"/>
       <c r="W784" s="2"/>
     </row>
-    <row r="785">
+    <row r="785" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A785" s="5"/>
       <c r="B785" s="5"/>
       <c r="C785" s="2"/>
@@ -20118,7 +20154,7 @@
       <c r="V785" s="2"/>
       <c r="W785" s="2"/>
     </row>
-    <row r="786">
+    <row r="786" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A786" s="5"/>
       <c r="B786" s="5"/>
       <c r="C786" s="2"/>
@@ -20143,7 +20179,7 @@
       <c r="V786" s="2"/>
       <c r="W786" s="2"/>
     </row>
-    <row r="787">
+    <row r="787" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A787" s="5"/>
       <c r="B787" s="5"/>
       <c r="C787" s="2"/>
@@ -20168,7 +20204,7 @@
       <c r="V787" s="2"/>
       <c r="W787" s="2"/>
     </row>
-    <row r="788">
+    <row r="788" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A788" s="5"/>
       <c r="B788" s="5"/>
       <c r="C788" s="2"/>
@@ -20193,7 +20229,7 @@
       <c r="V788" s="2"/>
       <c r="W788" s="2"/>
     </row>
-    <row r="789">
+    <row r="789" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A789" s="5"/>
       <c r="B789" s="5"/>
       <c r="C789" s="2"/>
@@ -20218,7 +20254,7 @@
       <c r="V789" s="2"/>
       <c r="W789" s="2"/>
     </row>
-    <row r="790">
+    <row r="790" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A790" s="5"/>
       <c r="B790" s="5"/>
       <c r="C790" s="2"/>
@@ -20243,7 +20279,7 @@
       <c r="V790" s="2"/>
       <c r="W790" s="2"/>
     </row>
-    <row r="791">
+    <row r="791" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A791" s="5"/>
       <c r="B791" s="5"/>
       <c r="C791" s="2"/>
@@ -20268,7 +20304,7 @@
       <c r="V791" s="2"/>
       <c r="W791" s="2"/>
     </row>
-    <row r="792">
+    <row r="792" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A792" s="5"/>
       <c r="B792" s="5"/>
       <c r="C792" s="2"/>
@@ -20293,7 +20329,7 @@
       <c r="V792" s="2"/>
       <c r="W792" s="2"/>
     </row>
-    <row r="793">
+    <row r="793" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A793" s="5"/>
       <c r="B793" s="5"/>
       <c r="C793" s="2"/>
@@ -20318,7 +20354,7 @@
       <c r="V793" s="2"/>
       <c r="W793" s="2"/>
     </row>
-    <row r="794">
+    <row r="794" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A794" s="5"/>
       <c r="B794" s="5"/>
       <c r="C794" s="2"/>
@@ -20343,7 +20379,7 @@
       <c r="V794" s="2"/>
       <c r="W794" s="2"/>
     </row>
-    <row r="795">
+    <row r="795" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A795" s="5"/>
       <c r="B795" s="5"/>
       <c r="C795" s="2"/>
@@ -20368,7 +20404,7 @@
       <c r="V795" s="2"/>
       <c r="W795" s="2"/>
     </row>
-    <row r="796">
+    <row r="796" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A796" s="5"/>
       <c r="B796" s="5"/>
       <c r="C796" s="2"/>
@@ -20393,7 +20429,7 @@
       <c r="V796" s="2"/>
       <c r="W796" s="2"/>
     </row>
-    <row r="797">
+    <row r="797" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A797" s="5"/>
       <c r="B797" s="5"/>
       <c r="C797" s="2"/>
@@ -20418,7 +20454,7 @@
       <c r="V797" s="2"/>
       <c r="W797" s="2"/>
     </row>
-    <row r="798">
+    <row r="798" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A798" s="5"/>
       <c r="B798" s="5"/>
       <c r="C798" s="2"/>
@@ -20443,7 +20479,7 @@
       <c r="V798" s="2"/>
       <c r="W798" s="2"/>
     </row>
-    <row r="799">
+    <row r="799" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A799" s="5"/>
       <c r="B799" s="5"/>
       <c r="C799" s="2"/>
@@ -20468,7 +20504,7 @@
       <c r="V799" s="2"/>
       <c r="W799" s="2"/>
     </row>
-    <row r="800">
+    <row r="800" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A800" s="5"/>
       <c r="B800" s="5"/>
       <c r="C800" s="2"/>
@@ -20493,7 +20529,7 @@
       <c r="V800" s="2"/>
       <c r="W800" s="2"/>
     </row>
-    <row r="801">
+    <row r="801" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A801" s="5"/>
       <c r="B801" s="5"/>
       <c r="C801" s="2"/>
@@ -20518,7 +20554,7 @@
       <c r="V801" s="2"/>
       <c r="W801" s="2"/>
     </row>
-    <row r="802">
+    <row r="802" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A802" s="5"/>
       <c r="B802" s="5"/>
       <c r="C802" s="2"/>
@@ -20543,7 +20579,7 @@
       <c r="V802" s="2"/>
       <c r="W802" s="2"/>
     </row>
-    <row r="803">
+    <row r="803" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A803" s="5"/>
       <c r="B803" s="5"/>
       <c r="C803" s="2"/>
@@ -20568,7 +20604,7 @@
       <c r="V803" s="2"/>
       <c r="W803" s="2"/>
     </row>
-    <row r="804">
+    <row r="804" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A804" s="5"/>
       <c r="B804" s="5"/>
       <c r="C804" s="2"/>
@@ -20593,7 +20629,7 @@
       <c r="V804" s="2"/>
       <c r="W804" s="2"/>
     </row>
-    <row r="805">
+    <row r="805" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A805" s="5"/>
       <c r="B805" s="5"/>
       <c r="C805" s="2"/>
@@ -20618,7 +20654,7 @@
       <c r="V805" s="2"/>
       <c r="W805" s="2"/>
     </row>
-    <row r="806">
+    <row r="806" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A806" s="5"/>
       <c r="B806" s="5"/>
       <c r="C806" s="2"/>
@@ -20643,7 +20679,7 @@
       <c r="V806" s="2"/>
       <c r="W806" s="2"/>
     </row>
-    <row r="807">
+    <row r="807" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A807" s="5"/>
       <c r="B807" s="5"/>
       <c r="C807" s="2"/>
@@ -20668,7 +20704,7 @@
       <c r="V807" s="2"/>
       <c r="W807" s="2"/>
     </row>
-    <row r="808">
+    <row r="808" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A808" s="5"/>
       <c r="B808" s="5"/>
       <c r="C808" s="2"/>
@@ -20693,7 +20729,7 @@
       <c r="V808" s="2"/>
       <c r="W808" s="2"/>
     </row>
-    <row r="809">
+    <row r="809" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A809" s="5"/>
       <c r="B809" s="5"/>
       <c r="C809" s="2"/>
@@ -20718,7 +20754,7 @@
       <c r="V809" s="2"/>
       <c r="W809" s="2"/>
     </row>
-    <row r="810">
+    <row r="810" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A810" s="5"/>
       <c r="B810" s="5"/>
       <c r="C810" s="2"/>
@@ -20743,7 +20779,7 @@
       <c r="V810" s="2"/>
       <c r="W810" s="2"/>
     </row>
-    <row r="811">
+    <row r="811" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A811" s="5"/>
       <c r="B811" s="5"/>
       <c r="C811" s="2"/>
@@ -20768,7 +20804,7 @@
       <c r="V811" s="2"/>
       <c r="W811" s="2"/>
     </row>
-    <row r="812">
+    <row r="812" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A812" s="5"/>
       <c r="B812" s="5"/>
       <c r="C812" s="2"/>
@@ -20793,7 +20829,7 @@
       <c r="V812" s="2"/>
       <c r="W812" s="2"/>
     </row>
-    <row r="813">
+    <row r="813" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A813" s="5"/>
       <c r="B813" s="5"/>
       <c r="C813" s="2"/>
@@ -20818,7 +20854,7 @@
       <c r="V813" s="2"/>
       <c r="W813" s="2"/>
     </row>
-    <row r="814">
+    <row r="814" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A814" s="5"/>
       <c r="B814" s="5"/>
       <c r="C814" s="2"/>
@@ -20843,7 +20879,7 @@
       <c r="V814" s="2"/>
       <c r="W814" s="2"/>
     </row>
-    <row r="815">
+    <row r="815" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A815" s="5"/>
       <c r="B815" s="5"/>
       <c r="C815" s="2"/>
@@ -20868,7 +20904,7 @@
       <c r="V815" s="2"/>
       <c r="W815" s="2"/>
     </row>
-    <row r="816">
+    <row r="816" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A816" s="5"/>
       <c r="B816" s="5"/>
       <c r="C816" s="2"/>
@@ -20893,7 +20929,7 @@
       <c r="V816" s="2"/>
       <c r="W816" s="2"/>
     </row>
-    <row r="817">
+    <row r="817" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A817" s="5"/>
       <c r="B817" s="5"/>
       <c r="C817" s="2"/>
@@ -20918,7 +20954,7 @@
       <c r="V817" s="2"/>
       <c r="W817" s="2"/>
     </row>
-    <row r="818">
+    <row r="818" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A818" s="5"/>
       <c r="B818" s="5"/>
       <c r="C818" s="2"/>
@@ -20943,7 +20979,7 @@
       <c r="V818" s="2"/>
       <c r="W818" s="2"/>
     </row>
-    <row r="819">
+    <row r="819" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A819" s="5"/>
       <c r="B819" s="5"/>
       <c r="C819" s="2"/>
@@ -20968,7 +21004,7 @@
       <c r="V819" s="2"/>
       <c r="W819" s="2"/>
     </row>
-    <row r="820">
+    <row r="820" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A820" s="5"/>
       <c r="B820" s="5"/>
       <c r="C820" s="2"/>
@@ -20993,7 +21029,7 @@
       <c r="V820" s="2"/>
       <c r="W820" s="2"/>
     </row>
-    <row r="821">
+    <row r="821" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A821" s="5"/>
       <c r="B821" s="5"/>
       <c r="C821" s="2"/>
@@ -21018,7 +21054,7 @@
       <c r="V821" s="2"/>
       <c r="W821" s="2"/>
     </row>
-    <row r="822">
+    <row r="822" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A822" s="5"/>
       <c r="B822" s="5"/>
       <c r="C822" s="2"/>
@@ -21043,7 +21079,7 @@
       <c r="V822" s="2"/>
       <c r="W822" s="2"/>
     </row>
-    <row r="823">
+    <row r="823" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A823" s="5"/>
       <c r="B823" s="5"/>
       <c r="C823" s="2"/>
@@ -21068,7 +21104,7 @@
       <c r="V823" s="2"/>
       <c r="W823" s="2"/>
     </row>
-    <row r="824">
+    <row r="824" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A824" s="5"/>
       <c r="B824" s="5"/>
       <c r="C824" s="2"/>
@@ -21093,7 +21129,7 @@
       <c r="V824" s="2"/>
       <c r="W824" s="2"/>
     </row>
-    <row r="825">
+    <row r="825" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A825" s="5"/>
       <c r="B825" s="5"/>
       <c r="C825" s="2"/>
@@ -21118,7 +21154,7 @@
       <c r="V825" s="2"/>
       <c r="W825" s="2"/>
     </row>
-    <row r="826">
+    <row r="826" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A826" s="5"/>
       <c r="B826" s="5"/>
       <c r="C826" s="2"/>
@@ -21143,7 +21179,7 @@
       <c r="V826" s="2"/>
       <c r="W826" s="2"/>
     </row>
-    <row r="827">
+    <row r="827" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A827" s="5"/>
       <c r="B827" s="5"/>
       <c r="C827" s="2"/>
@@ -21168,7 +21204,7 @@
       <c r="V827" s="2"/>
       <c r="W827" s="2"/>
     </row>
-    <row r="828">
+    <row r="828" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A828" s="5"/>
       <c r="B828" s="5"/>
       <c r="C828" s="2"/>
@@ -21193,7 +21229,7 @@
       <c r="V828" s="2"/>
       <c r="W828" s="2"/>
     </row>
-    <row r="829">
+    <row r="829" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A829" s="5"/>
       <c r="B829" s="5"/>
       <c r="C829" s="2"/>
@@ -21218,7 +21254,7 @@
       <c r="V829" s="2"/>
       <c r="W829" s="2"/>
     </row>
-    <row r="830">
+    <row r="830" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A830" s="5"/>
       <c r="B830" s="5"/>
       <c r="C830" s="2"/>
@@ -21243,7 +21279,7 @@
       <c r="V830" s="2"/>
       <c r="W830" s="2"/>
     </row>
-    <row r="831">
+    <row r="831" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A831" s="5"/>
       <c r="B831" s="5"/>
       <c r="C831" s="2"/>
@@ -21268,7 +21304,7 @@
       <c r="V831" s="2"/>
       <c r="W831" s="2"/>
     </row>
-    <row r="832">
+    <row r="832" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A832" s="5"/>
       <c r="B832" s="5"/>
       <c r="C832" s="2"/>
@@ -21293,7 +21329,7 @@
       <c r="V832" s="2"/>
       <c r="W832" s="2"/>
     </row>
-    <row r="833">
+    <row r="833" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A833" s="5"/>
       <c r="B833" s="5"/>
       <c r="C833" s="2"/>
@@ -21318,7 +21354,7 @@
       <c r="V833" s="2"/>
       <c r="W833" s="2"/>
     </row>
-    <row r="834">
+    <row r="834" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A834" s="5"/>
       <c r="B834" s="5"/>
       <c r="C834" s="2"/>
@@ -21343,7 +21379,7 @@
       <c r="V834" s="2"/>
       <c r="W834" s="2"/>
     </row>
-    <row r="835">
+    <row r="835" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A835" s="5"/>
       <c r="B835" s="5"/>
       <c r="C835" s="2"/>
@@ -21368,7 +21404,7 @@
       <c r="V835" s="2"/>
       <c r="W835" s="2"/>
     </row>
-    <row r="836">
+    <row r="836" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A836" s="5"/>
       <c r="B836" s="5"/>
       <c r="C836" s="2"/>
@@ -21393,7 +21429,7 @@
       <c r="V836" s="2"/>
       <c r="W836" s="2"/>
     </row>
-    <row r="837">
+    <row r="837" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A837" s="5"/>
       <c r="B837" s="5"/>
       <c r="C837" s="2"/>
@@ -21418,7 +21454,7 @@
       <c r="V837" s="2"/>
       <c r="W837" s="2"/>
     </row>
-    <row r="838">
+    <row r="838" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A838" s="5"/>
       <c r="B838" s="5"/>
       <c r="C838" s="2"/>
@@ -21443,7 +21479,7 @@
       <c r="V838" s="2"/>
       <c r="W838" s="2"/>
     </row>
-    <row r="839">
+    <row r="839" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A839" s="5"/>
       <c r="B839" s="5"/>
       <c r="C839" s="2"/>
@@ -21468,7 +21504,7 @@
       <c r="V839" s="2"/>
       <c r="W839" s="2"/>
     </row>
-    <row r="840">
+    <row r="840" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A840" s="5"/>
       <c r="B840" s="5"/>
       <c r="C840" s="2"/>
@@ -21493,7 +21529,7 @@
       <c r="V840" s="2"/>
       <c r="W840" s="2"/>
     </row>
-    <row r="841">
+    <row r="841" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A841" s="5"/>
       <c r="B841" s="5"/>
       <c r="C841" s="2"/>
@@ -21518,7 +21554,7 @@
       <c r="V841" s="2"/>
       <c r="W841" s="2"/>
     </row>
-    <row r="842">
+    <row r="842" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A842" s="5"/>
       <c r="B842" s="5"/>
       <c r="C842" s="2"/>
@@ -21543,7 +21579,7 @@
       <c r="V842" s="2"/>
       <c r="W842" s="2"/>
     </row>
-    <row r="843">
+    <row r="843" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A843" s="5"/>
       <c r="B843" s="5"/>
       <c r="C843" s="2"/>
@@ -21568,7 +21604,7 @@
       <c r="V843" s="2"/>
       <c r="W843" s="2"/>
     </row>
-    <row r="844">
+    <row r="844" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A844" s="5"/>
       <c r="B844" s="5"/>
       <c r="C844" s="2"/>
@@ -21593,7 +21629,7 @@
       <c r="V844" s="2"/>
       <c r="W844" s="2"/>
     </row>
-    <row r="845">
+    <row r="845" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A845" s="5"/>
       <c r="B845" s="5"/>
       <c r="C845" s="2"/>
@@ -21618,7 +21654,7 @@
       <c r="V845" s="2"/>
       <c r="W845" s="2"/>
     </row>
-    <row r="846">
+    <row r="846" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A846" s="5"/>
       <c r="B846" s="5"/>
       <c r="C846" s="2"/>
@@ -21643,7 +21679,7 @@
       <c r="V846" s="2"/>
       <c r="W846" s="2"/>
     </row>
-    <row r="847">
+    <row r="847" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A847" s="5"/>
       <c r="B847" s="5"/>
       <c r="C847" s="2"/>
@@ -21668,7 +21704,7 @@
       <c r="V847" s="2"/>
       <c r="W847" s="2"/>
     </row>
-    <row r="848">
+    <row r="848" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A848" s="5"/>
       <c r="B848" s="5"/>
       <c r="C848" s="2"/>
@@ -21693,7 +21729,7 @@
       <c r="V848" s="2"/>
       <c r="W848" s="2"/>
     </row>
-    <row r="849">
+    <row r="849" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A849" s="5"/>
       <c r="B849" s="5"/>
       <c r="C849" s="2"/>
@@ -21718,7 +21754,7 @@
       <c r="V849" s="2"/>
       <c r="W849" s="2"/>
     </row>
-    <row r="850">
+    <row r="850" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A850" s="5"/>
       <c r="B850" s="5"/>
       <c r="C850" s="2"/>
@@ -21743,7 +21779,7 @@
       <c r="V850" s="2"/>
       <c r="W850" s="2"/>
     </row>
-    <row r="851">
+    <row r="851" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A851" s="5"/>
       <c r="B851" s="5"/>
       <c r="C851" s="2"/>
@@ -21768,7 +21804,7 @@
       <c r="V851" s="2"/>
       <c r="W851" s="2"/>
     </row>
-    <row r="852">
+    <row r="852" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A852" s="5"/>
       <c r="B852" s="5"/>
       <c r="C852" s="2"/>
@@ -21793,7 +21829,7 @@
       <c r="V852" s="2"/>
       <c r="W852" s="2"/>
     </row>
-    <row r="853">
+    <row r="853" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A853" s="5"/>
       <c r="B853" s="5"/>
       <c r="C853" s="2"/>
@@ -21818,7 +21854,7 @@
       <c r="V853" s="2"/>
       <c r="W853" s="2"/>
     </row>
-    <row r="854">
+    <row r="854" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A854" s="5"/>
       <c r="B854" s="5"/>
       <c r="C854" s="2"/>
@@ -21843,7 +21879,7 @@
       <c r="V854" s="2"/>
       <c r="W854" s="2"/>
     </row>
-    <row r="855">
+    <row r="855" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A855" s="5"/>
       <c r="B855" s="5"/>
       <c r="C855" s="2"/>
@@ -21868,7 +21904,7 @@
       <c r="V855" s="2"/>
       <c r="W855" s="2"/>
     </row>
-    <row r="856">
+    <row r="856" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A856" s="5"/>
       <c r="B856" s="5"/>
       <c r="C856" s="2"/>
@@ -21893,7 +21929,7 @@
       <c r="V856" s="2"/>
       <c r="W856" s="2"/>
     </row>
-    <row r="857">
+    <row r="857" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A857" s="5"/>
       <c r="B857" s="5"/>
       <c r="C857" s="2"/>
@@ -21918,7 +21954,7 @@
       <c r="V857" s="2"/>
       <c r="W857" s="2"/>
     </row>
-    <row r="858">
+    <row r="858" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A858" s="5"/>
       <c r="B858" s="5"/>
       <c r="C858" s="2"/>
@@ -21943,7 +21979,7 @@
       <c r="V858" s="2"/>
       <c r="W858" s="2"/>
     </row>
-    <row r="859">
+    <row r="859" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A859" s="5"/>
       <c r="B859" s="5"/>
       <c r="C859" s="2"/>
@@ -21968,7 +22004,7 @@
       <c r="V859" s="2"/>
       <c r="W859" s="2"/>
     </row>
-    <row r="860">
+    <row r="860" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A860" s="5"/>
       <c r="B860" s="5"/>
       <c r="C860" s="2"/>
@@ -21993,7 +22029,7 @@
       <c r="V860" s="2"/>
       <c r="W860" s="2"/>
     </row>
-    <row r="861">
+    <row r="861" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A861" s="5"/>
       <c r="B861" s="5"/>
       <c r="C861" s="2"/>
@@ -22018,7 +22054,7 @@
       <c r="V861" s="2"/>
       <c r="W861" s="2"/>
     </row>
-    <row r="862">
+    <row r="862" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A862" s="5"/>
       <c r="B862" s="5"/>
       <c r="C862" s="2"/>
@@ -22043,7 +22079,7 @@
       <c r="V862" s="2"/>
       <c r="W862" s="2"/>
     </row>
-    <row r="863">
+    <row r="863" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A863" s="5"/>
       <c r="B863" s="5"/>
       <c r="C863" s="2"/>
@@ -22068,7 +22104,7 @@
       <c r="V863" s="2"/>
       <c r="W863" s="2"/>
     </row>
-    <row r="864">
+    <row r="864" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A864" s="5"/>
       <c r="B864" s="5"/>
       <c r="C864" s="2"/>
@@ -22093,7 +22129,7 @@
       <c r="V864" s="2"/>
       <c r="W864" s="2"/>
     </row>
-    <row r="865">
+    <row r="865" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A865" s="5"/>
       <c r="B865" s="5"/>
       <c r="C865" s="2"/>
@@ -22118,7 +22154,7 @@
       <c r="V865" s="2"/>
       <c r="W865" s="2"/>
     </row>
-    <row r="866">
+    <row r="866" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A866" s="5"/>
       <c r="B866" s="5"/>
       <c r="C866" s="2"/>
@@ -22143,7 +22179,7 @@
       <c r="V866" s="2"/>
       <c r="W866" s="2"/>
     </row>
-    <row r="867">
+    <row r="867" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A867" s="5"/>
       <c r="B867" s="5"/>
       <c r="C867" s="2"/>
@@ -22168,7 +22204,7 @@
       <c r="V867" s="2"/>
       <c r="W867" s="2"/>
     </row>
-    <row r="868">
+    <row r="868" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A868" s="5"/>
       <c r="B868" s="5"/>
       <c r="C868" s="2"/>
@@ -22193,7 +22229,7 @@
       <c r="V868" s="2"/>
       <c r="W868" s="2"/>
     </row>
-    <row r="869">
+    <row r="869" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A869" s="5"/>
       <c r="B869" s="5"/>
       <c r="C869" s="2"/>
@@ -22218,7 +22254,7 @@
       <c r="V869" s="2"/>
       <c r="W869" s="2"/>
     </row>
-    <row r="870">
+    <row r="870" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A870" s="5"/>
       <c r="B870" s="5"/>
       <c r="C870" s="2"/>
@@ -22243,7 +22279,7 @@
       <c r="V870" s="2"/>
       <c r="W870" s="2"/>
     </row>
-    <row r="871">
+    <row r="871" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A871" s="5"/>
       <c r="B871" s="5"/>
       <c r="C871" s="2"/>
@@ -22268,7 +22304,7 @@
       <c r="V871" s="2"/>
       <c r="W871" s="2"/>
     </row>
-    <row r="872">
+    <row r="872" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A872" s="5"/>
       <c r="B872" s="5"/>
       <c r="C872" s="2"/>
@@ -22293,7 +22329,7 @@
       <c r="V872" s="2"/>
       <c r="W872" s="2"/>
     </row>
-    <row r="873">
+    <row r="873" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A873" s="5"/>
       <c r="B873" s="5"/>
       <c r="C873" s="2"/>
@@ -22318,7 +22354,7 @@
       <c r="V873" s="2"/>
       <c r="W873" s="2"/>
     </row>
-    <row r="874">
+    <row r="874" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A874" s="5"/>
       <c r="B874" s="5"/>
       <c r="C874" s="2"/>
@@ -22343,7 +22379,7 @@
       <c r="V874" s="2"/>
       <c r="W874" s="2"/>
     </row>
-    <row r="875">
+    <row r="875" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A875" s="5"/>
       <c r="B875" s="5"/>
       <c r="C875" s="2"/>
@@ -22368,7 +22404,7 @@
       <c r="V875" s="2"/>
       <c r="W875" s="2"/>
     </row>
-    <row r="876">
+    <row r="876" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A876" s="5"/>
       <c r="B876" s="5"/>
       <c r="C876" s="2"/>
@@ -22393,7 +22429,7 @@
       <c r="V876" s="2"/>
       <c r="W876" s="2"/>
     </row>
-    <row r="877">
+    <row r="877" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A877" s="5"/>
       <c r="B877" s="5"/>
       <c r="C877" s="2"/>
@@ -22418,7 +22454,7 @@
       <c r="V877" s="2"/>
       <c r="W877" s="2"/>
     </row>
-    <row r="878">
+    <row r="878" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A878" s="5"/>
       <c r="B878" s="5"/>
       <c r="C878" s="2"/>
@@ -22443,7 +22479,7 @@
       <c r="V878" s="2"/>
       <c r="W878" s="2"/>
     </row>
-    <row r="879">
+    <row r="879" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A879" s="5"/>
       <c r="B879" s="5"/>
       <c r="C879" s="2"/>
@@ -22468,7 +22504,7 @@
       <c r="V879" s="2"/>
       <c r="W879" s="2"/>
     </row>
-    <row r="880">
+    <row r="880" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A880" s="5"/>
       <c r="B880" s="5"/>
       <c r="C880" s="2"/>
@@ -22493,7 +22529,7 @@
       <c r="V880" s="2"/>
       <c r="W880" s="2"/>
     </row>
-    <row r="881">
+    <row r="881" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A881" s="5"/>
       <c r="B881" s="5"/>
       <c r="C881" s="2"/>
@@ -22518,7 +22554,7 @@
       <c r="V881" s="2"/>
       <c r="W881" s="2"/>
     </row>
-    <row r="882">
+    <row r="882" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A882" s="5"/>
       <c r="B882" s="5"/>
       <c r="C882" s="2"/>
@@ -22543,7 +22579,7 @@
       <c r="V882" s="2"/>
       <c r="W882" s="2"/>
     </row>
-    <row r="883">
+    <row r="883" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A883" s="5"/>
       <c r="B883" s="5"/>
       <c r="C883" s="2"/>
@@ -22568,7 +22604,7 @@
       <c r="V883" s="2"/>
       <c r="W883" s="2"/>
     </row>
-    <row r="884">
+    <row r="884" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A884" s="5"/>
       <c r="B884" s="5"/>
       <c r="C884" s="2"/>
@@ -22593,7 +22629,7 @@
       <c r="V884" s="2"/>
       <c r="W884" s="2"/>
     </row>
-    <row r="885">
+    <row r="885" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A885" s="5"/>
       <c r="B885" s="5"/>
       <c r="C885" s="2"/>
@@ -22618,7 +22654,7 @@
       <c r="V885" s="2"/>
       <c r="W885" s="2"/>
     </row>
-    <row r="886">
+    <row r="886" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A886" s="5"/>
       <c r="B886" s="5"/>
       <c r="C886" s="2"/>
@@ -22643,7 +22679,7 @@
       <c r="V886" s="2"/>
       <c r="W886" s="2"/>
     </row>
-    <row r="887">
+    <row r="887" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A887" s="5"/>
       <c r="B887" s="5"/>
       <c r="C887" s="2"/>
@@ -22668,7 +22704,7 @@
       <c r="V887" s="2"/>
       <c r="W887" s="2"/>
     </row>
-    <row r="888">
+    <row r="888" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A888" s="5"/>
       <c r="B888" s="5"/>
       <c r="C888" s="2"/>
@@ -22693,7 +22729,7 @@
       <c r="V888" s="2"/>
       <c r="W888" s="2"/>
     </row>
-    <row r="889">
+    <row r="889" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A889" s="5"/>
       <c r="B889" s="5"/>
       <c r="C889" s="2"/>
@@ -22718,7 +22754,7 @@
       <c r="V889" s="2"/>
       <c r="W889" s="2"/>
     </row>
-    <row r="890">
+    <row r="890" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A890" s="5"/>
       <c r="B890" s="5"/>
       <c r="C890" s="2"/>
@@ -22743,7 +22779,7 @@
       <c r="V890" s="2"/>
       <c r="W890" s="2"/>
     </row>
-    <row r="891">
+    <row r="891" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A891" s="5"/>
       <c r="B891" s="5"/>
       <c r="C891" s="2"/>
@@ -22768,7 +22804,7 @@
       <c r="V891" s="2"/>
       <c r="W891" s="2"/>
     </row>
-    <row r="892">
+    <row r="892" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A892" s="5"/>
       <c r="B892" s="5"/>
       <c r="C892" s="2"/>
@@ -22793,7 +22829,7 @@
       <c r="V892" s="2"/>
       <c r="W892" s="2"/>
     </row>
-    <row r="893">
+    <row r="893" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A893" s="5"/>
       <c r="B893" s="5"/>
       <c r="C893" s="2"/>
@@ -22818,7 +22854,7 @@
       <c r="V893" s="2"/>
       <c r="W893" s="2"/>
     </row>
-    <row r="894">
+    <row r="894" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A894" s="5"/>
       <c r="B894" s="5"/>
       <c r="C894" s="2"/>
@@ -22843,7 +22879,7 @@
       <c r="V894" s="2"/>
       <c r="W894" s="2"/>
     </row>
-    <row r="895">
+    <row r="895" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A895" s="5"/>
       <c r="B895" s="5"/>
       <c r="C895" s="2"/>
@@ -22868,7 +22904,7 @@
       <c r="V895" s="2"/>
       <c r="W895" s="2"/>
     </row>
-    <row r="896">
+    <row r="896" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A896" s="5"/>
       <c r="B896" s="5"/>
       <c r="C896" s="2"/>
@@ -22893,7 +22929,7 @@
       <c r="V896" s="2"/>
       <c r="W896" s="2"/>
     </row>
-    <row r="897">
+    <row r="897" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A897" s="5"/>
       <c r="B897" s="5"/>
       <c r="C897" s="2"/>
@@ -22918,7 +22954,7 @@
       <c r="V897" s="2"/>
       <c r="W897" s="2"/>
     </row>
-    <row r="898">
+    <row r="898" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A898" s="5"/>
       <c r="B898" s="5"/>
       <c r="C898" s="2"/>
@@ -22943,7 +22979,7 @@
       <c r="V898" s="2"/>
       <c r="W898" s="2"/>
     </row>
-    <row r="899">
+    <row r="899" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A899" s="5"/>
       <c r="B899" s="5"/>
       <c r="C899" s="2"/>
@@ -22968,7 +23004,7 @@
       <c r="V899" s="2"/>
       <c r="W899" s="2"/>
     </row>
-    <row r="900">
+    <row r="900" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A900" s="5"/>
       <c r="B900" s="5"/>
       <c r="C900" s="2"/>
@@ -22993,7 +23029,7 @@
       <c r="V900" s="2"/>
       <c r="W900" s="2"/>
     </row>
-    <row r="901">
+    <row r="901" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A901" s="5"/>
       <c r="B901" s="5"/>
       <c r="C901" s="2"/>
@@ -23018,7 +23054,7 @@
       <c r="V901" s="2"/>
       <c r="W901" s="2"/>
     </row>
-    <row r="902">
+    <row r="902" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A902" s="5"/>
       <c r="B902" s="5"/>
       <c r="C902" s="2"/>
@@ -23043,7 +23079,7 @@
       <c r="V902" s="2"/>
       <c r="W902" s="2"/>
     </row>
-    <row r="903">
+    <row r="903" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A903" s="5"/>
       <c r="B903" s="5"/>
       <c r="C903" s="2"/>
@@ -23068,7 +23104,7 @@
       <c r="V903" s="2"/>
       <c r="W903" s="2"/>
     </row>
-    <row r="904">
+    <row r="904" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A904" s="5"/>
       <c r="B904" s="5"/>
       <c r="C904" s="2"/>
@@ -23093,7 +23129,7 @@
       <c r="V904" s="2"/>
       <c r="W904" s="2"/>
     </row>
-    <row r="905">
+    <row r="905" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A905" s="5"/>
       <c r="B905" s="5"/>
       <c r="C905" s="2"/>
@@ -23118,7 +23154,7 @@
       <c r="V905" s="2"/>
       <c r="W905" s="2"/>
     </row>
-    <row r="906">
+    <row r="906" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A906" s="5"/>
       <c r="B906" s="5"/>
       <c r="C906" s="2"/>
@@ -23143,7 +23179,7 @@
       <c r="V906" s="2"/>
       <c r="W906" s="2"/>
     </row>
-    <row r="907">
+    <row r="907" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A907" s="5"/>
       <c r="B907" s="5"/>
       <c r="C907" s="2"/>
@@ -23168,7 +23204,7 @@
       <c r="V907" s="2"/>
       <c r="W907" s="2"/>
     </row>
-    <row r="908">
+    <row r="908" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A908" s="5"/>
       <c r="B908" s="5"/>
       <c r="C908" s="2"/>
@@ -23193,7 +23229,7 @@
       <c r="V908" s="2"/>
       <c r="W908" s="2"/>
     </row>
-    <row r="909">
+    <row r="909" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A909" s="5"/>
       <c r="B909" s="5"/>
       <c r="C909" s="2"/>
@@ -23218,7 +23254,7 @@
       <c r="V909" s="2"/>
       <c r="W909" s="2"/>
     </row>
-    <row r="910">
+    <row r="910" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A910" s="5"/>
       <c r="B910" s="5"/>
       <c r="C910" s="2"/>
@@ -23243,7 +23279,7 @@
       <c r="V910" s="2"/>
       <c r="W910" s="2"/>
     </row>
-    <row r="911">
+    <row r="911" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A911" s="5"/>
       <c r="B911" s="5"/>
       <c r="C911" s="2"/>
@@ -23268,7 +23304,7 @@
       <c r="V911" s="2"/>
       <c r="W911" s="2"/>
     </row>
-    <row r="912">
+    <row r="912" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A912" s="5"/>
       <c r="B912" s="5"/>
       <c r="C912" s="2"/>
@@ -23293,7 +23329,7 @@
       <c r="V912" s="2"/>
       <c r="W912" s="2"/>
     </row>
-    <row r="913">
+    <row r="913" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A913" s="5"/>
       <c r="B913" s="5"/>
       <c r="C913" s="2"/>
@@ -23318,7 +23354,7 @@
       <c r="V913" s="2"/>
       <c r="W913" s="2"/>
     </row>
-    <row r="914">
+    <row r="914" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A914" s="5"/>
       <c r="B914" s="5"/>
       <c r="C914" s="2"/>
@@ -23343,7 +23379,7 @@
       <c r="V914" s="2"/>
       <c r="W914" s="2"/>
     </row>
-    <row r="915">
+    <row r="915" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A915" s="5"/>
       <c r="B915" s="5"/>
       <c r="C915" s="2"/>
@@ -23368,7 +23404,7 @@
       <c r="V915" s="2"/>
       <c r="W915" s="2"/>
     </row>
-    <row r="916">
+    <row r="916" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A916" s="5"/>
       <c r="B916" s="5"/>
       <c r="C916" s="2"/>
@@ -23393,7 +23429,7 @@
       <c r="V916" s="2"/>
       <c r="W916" s="2"/>
     </row>
-    <row r="917">
+    <row r="917" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A917" s="5"/>
       <c r="B917" s="5"/>
       <c r="C917" s="2"/>
@@ -23418,7 +23454,7 @@
       <c r="V917" s="2"/>
       <c r="W917" s="2"/>
     </row>
-    <row r="918">
+    <row r="918" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A918" s="5"/>
       <c r="B918" s="5"/>
       <c r="C918" s="2"/>
@@ -23443,7 +23479,7 @@
       <c r="V918" s="2"/>
       <c r="W918" s="2"/>
     </row>
-    <row r="919">
+    <row r="919" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A919" s="5"/>
       <c r="B919" s="5"/>
       <c r="C919" s="2"/>
@@ -23468,7 +23504,7 @@
       <c r="V919" s="2"/>
       <c r="W919" s="2"/>
     </row>
-    <row r="920">
+    <row r="920" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A920" s="5"/>
       <c r="B920" s="5"/>
       <c r="C920" s="2"/>
@@ -23493,7 +23529,7 @@
       <c r="V920" s="2"/>
       <c r="W920" s="2"/>
     </row>
-    <row r="921">
+    <row r="921" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A921" s="5"/>
       <c r="B921" s="5"/>
       <c r="C921" s="2"/>
@@ -23518,7 +23554,7 @@
       <c r="V921" s="2"/>
       <c r="W921" s="2"/>
     </row>
-    <row r="922">
+    <row r="922" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A922" s="5"/>
       <c r="B922" s="5"/>
       <c r="C922" s="2"/>
@@ -23543,7 +23579,7 @@
       <c r="V922" s="2"/>
       <c r="W922" s="2"/>
     </row>
-    <row r="923">
+    <row r="923" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A923" s="5"/>
       <c r="B923" s="5"/>
       <c r="C923" s="2"/>
@@ -23568,7 +23604,7 @@
       <c r="V923" s="2"/>
       <c r="W923" s="2"/>
     </row>
-    <row r="924">
+    <row r="924" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A924" s="5"/>
       <c r="B924" s="5"/>
       <c r="C924" s="2"/>
@@ -23593,7 +23629,7 @@
       <c r="V924" s="2"/>
       <c r="W924" s="2"/>
     </row>
-    <row r="925">
+    <row r="925" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A925" s="5"/>
       <c r="B925" s="5"/>
       <c r="C925" s="2"/>
@@ -23618,7 +23654,7 @@
       <c r="V925" s="2"/>
       <c r="W925" s="2"/>
     </row>
-    <row r="926">
+    <row r="926" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A926" s="5"/>
       <c r="B926" s="5"/>
       <c r="C926" s="2"/>
@@ -23643,7 +23679,7 @@
       <c r="V926" s="2"/>
       <c r="W926" s="2"/>
     </row>
-    <row r="927">
+    <row r="927" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A927" s="5"/>
       <c r="B927" s="5"/>
       <c r="C927" s="2"/>
@@ -23668,7 +23704,7 @@
       <c r="V927" s="2"/>
       <c r="W927" s="2"/>
     </row>
-    <row r="928">
+    <row r="928" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A928" s="5"/>
       <c r="B928" s="5"/>
       <c r="C928" s="2"/>
@@ -23693,7 +23729,7 @@
       <c r="V928" s="2"/>
       <c r="W928" s="2"/>
     </row>
-    <row r="929">
+    <row r="929" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A929" s="5"/>
       <c r="B929" s="5"/>
       <c r="C929" s="2"/>
@@ -23718,7 +23754,7 @@
       <c r="V929" s="2"/>
       <c r="W929" s="2"/>
     </row>
-    <row r="930">
+    <row r="930" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A930" s="5"/>
       <c r="B930" s="5"/>
       <c r="C930" s="2"/>
@@ -23743,7 +23779,7 @@
       <c r="V930" s="2"/>
       <c r="W930" s="2"/>
     </row>
-    <row r="931">
+    <row r="931" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A931" s="5"/>
       <c r="B931" s="5"/>
       <c r="C931" s="2"/>
@@ -23768,7 +23804,7 @@
       <c r="V931" s="2"/>
       <c r="W931" s="2"/>
     </row>
-    <row r="932">
+    <row r="932" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A932" s="5"/>
       <c r="B932" s="5"/>
       <c r="C932" s="2"/>
@@ -23793,7 +23829,7 @@
       <c r="V932" s="2"/>
       <c r="W932" s="2"/>
     </row>
-    <row r="933">
+    <row r="933" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A933" s="5"/>
       <c r="B933" s="5"/>
       <c r="C933" s="2"/>
@@ -23818,7 +23854,7 @@
       <c r="V933" s="2"/>
       <c r="W933" s="2"/>
     </row>
-    <row r="934">
+    <row r="934" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A934" s="5"/>
       <c r="B934" s="5"/>
       <c r="C934" s="2"/>
@@ -23843,7 +23879,7 @@
       <c r="V934" s="2"/>
       <c r="W934" s="2"/>
     </row>
-    <row r="935">
+    <row r="935" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A935" s="5"/>
       <c r="B935" s="5"/>
       <c r="C935" s="2"/>
@@ -23868,7 +23904,7 @@
       <c r="V935" s="2"/>
       <c r="W935" s="2"/>
     </row>
-    <row r="936">
+    <row r="936" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A936" s="5"/>
       <c r="B936" s="5"/>
       <c r="C936" s="2"/>
@@ -23893,7 +23929,7 @@
       <c r="V936" s="2"/>
       <c r="W936" s="2"/>
     </row>
-    <row r="937">
+    <row r="937" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A937" s="5"/>
       <c r="B937" s="5"/>
       <c r="C937" s="2"/>
@@ -23918,7 +23954,7 @@
       <c r="V937" s="2"/>
       <c r="W937" s="2"/>
     </row>
-    <row r="938">
+    <row r="938" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A938" s="5"/>
       <c r="B938" s="5"/>
       <c r="C938" s="2"/>
@@ -23943,7 +23979,7 @@
       <c r="V938" s="2"/>
       <c r="W938" s="2"/>
     </row>
-    <row r="939">
+    <row r="939" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A939" s="5"/>
       <c r="B939" s="5"/>
       <c r="C939" s="2"/>
@@ -23968,7 +24004,7 @@
       <c r="V939" s="2"/>
       <c r="W939" s="2"/>
     </row>
-    <row r="940">
+    <row r="940" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A940" s="5"/>
       <c r="B940" s="5"/>
       <c r="C940" s="2"/>
@@ -23993,7 +24029,7 @@
       <c r="V940" s="2"/>
       <c r="W940" s="2"/>
     </row>
-    <row r="941">
+    <row r="941" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A941" s="5"/>
       <c r="B941" s="5"/>
       <c r="C941" s="2"/>
@@ -24018,7 +24054,7 @@
       <c r="V941" s="2"/>
       <c r="W941" s="2"/>
     </row>
-    <row r="942">
+    <row r="942" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A942" s="5"/>
       <c r="B942" s="5"/>
       <c r="C942" s="2"/>
@@ -24043,7 +24079,7 @@
       <c r="V942" s="2"/>
       <c r="W942" s="2"/>
     </row>
-    <row r="943">
+    <row r="943" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A943" s="5"/>
       <c r="B943" s="5"/>
       <c r="C943" s="2"/>
@@ -24068,7 +24104,7 @@
       <c r="V943" s="2"/>
       <c r="W943" s="2"/>
     </row>
-    <row r="944">
+    <row r="944" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A944" s="5"/>
       <c r="B944" s="5"/>
       <c r="C944" s="2"/>
@@ -24093,7 +24129,7 @@
       <c r="V944" s="2"/>
       <c r="W944" s="2"/>
     </row>
-    <row r="945">
+    <row r="945" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A945" s="5"/>
       <c r="B945" s="5"/>
       <c r="C945" s="2"/>
@@ -24118,7 +24154,7 @@
       <c r="V945" s="2"/>
       <c r="W945" s="2"/>
     </row>
-    <row r="946">
+    <row r="946" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A946" s="5"/>
       <c r="B946" s="5"/>
       <c r="C946" s="2"/>
@@ -24143,7 +24179,7 @@
       <c r="V946" s="2"/>
       <c r="W946" s="2"/>
     </row>
-    <row r="947">
+    <row r="947" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A947" s="5"/>
       <c r="B947" s="5"/>
       <c r="C947" s="2"/>
@@ -24168,7 +24204,7 @@
       <c r="V947" s="2"/>
       <c r="W947" s="2"/>
     </row>
-    <row r="948">
+    <row r="948" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A948" s="5"/>
       <c r="B948" s="5"/>
       <c r="C948" s="2"/>
@@ -24193,7 +24229,7 @@
       <c r="V948" s="2"/>
       <c r="W948" s="2"/>
     </row>
-    <row r="949">
+    <row r="949" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A949" s="5"/>
       <c r="B949" s="5"/>
       <c r="C949" s="2"/>
@@ -24218,7 +24254,7 @@
       <c r="V949" s="2"/>
       <c r="W949" s="2"/>
     </row>
-    <row r="950">
+    <row r="950" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A950" s="5"/>
       <c r="B950" s="5"/>
       <c r="C950" s="2"/>
@@ -24243,7 +24279,7 @@
       <c r="V950" s="2"/>
       <c r="W950" s="2"/>
     </row>
-    <row r="951">
+    <row r="951" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A951" s="5"/>
       <c r="B951" s="5"/>
       <c r="C951" s="2"/>
@@ -24268,7 +24304,7 @@
       <c r="V951" s="2"/>
       <c r="W951" s="2"/>
     </row>
-    <row r="952">
+    <row r="952" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A952" s="5"/>
       <c r="B952" s="5"/>
       <c r="C952" s="2"/>
@@ -24293,7 +24329,7 @@
       <c r="V952" s="2"/>
       <c r="W952" s="2"/>
     </row>
-    <row r="953">
+    <row r="953" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A953" s="5"/>
       <c r="B953" s="5"/>
       <c r="C953" s="2"/>
@@ -24318,7 +24354,7 @@
       <c r="V953" s="2"/>
       <c r="W953" s="2"/>
     </row>
-    <row r="954">
+    <row r="954" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A954" s="5"/>
       <c r="B954" s="5"/>
       <c r="C954" s="2"/>
@@ -24343,7 +24379,7 @@
       <c r="V954" s="2"/>
       <c r="W954" s="2"/>
     </row>
-    <row r="955">
+    <row r="955" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A955" s="5"/>
       <c r="B955" s="5"/>
       <c r="C955" s="2"/>
@@ -24368,7 +24404,7 @@
       <c r="V955" s="2"/>
       <c r="W955" s="2"/>
     </row>
-    <row r="956">
+    <row r="956" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A956" s="5"/>
       <c r="B956" s="5"/>
       <c r="C956" s="2"/>
@@ -24393,7 +24429,7 @@
       <c r="V956" s="2"/>
       <c r="W956" s="2"/>
     </row>
-    <row r="957">
+    <row r="957" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A957" s="5"/>
       <c r="B957" s="5"/>
       <c r="C957" s="2"/>
@@ -24418,7 +24454,7 @@
       <c r="V957" s="2"/>
       <c r="W957" s="2"/>
     </row>
-    <row r="958">
+    <row r="958" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A958" s="5"/>
       <c r="B958" s="5"/>
       <c r="C958" s="2"/>
@@ -24443,7 +24479,7 @@
       <c r="V958" s="2"/>
       <c r="W958" s="2"/>
     </row>
-    <row r="959">
+    <row r="959" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A959" s="5"/>
       <c r="B959" s="5"/>
       <c r="C959" s="2"/>
@@ -24468,7 +24504,7 @@
       <c r="V959" s="2"/>
       <c r="W959" s="2"/>
     </row>
-    <row r="960">
+    <row r="960" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A960" s="5"/>
       <c r="B960" s="5"/>
       <c r="C960" s="2"/>
@@ -24493,7 +24529,7 @@
       <c r="V960" s="2"/>
       <c r="W960" s="2"/>
     </row>
-    <row r="961">
+    <row r="961" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A961" s="5"/>
       <c r="B961" s="5"/>
       <c r="C961" s="2"/>
@@ -24518,7 +24554,7 @@
       <c r="V961" s="2"/>
       <c r="W961" s="2"/>
     </row>
-    <row r="962">
+    <row r="962" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A962" s="5"/>
       <c r="B962" s="5"/>
       <c r="C962" s="2"/>
@@ -24543,7 +24579,7 @@
       <c r="V962" s="2"/>
       <c r="W962" s="2"/>
     </row>
-    <row r="963">
+    <row r="963" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A963" s="5"/>
       <c r="B963" s="5"/>
       <c r="C963" s="2"/>
@@ -24568,7 +24604,7 @@
       <c r="V963" s="2"/>
       <c r="W963" s="2"/>
     </row>
-    <row r="964">
+    <row r="964" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A964" s="5"/>
       <c r="B964" s="5"/>
       <c r="C964" s="2"/>
@@ -24593,7 +24629,7 @@
       <c r="V964" s="2"/>
       <c r="W964" s="2"/>
     </row>
-    <row r="965">
+    <row r="965" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A965" s="5"/>
       <c r="B965" s="5"/>
       <c r="C965" s="2"/>
@@ -24618,7 +24654,7 @@
       <c r="V965" s="2"/>
       <c r="W965" s="2"/>
     </row>
-    <row r="966">
+    <row r="966" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A966" s="5"/>
       <c r="B966" s="5"/>
       <c r="C966" s="2"/>
@@ -24643,7 +24679,7 @@
       <c r="V966" s="2"/>
       <c r="W966" s="2"/>
     </row>
-    <row r="967">
+    <row r="967" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A967" s="5"/>
       <c r="B967" s="5"/>
       <c r="C967" s="2"/>
@@ -24668,7 +24704,7 @@
       <c r="V967" s="2"/>
       <c r="W967" s="2"/>
     </row>
-    <row r="968">
+    <row r="968" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A968" s="5"/>
       <c r="B968" s="5"/>
       <c r="C968" s="2"/>
@@ -24693,7 +24729,7 @@
       <c r="V968" s="2"/>
       <c r="W968" s="2"/>
     </row>
-    <row r="969">
+    <row r="969" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A969" s="5"/>
       <c r="B969" s="5"/>
       <c r="C969" s="2"/>
@@ -24718,7 +24754,7 @@
       <c r="V969" s="2"/>
       <c r="W969" s="2"/>
     </row>
-    <row r="970">
+    <row r="970" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A970" s="5"/>
       <c r="B970" s="5"/>
       <c r="C970" s="2"/>
@@ -24743,7 +24779,7 @@
       <c r="V970" s="2"/>
       <c r="W970" s="2"/>
     </row>
-    <row r="971">
+    <row r="971" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A971" s="5"/>
       <c r="B971" s="5"/>
       <c r="C971" s="2"/>
@@ -24768,7 +24804,7 @@
       <c r="V971" s="2"/>
       <c r="W971" s="2"/>
     </row>
-    <row r="972">
+    <row r="972" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A972" s="5"/>
       <c r="B972" s="5"/>
       <c r="C972" s="2"/>
@@ -24793,7 +24829,7 @@
       <c r="V972" s="2"/>
       <c r="W972" s="2"/>
     </row>
-    <row r="973">
+    <row r="973" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A973" s="5"/>
       <c r="B973" s="5"/>
       <c r="C973" s="2"/>
@@ -24818,7 +24854,7 @@
       <c r="V973" s="2"/>
       <c r="W973" s="2"/>
     </row>
-    <row r="974">
+    <row r="974" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A974" s="5"/>
       <c r="B974" s="5"/>
       <c r="C974" s="2"/>
@@ -24843,7 +24879,7 @@
       <c r="V974" s="2"/>
       <c r="W974" s="2"/>
     </row>
-    <row r="975">
+    <row r="975" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A975" s="5"/>
       <c r="B975" s="5"/>
       <c r="C975" s="2"/>
@@ -24868,9 +24904,9 @@
       <c r="V975" s="2"/>
       <c r="W975" s="2"/>
     </row>
-    <row r="976">
-      <c r="A976" s="2"/>
-      <c r="B976" s="2"/>
+    <row r="976" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A976" s="5"/>
+      <c r="B976" s="5"/>
       <c r="C976" s="2"/>
       <c r="D976" s="2"/>
       <c r="E976" s="2"/>
@@ -24893,7 +24929,7 @@
       <c r="V976" s="2"/>
       <c r="W976" s="2"/>
     </row>
-    <row r="977">
+    <row r="977" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
       <c r="C977" s="2"/>
@@ -24918,7 +24954,7 @@
       <c r="V977" s="2"/>
       <c r="W977" s="2"/>
     </row>
-    <row r="978">
+    <row r="978" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
       <c r="C978" s="2"/>
@@ -24943,7 +24979,7 @@
       <c r="V978" s="2"/>
       <c r="W978" s="2"/>
     </row>
-    <row r="979">
+    <row r="979" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
       <c r="C979" s="2"/>
@@ -24968,7 +25004,7 @@
       <c r="V979" s="2"/>
       <c r="W979" s="2"/>
     </row>
-    <row r="980">
+    <row r="980" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
       <c r="C980" s="2"/>
@@ -24993,7 +25029,7 @@
       <c r="V980" s="2"/>
       <c r="W980" s="2"/>
     </row>
-    <row r="981">
+    <row r="981" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
       <c r="C981" s="2"/>
@@ -25018,7 +25054,32 @@
       <c r="V981" s="2"/>
       <c r="W981" s="2"/>
     </row>
+    <row r="982" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A982" s="2"/>
+      <c r="B982" s="2"/>
+      <c r="C982" s="2"/>
+      <c r="D982" s="2"/>
+      <c r="E982" s="2"/>
+      <c r="F982" s="2"/>
+      <c r="G982" s="2"/>
+      <c r="H982" s="2"/>
+      <c r="I982" s="2"/>
+      <c r="J982" s="2"/>
+      <c r="K982" s="2"/>
+      <c r="L982" s="2"/>
+      <c r="M982" s="2"/>
+      <c r="N982" s="2"/>
+      <c r="O982" s="2"/>
+      <c r="P982" s="2"/>
+      <c r="Q982" s="2"/>
+      <c r="R982" s="2"/>
+      <c r="S982" s="2"/>
+      <c r="T982" s="2"/>
+      <c r="U982" s="2"/>
+      <c r="V982" s="2"/>
+      <c r="W982" s="2"/>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>